--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
   <si>
     <t>My Template Matching</t>
   </si>
   <si>
     <t>Multi-scale Template Matching</t>
-  </si>
-  <si>
-    <t>Keypoint Matching</t>
   </si>
   <si>
     <t>Finding position of control</t>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>Libraries in usage</t>
-  </si>
-  <si>
-    <t>Feature Matching</t>
   </si>
   <si>
     <t>opencv, numpy, math, scikit-learn</t>
@@ -93,12 +87,15 @@
   <si>
     <t>Time</t>
   </si>
+  <si>
+    <t>Feature (keypoint) Matching</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,8 +122,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +147,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,6 +171,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,34 +249,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +585,7 @@
   <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,151 +596,151 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f>test1!AO32</f>
+        <v>0.60945842272722039</v>
+      </c>
+      <c r="C3" s="10">
+        <f>test1!AP32</f>
+        <v>0.53235283249105037</v>
+      </c>
+      <c r="D3" s="4">
+        <f>test1!AQ32</f>
+        <v>0.37320852615787631</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>test1!AO33</f>
+        <v>2.7772300799842925E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <f>test1!AP33</f>
+        <v>2.0727167440694756E-2</v>
+      </c>
+      <c r="I3" s="10">
+        <f>test1!AQ33</f>
+        <v>2.1148830000124873E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B4" s="2">
+        <f>test2!AO32</f>
+        <v>0.59545830410882084</v>
+      </c>
+      <c r="C4" s="10">
+        <f>test2!AP32</f>
+        <v>0.52995925502035401</v>
+      </c>
+      <c r="D4" s="4">
+        <f>test2!AQ32</f>
+        <v>0.45380088552225156</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <f>test2!AO33</f>
+        <v>0.11087261437452982</v>
+      </c>
+      <c r="H4" s="4">
+        <f>test2!AP33</f>
+        <v>0.68088644112554886</v>
+      </c>
+      <c r="I4" s="10">
+        <f>test2!AQ33</f>
+        <v>0.14627217925073638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <f>test3!AO32</f>
+        <v>0.69840000000000013</v>
+      </c>
+      <c r="C5" s="4">
+        <f>test3!AP32</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="D5" s="10">
+        <f>test3!AQ32</f>
+        <v>0.67820000000000003</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2">
+        <f>test3!AO33</f>
+        <v>2.6952761805267072E-3</v>
+      </c>
+      <c r="H5" s="10">
+        <f>test3!AP33</f>
+        <v>1.5875515519676264E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <f>test3!AQ33</f>
+        <v>2.1888963999925185E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="e">
-        <f>test1!AO32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" s="2" t="e">
-        <f>test1!AP32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D3" s="2" t="e">
-        <f>test1!AQ32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2" t="e">
-        <f>test1!AO33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="2" t="e">
-        <f>test1!AP33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="2" t="e">
-        <f>test1!AQ33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="e">
-        <f>test2!AO32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" s="2" t="e">
-        <f>test2!AP32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="2" t="e">
-        <f>test2!AQ32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="e">
-        <f>test2!AO33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="2" t="e">
-        <f>test2!AP33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="2" t="e">
-        <f>test2!AQ33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="e">
-        <f>test3!AO32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="2" t="e">
-        <f>test3!AP32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="2" t="e">
-        <f>test3!AQ32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="2" t="e">
-        <f>test3!AO33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="2" t="e">
-        <f>test3!AP33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="2" t="e">
-        <f>test3!AQ33</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -740,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ36"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="AF4" workbookViewId="0">
+      <selection activeCell="AN32" sqref="AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,39 +761,84 @@
     <col min="1" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AL1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.39726792132153049</v>
+      </c>
+      <c r="B2">
+        <v>0.23077666414060219</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.50433547652730093</v>
+      </c>
+      <c r="F2">
+        <v>0.40363361415175109</v>
+      </c>
+      <c r="G2">
+        <v>0.24440247089180159</v>
+      </c>
+      <c r="I2">
+        <v>0.51553146363169422</v>
+      </c>
+      <c r="J2">
+        <v>0.63460867813390154</v>
+      </c>
+      <c r="K2">
+        <v>0.48923471347500852</v>
+      </c>
+      <c r="M2">
+        <v>0.94184203315288006</v>
+      </c>
+      <c r="N2">
+        <v>0.71794797902046159</v>
+      </c>
+      <c r="O2">
+        <v>0.58558876396564552</v>
+      </c>
+      <c r="Q2">
+        <v>0.64234724338062432</v>
+      </c>
+      <c r="R2">
+        <v>0.67163234865029964</v>
+      </c>
+      <c r="S2">
+        <v>0.32667711692559281</v>
+      </c>
       <c r="U2">
         <v>0.6018207860913154</v>
       </c>
@@ -827,11 +884,56 @@
       <c r="AM2">
         <v>0.46767617343121798</v>
       </c>
-      <c r="AN2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>8.6774199968203897E-4</v>
+      </c>
+      <c r="B3">
+        <v>5.8673039986751972E-3</v>
+      </c>
+      <c r="C3">
+        <v>7.2862340020947158E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.2779498002491891E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.3974379985593261E-3</v>
+      </c>
+      <c r="G3">
+        <v>1.8759582003112878E-2</v>
+      </c>
+      <c r="I3">
+        <v>9.8591459961608046E-3</v>
+      </c>
+      <c r="J3">
+        <v>3.4451717997435481E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.8982533995294942E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.578657998470589E-3</v>
+      </c>
+      <c r="N3">
+        <v>8.9617939980234946E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.4973730008350689E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.5721960056107495E-3</v>
+      </c>
+      <c r="R3">
+        <v>8.18525600025896E-2</v>
+      </c>
+      <c r="S3">
+        <v>6.8831809997791427E-2</v>
+      </c>
       <c r="U3">
         <v>1.0660300031304359E-3</v>
       </c>
@@ -877,14 +979,59 @@
       <c r="AM3">
         <v>1.7322881995933129E-2</v>
       </c>
-      <c r="AN3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN4" s="11"/>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN4" s="9"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.40682020459215512</v>
+      </c>
+      <c r="B5">
+        <v>0.26952512583396659</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.537975880296093</v>
+      </c>
+      <c r="F5">
+        <v>0.41918845708071861</v>
+      </c>
+      <c r="G5">
+        <v>0.2109369899282445</v>
+      </c>
+      <c r="I5">
+        <v>0.5690399173357179</v>
+      </c>
+      <c r="J5">
+        <v>0.66743028671115379</v>
+      </c>
+      <c r="K5">
+        <v>0.51179447328028194</v>
+      </c>
+      <c r="M5">
+        <v>0.93641556948249682</v>
+      </c>
+      <c r="N5">
+        <v>0.63289819168709993</v>
+      </c>
+      <c r="O5">
+        <v>0.59138232432458904</v>
+      </c>
+      <c r="Q5">
+        <v>0.67050927093575685</v>
+      </c>
+      <c r="R5">
+        <v>0.70888764413042726</v>
+      </c>
+      <c r="S5">
+        <v>0.27837613119653137</v>
+      </c>
       <c r="U5">
         <v>0.66248335390847612</v>
       </c>
@@ -930,11 +1077,56 @@
       <c r="AM5">
         <v>0.51196560046225481</v>
       </c>
-      <c r="AN5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9.9437399767339225E-4</v>
+      </c>
+      <c r="B6">
+        <v>4.5438679994549598E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.1345459925942134E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.5715040010400121E-3</v>
+      </c>
+      <c r="F6">
+        <v>6.0474319953937082E-3</v>
+      </c>
+      <c r="G6">
+        <v>9.4855199963785712E-3</v>
+      </c>
+      <c r="I6">
+        <v>2.2963180055376141E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.8753826000029221E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.3255215993849561E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.39702600077726E-3</v>
+      </c>
+      <c r="N6">
+        <v>8.2279759994707997E-3</v>
+      </c>
+      <c r="O6">
+        <v>1.3174594001611689E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1.002370799542405E-2</v>
+      </c>
+      <c r="R6">
+        <v>7.9638570001116016E-2</v>
+      </c>
+      <c r="S6">
+        <v>7.1218039992963889E-2</v>
+      </c>
       <c r="U6">
         <v>1.264683998888358E-3</v>
       </c>
@@ -980,14 +1172,59 @@
       <c r="AM6">
         <v>1.284351000096649E-2</v>
       </c>
-      <c r="AN6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN7" s="11"/>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN7" s="9"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.46674263005077832</v>
+      </c>
+      <c r="B8">
+        <v>0.30535581059089267</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.52524467772321215</v>
+      </c>
+      <c r="F8">
+        <v>0.43017552443417062</v>
+      </c>
+      <c r="G8">
+        <v>0.22537721941716601</v>
+      </c>
+      <c r="I8">
+        <v>0.51536334246396576</v>
+      </c>
+      <c r="J8">
+        <v>0.64982522613947868</v>
+      </c>
+      <c r="K8">
+        <v>0.40991077030900142</v>
+      </c>
+      <c r="M8">
+        <v>0.92860086844920897</v>
+      </c>
+      <c r="N8">
+        <v>0.65078813058330609</v>
+      </c>
+      <c r="O8">
+        <v>0.60412676389764008</v>
+      </c>
+      <c r="Q8">
+        <v>0.66355831949765942</v>
+      </c>
+      <c r="R8">
+        <v>0.67673529784046782</v>
+      </c>
+      <c r="S8">
+        <v>0.30755137368258062</v>
+      </c>
       <c r="U8">
         <v>0.67676932654138033</v>
       </c>
@@ -1033,11 +1270,56 @@
       <c r="AM8">
         <v>0.44807112941950411</v>
       </c>
-      <c r="AN8" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9.6312400419265034E-4</v>
+      </c>
+      <c r="B9">
+        <v>4.5398380013648423E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.2615600016433749E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.071117999963462E-3</v>
+      </c>
+      <c r="F9">
+        <v>5.1924900035373867E-3</v>
+      </c>
+      <c r="G9">
+        <v>9.8530019994359456E-3</v>
+      </c>
+      <c r="I9">
+        <v>2.1277919993735852E-3</v>
+      </c>
+      <c r="J9">
+        <v>1.8411391996778551E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.84468340058811E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.3503659993875771E-3</v>
+      </c>
+      <c r="N9">
+        <v>8.563015995314345E-3</v>
+      </c>
+      <c r="O9">
+        <v>1.359821199672297E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.1407303996384141E-2</v>
+      </c>
+      <c r="R9">
+        <v>8.1582618000684309E-2</v>
+      </c>
+      <c r="S9">
+        <v>7.4878158000065018E-2</v>
+      </c>
       <c r="U9">
         <v>9.8596200114116068E-4</v>
       </c>
@@ -1083,14 +1365,59 @@
       <c r="AM9">
         <v>1.3129756000125781E-2</v>
       </c>
-      <c r="AN9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN10" s="11"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.41279197135171541</v>
+      </c>
+      <c r="B11">
+        <v>0.263529760062503</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.54383378320364539</v>
+      </c>
+      <c r="F11">
+        <v>0.4371892548830833</v>
+      </c>
+      <c r="G11">
+        <v>0.25247494033971501</v>
+      </c>
+      <c r="I11">
+        <v>0.52690948896003709</v>
+      </c>
+      <c r="J11">
+        <v>0.65593100840151153</v>
+      </c>
+      <c r="K11">
+        <v>0.45116883826682291</v>
+      </c>
+      <c r="M11">
+        <v>0.95088335863169593</v>
+      </c>
+      <c r="N11">
+        <v>0.69714529987498208</v>
+      </c>
+      <c r="O11">
+        <v>0.61330541640686154</v>
+      </c>
+      <c r="Q11">
+        <v>0.67767296474431538</v>
+      </c>
+      <c r="R11">
+        <v>0.6497669373954662</v>
+      </c>
+      <c r="S11">
+        <v>0.29348614612588181</v>
+      </c>
       <c r="U11">
         <v>0.72119971566313101</v>
       </c>
@@ -1136,11 +1463,56 @@
       <c r="AM11">
         <v>0.46863937282113582</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN11" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.3023979950230571E-3</v>
+      </c>
+      <c r="B12">
+        <v>6.7712980031501514E-3</v>
+      </c>
+      <c r="C12">
+        <v>9.1349400021135813E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.1738020041957499E-3</v>
+      </c>
+      <c r="F12">
+        <v>5.2493720036000009E-3</v>
+      </c>
+      <c r="G12">
+        <v>1.049464399926364E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.7344779972918328E-3</v>
+      </c>
+      <c r="J12">
+        <v>2.4381465996848421E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.3969758001621811E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.8743819976225499E-3</v>
+      </c>
+      <c r="N12">
+        <v>8.8360419985838226E-3</v>
+      </c>
+      <c r="O12">
+        <v>1.5953068002127108E-2</v>
+      </c>
+      <c r="Q12">
+        <v>9.699137996649369E-3</v>
+      </c>
+      <c r="R12">
+        <v>7.7813982005463911E-2</v>
+      </c>
+      <c r="S12">
+        <v>7.20030780043453E-2</v>
+      </c>
       <c r="U12">
         <v>8.898800041060895E-4</v>
       </c>
@@ -1186,14 +1558,59 @@
       <c r="AM12">
         <v>1.6641702005872502E-2</v>
       </c>
-      <c r="AN12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN13" s="11"/>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN13" s="9"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.38661334827644772</v>
+      </c>
+      <c r="B14">
+        <v>0.21576961844539971</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.50569259128148591</v>
+      </c>
+      <c r="F14">
+        <v>0.39784147755965438</v>
+      </c>
+      <c r="G14">
+        <v>0.23191532443627139</v>
+      </c>
+      <c r="I14">
+        <v>0.52454613855888321</v>
+      </c>
+      <c r="J14">
+        <v>0.6372956819367751</v>
+      </c>
+      <c r="K14">
+        <v>0.47069769238498199</v>
+      </c>
+      <c r="M14">
+        <v>0.9147413556024333</v>
+      </c>
+      <c r="N14">
+        <v>0.66312086582855656</v>
+      </c>
+      <c r="O14">
+        <v>0.56936270034159719</v>
+      </c>
+      <c r="Q14">
+        <v>0.66196994973371692</v>
+      </c>
+      <c r="R14">
+        <v>0.63099196293375359</v>
+      </c>
+      <c r="S14">
+        <v>0.30746663126561491</v>
+      </c>
       <c r="U14">
         <v>0.75317739715774468</v>
       </c>
@@ -1239,11 +1656,56 @@
       <c r="AM14">
         <v>0.43128094189914729</v>
       </c>
-      <c r="AN14" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN14" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1.0663840081542729E-3</v>
+      </c>
+      <c r="B15">
+        <v>7.7812619972974064E-3</v>
+      </c>
+      <c r="C15">
+        <v>9.6112780028488488E-3</v>
+      </c>
+      <c r="E15">
+        <v>1.0579600022174421E-3</v>
+      </c>
+      <c r="F15">
+        <v>4.2340320034418254E-3</v>
+      </c>
+      <c r="G15">
+        <v>7.7023740008007732E-3</v>
+      </c>
+      <c r="I15">
+        <v>2.494399996940047E-3</v>
+      </c>
+      <c r="J15">
+        <v>2.5916583992075179E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.474028600030579E-2</v>
+      </c>
+      <c r="M15">
+        <v>1.628402000060305E-3</v>
+      </c>
+      <c r="N15">
+        <v>1.0607303996803241E-2</v>
+      </c>
+      <c r="O15">
+        <v>1.6060534006683159E-2</v>
+      </c>
+      <c r="Q15">
+        <v>9.7941140027251097E-3</v>
+      </c>
+      <c r="R15">
+        <v>8.6251996000064543E-2</v>
+      </c>
+      <c r="S15">
+        <v>6.9435517996316781E-2</v>
+      </c>
       <c r="U15">
         <v>1.0051820008084181E-3</v>
       </c>
@@ -1289,14 +1751,59 @@
       <c r="AM15">
         <v>1.527354599442333E-2</v>
       </c>
-      <c r="AN15" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN16" s="11"/>
+      <c r="AN15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN16" s="9"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.39990240922436238</v>
+      </c>
+      <c r="B17">
+        <v>0.25199126286206308</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.50505039596314194</v>
+      </c>
+      <c r="F17">
+        <v>0.37850302661804258</v>
+      </c>
+      <c r="G17">
+        <v>0.2140858265610264</v>
+      </c>
+      <c r="I17">
+        <v>0.55246228352950855</v>
+      </c>
+      <c r="J17">
+        <v>0.66380040294613996</v>
+      </c>
+      <c r="K17">
+        <v>0.43884800925318751</v>
+      </c>
+      <c r="M17">
+        <v>0.950035225704567</v>
+      </c>
+      <c r="N17">
+        <v>0.74844000341346339</v>
+      </c>
+      <c r="O17">
+        <v>0.61889041577182857</v>
+      </c>
+      <c r="Q17">
+        <v>0.61672084392980275</v>
+      </c>
+      <c r="R17">
+        <v>0.62067064003638772</v>
+      </c>
+      <c r="S17">
+        <v>0.28775319479131678</v>
+      </c>
       <c r="U17">
         <v>0.65832417768619522</v>
       </c>
@@ -1342,11 +1849,56 @@
       <c r="AM17">
         <v>0.41933006456679389</v>
       </c>
-      <c r="AN17" s="11" t="s">
-        <v>4</v>
+      <c r="AN17" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.127029997296631E-3</v>
+      </c>
+      <c r="B18">
+        <v>6.8226919998414818E-3</v>
+      </c>
+      <c r="C18">
+        <v>1.0502772001782431E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.455178000032902E-3</v>
+      </c>
+      <c r="F18">
+        <v>4.3018919986207039E-3</v>
+      </c>
+      <c r="G18">
+        <v>8.0647199985105552E-3</v>
+      </c>
+      <c r="I18">
+        <v>2.1574580064043399E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.7524878006661311E-2</v>
+      </c>
+      <c r="K18">
+        <v>2.345842399750836E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.449776000808924E-3</v>
+      </c>
+      <c r="N18">
+        <v>7.4176399968564509E-3</v>
+      </c>
+      <c r="O18">
+        <v>1.283772800583392E-2</v>
+      </c>
+      <c r="Q18">
+        <v>9.5113080006558447E-3</v>
+      </c>
+      <c r="R18">
+        <v>8.0443602000595998E-2</v>
+      </c>
+      <c r="S18">
+        <v>7.8774574002018205E-2</v>
+      </c>
       <c r="U18">
         <v>1.4464239997323599E-3</v>
       </c>
@@ -1392,14 +1944,59 @@
       <c r="AM18">
         <v>1.379803000367247E-2</v>
       </c>
-      <c r="AN18" s="11" t="s">
-        <v>24</v>
+      <c r="AN18" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN19" s="11"/>
+      <c r="AN19" s="9"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.36708583565826419</v>
+      </c>
+      <c r="B20">
+        <v>0.19318389272988509</v>
+      </c>
+      <c r="C20">
+        <v>9.66850639656224E-3</v>
+      </c>
+      <c r="E20">
+        <v>0.52316124966948019</v>
+      </c>
+      <c r="F20">
+        <v>0.42819087419883511</v>
+      </c>
+      <c r="G20">
+        <v>0.1996006214028917</v>
+      </c>
+      <c r="I20">
+        <v>0.56412450761601718</v>
+      </c>
+      <c r="J20">
+        <v>0.66065979422233279</v>
+      </c>
+      <c r="K20">
+        <v>0.47492145739526748</v>
+      </c>
+      <c r="M20">
+        <v>0.92424948102358262</v>
+      </c>
+      <c r="N20">
+        <v>0.67943216030608733</v>
+      </c>
+      <c r="O20">
+        <v>0.71697053528943111</v>
+      </c>
+      <c r="Q20">
+        <v>0.62233861417850722</v>
+      </c>
+      <c r="R20">
+        <v>0.61340791293151387</v>
+      </c>
+      <c r="S20">
+        <v>0.30758160600576168</v>
+      </c>
       <c r="U20">
         <v>0.74566732131847213</v>
       </c>
@@ -1445,11 +2042,56 @@
       <c r="AM20">
         <v>0.46297028709890342</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>4</v>
+      <c r="AN20" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1.045691996114328E-3</v>
+      </c>
+      <c r="B21">
+        <v>6.3922319991979752E-3</v>
+      </c>
+      <c r="C21">
+        <v>9.0830260037910188E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.0775219998322429E-3</v>
+      </c>
+      <c r="F21">
+        <v>4.9456760066095744E-3</v>
+      </c>
+      <c r="G21">
+        <v>1.0308387996628881E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.4808659998234359E-3</v>
+      </c>
+      <c r="J21">
+        <v>2.6496318003628401E-2</v>
+      </c>
+      <c r="K21">
+        <v>2.7942088001873349E-2</v>
+      </c>
+      <c r="M21">
+        <v>1.525746000697836E-3</v>
+      </c>
+      <c r="N21">
+        <v>8.4614559996407483E-3</v>
+      </c>
+      <c r="O21">
+        <v>1.3487326001049949E-2</v>
+      </c>
+      <c r="Q21">
+        <v>9.4470799993723632E-3</v>
+      </c>
+      <c r="R21">
+        <v>0.100954039999051</v>
+      </c>
+      <c r="S21">
+        <v>8.56507939985022E-2</v>
+      </c>
       <c r="U21">
         <v>1.206172002712265E-3</v>
       </c>
@@ -1495,14 +2137,59 @@
       <c r="AM21">
         <v>1.3183743994450201E-2</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>24</v>
+      <c r="AN21" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN22" s="11"/>
+      <c r="AN22" s="9"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.41124190942852212</v>
+      </c>
+      <c r="B23">
+        <v>0.30202884643912048</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.49381693326361209</v>
+      </c>
+      <c r="F23">
+        <v>0.37429969551419762</v>
+      </c>
+      <c r="G23">
+        <v>0.20070965279346989</v>
+      </c>
+      <c r="I23">
+        <v>0.51630974079433645</v>
+      </c>
+      <c r="J23">
+        <v>0.66876261764530243</v>
+      </c>
+      <c r="K23">
+        <v>0.4348114021820047</v>
+      </c>
+      <c r="M23">
+        <v>0.93716522563158888</v>
+      </c>
+      <c r="N23">
+        <v>0.67646095182416954</v>
+      </c>
+      <c r="O23">
+        <v>0.55883841220967656</v>
+      </c>
+      <c r="Q23">
+        <v>0.64832284932685846</v>
+      </c>
+      <c r="R23">
+        <v>0.61149592754415349</v>
+      </c>
+      <c r="S23">
+        <v>0.32245396587300718</v>
+      </c>
       <c r="U23">
         <v>0.78622546621145262</v>
       </c>
@@ -1548,11 +2235,56 @@
       <c r="AM23">
         <v>0.40053493876807572</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>4</v>
+      <c r="AN23" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.167504001641646E-3</v>
+      </c>
+      <c r="B24">
+        <v>5.4127699998207388E-3</v>
+      </c>
+      <c r="C24">
+        <v>8.9488439995329822E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.1039800068829209E-3</v>
+      </c>
+      <c r="F24">
+        <v>4.3997400032822036E-3</v>
+      </c>
+      <c r="G24">
+        <v>8.4227640030439949E-3</v>
+      </c>
+      <c r="I24">
+        <v>3.2385159970726822E-3</v>
+      </c>
+      <c r="J24">
+        <v>2.2750054000644011E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.5908005997771402E-2</v>
+      </c>
+      <c r="M24">
+        <v>1.5466199931688609E-3</v>
+      </c>
+      <c r="N24">
+        <v>8.8706259988248354E-3</v>
+      </c>
+      <c r="O24">
+        <v>1.5313914000289509E-2</v>
+      </c>
+      <c r="Q24">
+        <v>1.12905980029609E-2</v>
+      </c>
+      <c r="R24">
+        <v>0.101722746003652</v>
+      </c>
+      <c r="S24">
+        <v>8.6092310000676658E-2</v>
+      </c>
       <c r="U24">
         <v>2.4505379993934179E-3</v>
       </c>
@@ -1598,14 +2330,59 @@
       <c r="AM24">
         <v>1.7871440005255861E-2</v>
       </c>
-      <c r="AN24" s="11" t="s">
-        <v>24</v>
+      <c r="AN24" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN25" s="11"/>
+      <c r="AN25" s="9"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.38638068577796958</v>
+      </c>
+      <c r="B26">
+        <v>0.260076791656009</v>
+      </c>
+      <c r="C26">
+        <v>9.66850639656224E-3</v>
+      </c>
+      <c r="E26">
+        <v>0.52435246037904226</v>
+      </c>
+      <c r="F26">
+        <v>0.41948431468533359</v>
+      </c>
+      <c r="G26">
+        <v>0.20522846548150361</v>
+      </c>
+      <c r="I26">
+        <v>0.48044942197892793</v>
+      </c>
+      <c r="J26">
+        <v>0.65299302247713242</v>
+      </c>
+      <c r="K26">
+        <v>0.42602483450956158</v>
+      </c>
+      <c r="M26">
+        <v>0.93349906008368744</v>
+      </c>
+      <c r="N26">
+        <v>0.67664412796052031</v>
+      </c>
+      <c r="O26">
+        <v>0.69557430741084691</v>
+      </c>
+      <c r="Q26">
+        <v>0.67022489180897848</v>
+      </c>
+      <c r="R26">
+        <v>0.6883918538064393</v>
+      </c>
+      <c r="S26">
+        <v>0.30239229794367861</v>
+      </c>
       <c r="U26">
         <v>0.69900631900905719</v>
       </c>
@@ -1651,11 +2428,56 @@
       <c r="AM26">
         <v>0.39882444406274148</v>
       </c>
-      <c r="AN26" s="11" t="s">
-        <v>4</v>
+      <c r="AN26" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9.5097399898804726E-4</v>
+      </c>
+      <c r="B27">
+        <v>4.7324420022778211E-3</v>
+      </c>
+      <c r="C27">
+        <v>7.1241300029214472E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.126951999031007E-3</v>
+      </c>
+      <c r="F27">
+        <v>5.6054120010230694E-3</v>
+      </c>
+      <c r="G27">
+        <v>1.03575400041882E-2</v>
+      </c>
+      <c r="I27">
+        <v>2.8687299974262709E-3</v>
+      </c>
+      <c r="J27">
+        <v>1.9853381996508691E-2</v>
+      </c>
+      <c r="K27">
+        <v>2.4490940002724532E-2</v>
+      </c>
+      <c r="M27">
+        <v>1.796431996626779E-3</v>
+      </c>
+      <c r="N27">
+        <v>1.184785599936731E-2</v>
+      </c>
+      <c r="O27">
+        <v>1.6028183994349091E-2</v>
+      </c>
+      <c r="Q27">
+        <v>9.9526420026086262E-3</v>
+      </c>
+      <c r="R27">
+        <v>8.050562199903652E-2</v>
+      </c>
+      <c r="S27">
+        <v>6.9391200001118702E-2</v>
+      </c>
       <c r="U27">
         <v>9.6685800468549127E-4</v>
       </c>
@@ -1701,14 +2523,59 @@
       <c r="AM27">
         <v>1.6933357998495921E-2</v>
       </c>
-      <c r="AN27" s="11" t="s">
-        <v>24</v>
+      <c r="AN27" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN28" s="11"/>
+      <c r="AN28" s="9"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.43435221203115459</v>
+      </c>
+      <c r="B29">
+        <v>0.26159193209574177</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.46724800524372601</v>
+      </c>
+      <c r="F29">
+        <v>0.39034458494460428</v>
+      </c>
+      <c r="G29">
+        <v>0.18914120093973849</v>
+      </c>
+      <c r="I29">
+        <v>0.54241165911441636</v>
+      </c>
+      <c r="J29">
+        <v>0.68523932358907358</v>
+      </c>
+      <c r="K29">
+        <v>0.51412908918515265</v>
+      </c>
+      <c r="M29">
+        <v>0.93583466614605271</v>
+      </c>
+      <c r="N29">
+        <v>0.65368576098011499</v>
+      </c>
+      <c r="O29">
+        <v>0.56683306389574395</v>
+      </c>
+      <c r="Q29">
+        <v>0.26940375775566783</v>
+      </c>
+      <c r="R29">
+        <v>0.46649792578943777</v>
+      </c>
+      <c r="S29">
+        <v>0.29276809731677739</v>
+      </c>
       <c r="U29">
         <v>0.69974970028667871</v>
       </c>
@@ -1754,11 +2621,56 @@
       <c r="AM29">
         <v>0.47954831594038372</v>
       </c>
-      <c r="AN29" s="11" t="s">
-        <v>4</v>
+      <c r="AN29" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.4510800070129338E-4</v>
+      </c>
+      <c r="B30">
+        <v>5.7805460027884692E-3</v>
+      </c>
+      <c r="C30">
+        <v>7.9671540018171078E-3</v>
+      </c>
+      <c r="E30">
+        <v>9.0172200114466247E-4</v>
+      </c>
+      <c r="F30">
+        <v>4.0065700036939237E-3</v>
+      </c>
+      <c r="G30">
+        <v>9.1333719959948208E-3</v>
+      </c>
+      <c r="I30">
+        <v>2.4465799948666239E-3</v>
+      </c>
+      <c r="J30">
+        <v>1.927244000020437E-2</v>
+      </c>
+      <c r="K30">
+        <v>2.3551482002949341E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.652303998125717E-3</v>
+      </c>
+      <c r="N30">
+        <v>1.3981650003697719E-2</v>
+      </c>
+      <c r="O30">
+        <v>1.7292732006171721E-2</v>
+      </c>
+      <c r="Q30">
+        <v>9.5430160022806371E-3</v>
+      </c>
+      <c r="R30">
+        <v>7.9271066003711893E-2</v>
+      </c>
+      <c r="S30">
+        <v>0.1102088619989809</v>
+      </c>
       <c r="U30">
         <v>1.1165399919264021E-3</v>
       </c>
@@ -1804,324 +2716,324 @@
       <c r="AM30">
         <v>1.4813257995992901E-2</v>
       </c>
-      <c r="AN30" s="11" t="s">
-        <v>24</v>
+      <c r="AN30" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="AF31" s="9"/>
+      <c r="D31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="AF31" s="7"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="e">
-        <f t="shared" ref="A32:AJ32" si="0">AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="8">
+      <c r="A32" s="6">
+        <f t="shared" ref="A32:AI32" si="0">AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29)</f>
+        <v>0.40691991277129003</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.25538297048561831</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9337012793124481E-3</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.51307114535507403</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.40788508240703908</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.21738727121918289</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.53071479639835051</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.65765460422028021</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46215412802412709</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93532668439081923</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67965634714787604</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61208727035138599</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61430687052918886</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63384784510583458</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30265065611267428</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="6">
         <f t="shared" si="0"/>
         <v>0.70044235638739027</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="6">
         <f t="shared" si="0"/>
         <v>0.5582008742141471</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="6">
         <f t="shared" si="0"/>
         <v>0.18023041964836944</v>
       </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="8">
+      <c r="X32" s="7"/>
+      <c r="Y32" s="6">
         <f t="shared" si="0"/>
         <v>0.92518016448048745</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z32" s="6">
         <f t="shared" si="0"/>
         <v>0.5792498301799579</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA32" s="6">
         <f t="shared" si="0"/>
         <v>0.47026628429712264</v>
       </c>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="8">
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="6">
         <f t="shared" si="0"/>
         <v>0.30196690761183104</v>
       </c>
-      <c r="AD32" s="8">
+      <c r="AD32" s="6">
         <f t="shared" si="0"/>
         <v>0.5865987147724735</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE32" s="6">
         <f t="shared" si="0"/>
         <v>0.56222006439384553</v>
       </c>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="8">
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="6">
         <f t="shared" si="0"/>
         <v>0.58662141439884929</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AH32" s="6">
         <f t="shared" si="0"/>
         <v>0.52049559998714379</v>
       </c>
-      <c r="AI32" s="8">
+      <c r="AI32" s="6">
         <f t="shared" si="0"/>
         <v>0.4742713394057273</v>
       </c>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="8">
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="6">
         <f>AVERAGE(AK2,AK5,AK8,AK11,AK14,AK17,AK20,AK23,AK26,AK29)</f>
         <v>0.58003397494892317</v>
       </c>
-      <c r="AL32" s="8">
+      <c r="AL32" s="6">
         <f>AVERAGE(AL2,AL5,AL8,AL11,AL14,AL17,AL20,AL23,AL26,AL29)</f>
         <v>0.44455645639013275</v>
       </c>
-      <c r="AM32" s="8">
-        <f t="shared" ref="AL32:AM32" si="1">AVERAGE(AM2,AM5,AM8,AM11,AM14,AM17,AM20,AM23,AM26,AM29)</f>
+      <c r="AM32" s="6">
+        <f t="shared" ref="AM32" si="1">AVERAGE(AM2,AM5,AM8,AM11,AM14,AM17,AM20,AM23,AM26,AM29)</f>
         <v>0.44888412684701573</v>
       </c>
-      <c r="AO32" s="10" t="e">
+      <c r="AO32" s="8">
         <f>AVERAGE(A32,E32,I32,M32,Q32,U32,Y32,AC32,AG32,AK32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP32" s="10" t="e">
+        <v>0.60945842272722039</v>
+      </c>
+      <c r="AP32" s="8">
         <f t="shared" ref="AP32:AQ33" si="2">AVERAGE(B32,F32,J32,N32,R32,V32,Z32,AD32,AH32,AL32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ32" s="10" t="e">
+        <v>0.53235283249105037</v>
+      </c>
+      <c r="AQ32" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.37320852615787631</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="e">
-        <f t="shared" ref="A33:AJ33" si="3">AVERAGE(A3,A6,A9,A12,A15,A18,A21,A24,A27,A30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B33" s="8" t="e">
+      <c r="A33" s="6">
+        <f t="shared" ref="A33:AI33" si="3">AVERAGE(A3,A6,A9,A12,A15,A18,A21,A24,A27,A30)</f>
+        <v>1.0230329999467358E-3</v>
+      </c>
+      <c r="B33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="8" t="e">
+        <v>5.8644252003869036E-3</v>
+      </c>
+      <c r="C33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8" t="e">
+        <v>8.4054484011139713E-3</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="8" t="e">
+        <v>2.3319236016832294E-3</v>
+      </c>
+      <c r="F33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="8" t="e">
+        <v>4.8380054017761725E-3</v>
+      </c>
+      <c r="G33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="8" t="e">
+        <v>1.0258190599735826E-2</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="8" t="e">
+        <v>3.2704283990897232E-3</v>
+      </c>
+      <c r="J33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="8" t="e">
+        <v>2.2781205799081362E-2</v>
+      </c>
+      <c r="K33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8" t="e">
+        <v>2.4474556799978016E-2</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="8" t="e">
+        <v>1.5799711985746399E-3</v>
+      </c>
+      <c r="N33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="8" t="e">
+        <v>9.5775359986582775E-3</v>
+      </c>
+      <c r="O33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="8" t="e">
+        <v>1.487200220231898E-2</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="8" t="e">
+        <v>1.002411040046718E-2</v>
+      </c>
+      <c r="R33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="8" t="e">
+        <v>8.5003680201596585E-2</v>
+      </c>
+      <c r="S33" s="6">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="8">
+        <v>7.8648434399277906E-2</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="6">
         <f t="shared" si="3"/>
         <v>1.2398270006524399E-3</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="6">
         <f t="shared" si="3"/>
         <v>7.2080136014847068E-3</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="6">
         <f t="shared" si="3"/>
         <v>9.0894363989355038E-3</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="8">
+      <c r="X33" s="7"/>
+      <c r="Y33" s="6">
         <f t="shared" si="3"/>
         <v>8.4190699888858948E-4</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z33" s="6">
         <f t="shared" si="3"/>
         <v>4.1543892011977725E-3</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA33" s="6">
         <f t="shared" si="3"/>
         <v>5.5991674006218095E-3</v>
       </c>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="8">
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="6">
         <f t="shared" si="3"/>
         <v>3.2235058007063348E-3</v>
       </c>
-      <c r="AD33" s="8">
+      <c r="AD33" s="6">
         <f t="shared" si="3"/>
         <v>2.8545437999535357E-2</v>
       </c>
-      <c r="AE33" s="8">
+      <c r="AE33" s="6">
         <f t="shared" si="3"/>
         <v>2.3602051999652755E-2</v>
       </c>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="8">
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="6">
         <f t="shared" si="3"/>
         <v>2.3255226002074779E-3</v>
       </c>
-      <c r="AH33" s="8">
+      <c r="AH33" s="6">
         <f t="shared" si="3"/>
         <v>3.1752935200813223E-2</v>
       </c>
-      <c r="AI33" s="8">
+      <c r="AI33" s="6">
         <f t="shared" si="3"/>
         <v>2.1357889200095088E-2</v>
       </c>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="8">
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="6">
         <f>AVERAGE(AK3,AK6,AK9,AK12,AK15,AK18,AK21,AK24,AK27,AK30)</f>
         <v>1.9120717996265739E-3</v>
       </c>
-      <c r="AL33" s="8">
+      <c r="AL33" s="6">
         <f t="shared" ref="AL33:AM33" si="4">AVERAGE(AL3,AL6,AL9,AL12,AL15,AL18,AL21,AL24,AL27,AL30)</f>
         <v>7.5460458024172103E-3</v>
       </c>
-      <c r="AM33" s="8">
+      <c r="AM33" s="6">
         <f t="shared" si="4"/>
         <v>1.5181122599518856E-2</v>
       </c>
-      <c r="AO33" s="10" t="e">
+      <c r="AO33" s="8">
         <f>AVERAGE(A33,E33,I33,M33,Q33,U33,Y33,AC33,AG33,AK33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP33" s="10" t="e">
+        <v>2.7772300799842925E-3</v>
+      </c>
+      <c r="AP33" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ33" s="10" t="e">
+        <v>2.0727167440694756E-2</v>
+      </c>
+      <c r="AQ33" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.1148830000124873E-2</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AF34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AF34" s="7"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AF35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AF35" s="7"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="P36" s="9"/>
+      <c r="P36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2132,8 +3044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="AF7" workbookViewId="0">
+      <selection activeCell="AN32" sqref="AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,39 +3053,84 @@
     <col min="1" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AL1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.38847563725343992</v>
+      </c>
+      <c r="B2">
+        <v>0.40824057308834538</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.6261018028930847</v>
+      </c>
+      <c r="F2">
+        <v>0.54027107155001453</v>
+      </c>
+      <c r="G2">
+        <v>5.1719173231247959E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.5240370101470242</v>
+      </c>
+      <c r="J2">
+        <v>0.68286504095587541</v>
+      </c>
+      <c r="K2">
+        <v>0.44152432999158531</v>
+      </c>
+      <c r="M2">
+        <v>0.94824428290439911</v>
+      </c>
+      <c r="N2">
+        <v>0.63470765624118486</v>
+      </c>
+      <c r="O2">
+        <v>0.90297010397222999</v>
+      </c>
+      <c r="Q2">
+        <v>0.50819320964159764</v>
+      </c>
+      <c r="R2">
+        <v>0.6035946947803611</v>
+      </c>
+      <c r="S2">
+        <v>0.3010081878948791</v>
+      </c>
       <c r="U2">
         <v>0.71536025194151998</v>
       </c>
@@ -2219,11 +3176,56 @@
       <c r="AM2">
         <v>0.37566437035244221</v>
       </c>
-      <c r="AN2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2.7881550013262309E-2</v>
+      </c>
+      <c r="B3">
+        <v>0.14104156249231889</v>
+      </c>
+      <c r="C3">
+        <v>7.381333751254715E-2</v>
+      </c>
+      <c r="E3">
+        <v>3.3992400007264223E-2</v>
+      </c>
+      <c r="F3">
+        <v>0.1511048625106923</v>
+      </c>
+      <c r="G3">
+        <v>0.28384960000403231</v>
+      </c>
+      <c r="I3">
+        <v>9.7958075006317813E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.79433193751174258</v>
+      </c>
+      <c r="K3">
+        <v>0.20653101251082259</v>
+      </c>
+      <c r="M3">
+        <v>8.3680662493861746E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.38958899999124702</v>
+      </c>
+      <c r="O3">
+        <v>0.13247014999797099</v>
+      </c>
+      <c r="Q3">
+        <v>0.49263793748832541</v>
+      </c>
+      <c r="R3">
+        <v>3.1719986874959432</v>
+      </c>
+      <c r="S3">
+        <v>0.47006703750957968</v>
+      </c>
       <c r="U3">
         <v>2.5130574991635509E-2</v>
       </c>
@@ -2269,14 +3271,59 @@
       <c r="AM3">
         <v>0.1015712500011432</v>
       </c>
-      <c r="AN3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN4" s="11"/>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN4" s="9"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.36429036504738549</v>
+      </c>
+      <c r="B5">
+        <v>0.38923449772797791</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.52569077861297286</v>
+      </c>
+      <c r="F5">
+        <v>0.40905128869986029</v>
+      </c>
+      <c r="G5">
+        <v>0.1097232640858098</v>
+      </c>
+      <c r="I5">
+        <v>0.57112395197605859</v>
+      </c>
+      <c r="J5">
+        <v>0.7074537799332894</v>
+      </c>
+      <c r="K5">
+        <v>0.37842711103528659</v>
+      </c>
+      <c r="M5">
+        <v>0.93119491002122134</v>
+      </c>
+      <c r="N5">
+        <v>0.63344777330297919</v>
+      </c>
+      <c r="O5">
+        <v>0.9022271475486241</v>
+      </c>
+      <c r="Q5">
+        <v>0.58051996746493573</v>
+      </c>
+      <c r="R5">
+        <v>0.58474175175298049</v>
+      </c>
+      <c r="S5">
+        <v>0.36764205554813251</v>
+      </c>
       <c r="U5">
         <v>0.62657907417276704</v>
       </c>
@@ -2322,11 +3369,56 @@
       <c r="AM5">
         <v>0.4447458470006736</v>
       </c>
-      <c r="AN5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.0109637496934741E-2</v>
+      </c>
+      <c r="B6">
+        <v>0.15162819999386559</v>
+      </c>
+      <c r="C6">
+        <v>8.189216248865705E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.4099712496972643E-2</v>
+      </c>
+      <c r="F6">
+        <v>0.17893190000904721</v>
+      </c>
+      <c r="G6">
+        <v>6.5655875005177222E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.12653976251021959</v>
+      </c>
+      <c r="J6">
+        <v>0.88951803751115222</v>
+      </c>
+      <c r="K6">
+        <v>0.19238676250097339</v>
+      </c>
+      <c r="M6">
+        <v>8.8855037494795397E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.36962563750421401</v>
+      </c>
+      <c r="O6">
+        <v>0.1099988374844543</v>
+      </c>
+      <c r="Q6">
+        <v>0.51589697499002796</v>
+      </c>
+      <c r="R6">
+        <v>3.0556388999975752</v>
+      </c>
+      <c r="S6">
+        <v>0.44321707500057528</v>
+      </c>
       <c r="U6">
         <v>2.6708537487138528E-2</v>
       </c>
@@ -2372,14 +3464,59 @@
       <c r="AM6">
         <v>7.8942925014416687E-2</v>
       </c>
-      <c r="AN6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN7" s="11"/>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN7" s="9"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.32607172858227501</v>
+      </c>
+      <c r="B8">
+        <v>0.2899705494920139</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.51858913605945345</v>
+      </c>
+      <c r="F8">
+        <v>0.44636197656891208</v>
+      </c>
+      <c r="G8">
+        <v>0.10840793205563561</v>
+      </c>
+      <c r="I8">
+        <v>0.69172241254917388</v>
+      </c>
+      <c r="J8">
+        <v>0.70169213871141323</v>
+      </c>
+      <c r="K8">
+        <v>0.4248799981375796</v>
+      </c>
+      <c r="M8">
+        <v>0.93943760362273143</v>
+      </c>
+      <c r="N8">
+        <v>0.57470072136028316</v>
+      </c>
+      <c r="O8">
+        <v>0.90637123162988142</v>
+      </c>
+      <c r="Q8">
+        <v>0.53567425370318511</v>
+      </c>
+      <c r="R8">
+        <v>0.64545055366238868</v>
+      </c>
+      <c r="S8">
+        <v>0.30289337279807071</v>
+      </c>
       <c r="U8">
         <v>0.66880516678603086</v>
       </c>
@@ -2425,11 +3562,56 @@
       <c r="AM8">
         <v>0.35706062579096037</v>
       </c>
-      <c r="AN8" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3.1330662510299589E-2</v>
+      </c>
+      <c r="B9">
+        <v>0.15494042501086369</v>
+      </c>
+      <c r="C9">
+        <v>6.8917374999728054E-2</v>
+      </c>
+      <c r="E9">
+        <v>5.3033112504635938E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.22148222501709819</v>
+      </c>
+      <c r="G9">
+        <v>8.338663748872932E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.10134728750563229</v>
+      </c>
+      <c r="J9">
+        <v>0.76847171250847168</v>
+      </c>
+      <c r="K9">
+        <v>0.18616513750748709</v>
+      </c>
+      <c r="M9">
+        <v>8.6016762485087384E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.44710502499219729</v>
+      </c>
+      <c r="O9">
+        <v>0.1273487250000471</v>
+      </c>
+      <c r="Q9">
+        <v>0.52805731249100063</v>
+      </c>
+      <c r="R9">
+        <v>3.0196533999987878</v>
+      </c>
+      <c r="S9">
+        <v>0.42762778748874553</v>
+      </c>
       <c r="U9">
         <v>2.751753749180352E-2</v>
       </c>
@@ -2475,14 +3657,59 @@
       <c r="AM9">
         <v>7.9712462480529211E-2</v>
       </c>
-      <c r="AN9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN10" s="11"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.42575557953338222</v>
+      </c>
+      <c r="B11">
+        <v>0.38917811942373087</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.47562796377243072</v>
+      </c>
+      <c r="F11">
+        <v>0.3928987928206098</v>
+      </c>
+      <c r="G11">
+        <v>6.3573699849807985E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.56593871960079456</v>
+      </c>
+      <c r="J11">
+        <v>0.6489279575072221</v>
+      </c>
+      <c r="K11">
+        <v>0.4257558203490418</v>
+      </c>
+      <c r="M11">
+        <v>0.94298871182520383</v>
+      </c>
+      <c r="N11">
+        <v>0.56760846245801544</v>
+      </c>
+      <c r="O11">
+        <v>0.88842442485855133</v>
+      </c>
+      <c r="Q11">
+        <v>0.57334024308316001</v>
+      </c>
+      <c r="R11">
+        <v>0.57141408888779044</v>
+      </c>
+      <c r="S11">
+        <v>0.36814981246106088</v>
+      </c>
       <c r="U11">
         <v>0.59667923572861747</v>
       </c>
@@ -2528,11 +3755,56 @@
       <c r="AM11">
         <v>0.37345949802127248</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN11" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.2924962499237147E-2</v>
+      </c>
+      <c r="B12">
+        <v>0.2150040999913472</v>
+      </c>
+      <c r="C12">
+        <v>7.8233487496618181E-2</v>
+      </c>
+      <c r="E12">
+        <v>5.0340224988758557E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.22651118749490709</v>
+      </c>
+      <c r="G12">
+        <v>8.4090687501884531E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.12561126250511731</v>
+      </c>
+      <c r="J12">
+        <v>0.84698245000618044</v>
+      </c>
+      <c r="K12">
+        <v>0.16386033748858611</v>
+      </c>
+      <c r="M12">
+        <v>8.407041249301983E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.46705977500823792</v>
+      </c>
+      <c r="O12">
+        <v>0.1382950249972055</v>
+      </c>
+      <c r="Q12">
+        <v>0.46340237498952769</v>
+      </c>
+      <c r="R12">
+        <v>3.352977024995198</v>
+      </c>
+      <c r="S12">
+        <v>0.4517493625098723</v>
+      </c>
       <c r="U12">
         <v>2.3941599996760491E-2</v>
       </c>
@@ -2578,14 +3850,59 @@
       <c r="AM12">
         <v>9.7904037495027296E-2</v>
       </c>
-      <c r="AN12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN13" s="11"/>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN13" s="9"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.41867685720995429</v>
+      </c>
+      <c r="B14">
+        <v>0.39150760114615002</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.49568674893254028</v>
+      </c>
+      <c r="F14">
+        <v>0.42950897870964849</v>
+      </c>
+      <c r="G14">
+        <v>6.534535198287808E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.60858356687458393</v>
+      </c>
+      <c r="J14">
+        <v>0.64721128891020463</v>
+      </c>
+      <c r="K14">
+        <v>0.43030508181325677</v>
+      </c>
+      <c r="M14">
+        <v>0.93709759286138417</v>
+      </c>
+      <c r="N14">
+        <v>0.63792669584345107</v>
+      </c>
+      <c r="O14">
+        <v>0.88822701655741965</v>
+      </c>
+      <c r="Q14">
+        <v>0.61934307466305316</v>
+      </c>
+      <c r="R14">
+        <v>0.6168672871676143</v>
+      </c>
+      <c r="S14">
+        <v>0.32639064897219938</v>
+      </c>
       <c r="U14">
         <v>0.61755390440037783</v>
       </c>
@@ -2631,11 +3948,56 @@
       <c r="AM14">
         <v>0.41375855873354062</v>
       </c>
-      <c r="AN14" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN14" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.8827662494441029E-2</v>
+      </c>
+      <c r="B15">
+        <v>0.18862934999924619</v>
+      </c>
+      <c r="C15">
+        <v>8.141026249359129E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.1159212496713742E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.17879764999815961</v>
+      </c>
+      <c r="G15">
+        <v>6.7189524997957051E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.14268718749372061</v>
+      </c>
+      <c r="J15">
+        <v>0.86413258750690147</v>
+      </c>
+      <c r="K15">
+        <v>0.1673834624962183</v>
+      </c>
+      <c r="M15">
+        <v>9.6242600011464674E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.46789360000548191</v>
+      </c>
+      <c r="O15">
+        <v>0.13205017499421959</v>
+      </c>
+      <c r="Q15">
+        <v>0.55210013750911457</v>
+      </c>
+      <c r="R15">
+        <v>3.3218867625037092</v>
+      </c>
+      <c r="S15">
+        <v>0.52952456250204705</v>
+      </c>
       <c r="U15">
         <v>2.505466248840094E-2</v>
       </c>
@@ -2681,14 +4043,59 @@
       <c r="AM15">
         <v>9.530787499534199E-2</v>
       </c>
-      <c r="AN15" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN16" s="11"/>
+      <c r="AN15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN16" s="9"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.29429849391171631</v>
+      </c>
+      <c r="B17">
+        <v>0.26005927706583548</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.55242171143500096</v>
+      </c>
+      <c r="F17">
+        <v>0.44604525447138538</v>
+      </c>
+      <c r="G17">
+        <v>0.14480385658363479</v>
+      </c>
+      <c r="I17">
+        <v>0.60893224836292736</v>
+      </c>
+      <c r="J17">
+        <v>0.65086208773594612</v>
+      </c>
+      <c r="K17">
+        <v>0.37627909835833151</v>
+      </c>
+      <c r="M17">
+        <v>0.90821585759828904</v>
+      </c>
+      <c r="N17">
+        <v>0.63245241138428865</v>
+      </c>
+      <c r="O17">
+        <v>0.91671550149001901</v>
+      </c>
+      <c r="Q17">
+        <v>0.50667789650730755</v>
+      </c>
+      <c r="R17">
+        <v>0.54078717945664145</v>
+      </c>
+      <c r="S17">
+        <v>0.35533239131353911</v>
+      </c>
       <c r="U17">
         <v>0.6888157863706913</v>
       </c>
@@ -2734,11 +4141,56 @@
       <c r="AM17">
         <v>0.33595972203516627</v>
       </c>
-      <c r="AN17" s="11" t="s">
-        <v>4</v>
+      <c r="AN17" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.4945712499611552E-2</v>
+      </c>
+      <c r="B18">
+        <v>0.21117816251353361</v>
+      </c>
+      <c r="C18">
+        <v>8.2928112511581276E-2</v>
+      </c>
+      <c r="E18">
+        <v>5.2422287495573983E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.21240772499004379</v>
+      </c>
+      <c r="G18">
+        <v>8.311448749009287E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.12555193749722091</v>
+      </c>
+      <c r="J18">
+        <v>0.75879149999673245</v>
+      </c>
+      <c r="K18">
+        <v>0.16040933750628031</v>
+      </c>
+      <c r="M18">
+        <v>8.883643750596093E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.4793610375127173</v>
+      </c>
+      <c r="O18">
+        <v>0.12932480000745269</v>
+      </c>
+      <c r="Q18">
+        <v>0.52997122500528349</v>
+      </c>
+      <c r="R18">
+        <v>3.1161686500054202</v>
+      </c>
+      <c r="S18">
+        <v>0.4437721874928684</v>
+      </c>
       <c r="U18">
         <v>3.1449199996131938E-2</v>
       </c>
@@ -2784,14 +4236,59 @@
       <c r="AM18">
         <v>7.6964549996773712E-2</v>
       </c>
-      <c r="AN18" s="11" t="s">
-        <v>24</v>
+      <c r="AN18" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN19" s="11"/>
+      <c r="AN19" s="9"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.37995978715445922</v>
+      </c>
+      <c r="B20">
+        <v>0.37104827682757208</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.52993617259992254</v>
+      </c>
+      <c r="F20">
+        <v>0.42974839365318518</v>
+      </c>
+      <c r="G20">
+        <v>0.1342794859576337</v>
+      </c>
+      <c r="I20">
+        <v>0.57478156440860395</v>
+      </c>
+      <c r="J20">
+        <v>0.67350960575310492</v>
+      </c>
+      <c r="K20">
+        <v>0.41117871247067372</v>
+      </c>
+      <c r="M20">
+        <v>0.9065257703129449</v>
+      </c>
+      <c r="N20">
+        <v>0.64875103142038104</v>
+      </c>
+      <c r="O20">
+        <v>0.90752096924074865</v>
+      </c>
+      <c r="Q20">
+        <v>0.66408302705260258</v>
+      </c>
+      <c r="R20">
+        <v>0.6112352991957386</v>
+      </c>
+      <c r="S20">
+        <v>0.33492439286115239</v>
+      </c>
       <c r="U20">
         <v>0.66799295881543364</v>
       </c>
@@ -2837,11 +4334,56 @@
       <c r="AM20">
         <v>0.40874024509363183</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>4</v>
+      <c r="AN20" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.4141587495687418E-2</v>
+      </c>
+      <c r="B21">
+        <v>0.1764874500076985</v>
+      </c>
+      <c r="C21">
+        <v>8.8551612498122267E-2</v>
+      </c>
+      <c r="E21">
+        <v>6.4028399996459484E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.20054630000231549</v>
+      </c>
+      <c r="G21">
+        <v>8.9022599990130402E-2</v>
+      </c>
+      <c r="I21">
+        <v>0.13510293750732669</v>
+      </c>
+      <c r="J21">
+        <v>0.69943786248768447</v>
+      </c>
+      <c r="K21">
+        <v>0.1744469124896568</v>
+      </c>
+      <c r="M21">
+        <v>7.485046250076266E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.4155493625003146</v>
+      </c>
+      <c r="O21">
+        <v>0.10837646250001851</v>
+      </c>
+      <c r="Q21">
+        <v>0.53902545000164537</v>
+      </c>
+      <c r="R21">
+        <v>3.2218785624791049</v>
+      </c>
+      <c r="S21">
+        <v>0.46110717500414472</v>
+      </c>
       <c r="U21">
         <v>2.711166250082897E-2</v>
       </c>
@@ -2887,14 +4429,59 @@
       <c r="AM21">
         <v>7.5967137519910466E-2</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>24</v>
+      <c r="AN21" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN22" s="11"/>
+      <c r="AN22" s="9"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.40247584162537459</v>
+      </c>
+      <c r="B23">
+        <v>0.43642967182184528</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0.46564438886515919</v>
+      </c>
+      <c r="F23">
+        <v>0.34522160927343459</v>
+      </c>
+      <c r="G23">
+        <v>0.1238779493416487</v>
+      </c>
+      <c r="I23">
+        <v>0.64676746584252298</v>
+      </c>
+      <c r="J23">
+        <v>0.71420994935507576</v>
+      </c>
+      <c r="K23">
+        <v>0.41810798197520199</v>
+      </c>
+      <c r="M23">
+        <v>0.95399526515553368</v>
+      </c>
+      <c r="N23">
+        <v>0.73538728295883116</v>
+      </c>
+      <c r="O23">
+        <v>0.9070700707007735</v>
+      </c>
+      <c r="Q23">
+        <v>0.52186776263169143</v>
+      </c>
+      <c r="R23">
+        <v>0.64335167398911264</v>
+      </c>
+      <c r="S23">
+        <v>0.34234848543687568</v>
+      </c>
       <c r="U23">
         <v>0.6730744318879367</v>
       </c>
@@ -2940,11 +4527,56 @@
       <c r="AM23">
         <v>0.30428970865201649</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>4</v>
+      <c r="AN23" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3.8282925001112737E-2</v>
+      </c>
+      <c r="B24">
+        <v>0.19907966250320899</v>
+      </c>
+      <c r="C24">
+        <v>7.9784987501625437E-2</v>
+      </c>
+      <c r="E24">
+        <v>3.6534712489810772E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.16188702501676741</v>
+      </c>
+      <c r="G24">
+        <v>7.8280787500261795E-2</v>
+      </c>
+      <c r="I24">
+        <v>0.12719711250247201</v>
+      </c>
+      <c r="J24">
+        <v>0.84845782499178313</v>
+      </c>
+      <c r="K24">
+        <v>0.1738598500014632</v>
+      </c>
+      <c r="M24">
+        <v>9.9313312486629002E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.43835228750685928</v>
+      </c>
+      <c r="O24">
+        <v>0.1232633874969906</v>
+      </c>
+      <c r="Q24">
+        <v>0.5521618374841637</v>
+      </c>
+      <c r="R24">
+        <v>3.0365101624993258</v>
+      </c>
+      <c r="S24">
+        <v>0.44823301251017261</v>
+      </c>
       <c r="U24">
         <v>2.5502187498204879E-2</v>
       </c>
@@ -2990,14 +4622,59 @@
       <c r="AM24">
         <v>9.2542987520573661E-2</v>
       </c>
-      <c r="AN24" s="11" t="s">
-        <v>24</v>
+      <c r="AN24" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN25" s="11"/>
+      <c r="AN25" s="9"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.34984781018928812</v>
+      </c>
+      <c r="B26">
+        <v>0.31193902653441929</v>
+      </c>
+      <c r="C26">
+        <v>8.9728851942710325E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.596503712129552</v>
+      </c>
+      <c r="F26">
+        <v>0.51430633682165527</v>
+      </c>
+      <c r="G26">
+        <v>0.1505645326374013</v>
+      </c>
+      <c r="I26">
+        <v>0.53459247508906915</v>
+      </c>
+      <c r="J26">
+        <v>0.63654327249652409</v>
+      </c>
+      <c r="K26">
+        <v>0.36109521739119532</v>
+      </c>
+      <c r="M26">
+        <v>0.94239526631039683</v>
+      </c>
+      <c r="N26">
+        <v>0.7226773900936676</v>
+      </c>
+      <c r="O26">
+        <v>0.90325789210661411</v>
+      </c>
+      <c r="Q26">
+        <v>0.524696119264625</v>
+      </c>
+      <c r="R26">
+        <v>0.55307801418142655</v>
+      </c>
+      <c r="S26">
+        <v>0.30860073701478102</v>
+      </c>
       <c r="U26">
         <v>0.69183045746260108</v>
       </c>
@@ -3043,11 +4720,56 @@
       <c r="AM26">
         <v>0.36899793283757071</v>
       </c>
-      <c r="AN26" s="11" t="s">
-        <v>4</v>
+      <c r="AN26" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3.1147762492764741E-2</v>
+      </c>
+      <c r="B27">
+        <v>0.20515921249898381</v>
+      </c>
+      <c r="C27">
+        <v>7.1394599988707341E-2</v>
+      </c>
+      <c r="E27">
+        <v>5.2661262496258132E-2</v>
+      </c>
+      <c r="F27">
+        <v>0.2065960124891717</v>
+      </c>
+      <c r="G27">
+        <v>8.501487500325311E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.12384211248718199</v>
+      </c>
+      <c r="J27">
+        <v>0.7900608749841922</v>
+      </c>
+      <c r="K27">
+        <v>0.17279782500554569</v>
+      </c>
+      <c r="M27">
+        <v>8.5186399985104799E-2</v>
+      </c>
+      <c r="N27">
+        <v>0.42811983751016669</v>
+      </c>
+      <c r="O27">
+        <v>0.1387965500107384</v>
+      </c>
+      <c r="Q27">
+        <v>0.52684593749290798</v>
+      </c>
+      <c r="R27">
+        <v>3.2349506875107181</v>
+      </c>
+      <c r="S27">
+        <v>0.44309130001784069</v>
+      </c>
       <c r="U27">
         <v>2.6779975014505911E-2</v>
       </c>
@@ -3093,14 +4815,59 @@
       <c r="AM27">
         <v>9.7914574987953529E-2</v>
       </c>
-      <c r="AN27" s="11" t="s">
-        <v>24</v>
+      <c r="AN27" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN28" s="11"/>
+      <c r="AN28" s="9"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.3851960904628744</v>
+      </c>
+      <c r="B29">
+        <v>0.35702316642260529</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0.46786147938753381</v>
+      </c>
+      <c r="F29">
+        <v>0.35060673823218202</v>
+      </c>
+      <c r="G29">
+        <v>0.10453797339252929</v>
+      </c>
+      <c r="I29">
+        <v>0.68991517243315525</v>
+      </c>
+      <c r="J29">
+        <v>0.6629571369518259</v>
+      </c>
+      <c r="K29">
+        <v>0.42129312373704281</v>
+      </c>
+      <c r="M29">
+        <v>0.93179107754300516</v>
+      </c>
+      <c r="N29">
+        <v>0.7088555048982359</v>
+      </c>
+      <c r="O29">
+        <v>0.91667502480524798</v>
+      </c>
+      <c r="Q29">
+        <v>0.42891825007294082</v>
+      </c>
+      <c r="R29">
+        <v>0.56825841553395018</v>
+      </c>
+      <c r="S29">
+        <v>0.3820531301916601</v>
+      </c>
       <c r="U29">
         <v>0.64461355212461524</v>
       </c>
@@ -3146,11 +4913,56 @@
       <c r="AM29">
         <v>0.42903984334892081</v>
       </c>
-      <c r="AN29" s="11" t="s">
-        <v>4</v>
+      <c r="AN29" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.4486812503018882E-2</v>
+      </c>
+      <c r="B30">
+        <v>0.19131842500064519</v>
+      </c>
+      <c r="C30">
+        <v>8.7306475004879758E-2</v>
+      </c>
+      <c r="E30">
+        <v>5.244158750429051E-2</v>
+      </c>
+      <c r="F30">
+        <v>0.25643295000190852</v>
+      </c>
+      <c r="G30">
+        <v>8.6771775015222374E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.12959658749605299</v>
+      </c>
+      <c r="J30">
+        <v>0.63206681249721441</v>
+      </c>
+      <c r="K30">
+        <v>0.1687234999917564</v>
+      </c>
+      <c r="M30">
+        <v>8.8407325005391613E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.42127931251161499</v>
+      </c>
+      <c r="O30">
+        <v>0.13540628748160091</v>
+      </c>
+      <c r="Q30">
+        <v>0.56759154998144368</v>
+      </c>
+      <c r="R30">
+        <v>3.2010761374986032</v>
+      </c>
+      <c r="S30">
+        <v>0.51552346250537084</v>
+      </c>
       <c r="U30">
         <v>3.2993062493915197E-2</v>
       </c>
@@ -3196,294 +5008,294 @@
       <c r="AM30">
         <v>0.1011443875031546</v>
       </c>
-      <c r="AN30" s="11" t="s">
-        <v>24</v>
+      <c r="AN30" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="e">
-        <f t="shared" ref="A32:AJ33" si="0">AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="8">
+      <c r="A32" s="6">
+        <f t="shared" ref="A32:AI33" si="0">AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29)</f>
+        <v>0.373504819097015</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36046307595504956</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>8.9728851942710332E-3</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52540638946876506</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43040204408008875</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10568332191182273</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.60163945872839142</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67262322583104817</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.40888464752591958</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93418863381551098</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64965149299613167</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.903945938291011</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54633138040850993</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.59387789586080042</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33893432144923513</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="6">
         <f t="shared" si="0"/>
         <v>0.6591304819690591</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="6">
         <f t="shared" si="0"/>
         <v>0.53589690133958379</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="6">
         <f t="shared" si="0"/>
         <v>0.71207895179993219</v>
       </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="8">
+      <c r="X32" s="7"/>
+      <c r="Y32" s="6">
         <f t="shared" si="0"/>
         <v>0.92559016788784498</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z32" s="6">
         <f t="shared" si="0"/>
         <v>0.45379981130216374</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA32" s="6">
         <f t="shared" si="0"/>
         <v>0.66787921247948367</v>
       </c>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="8">
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="6">
         <f t="shared" si="0"/>
         <v>0.27095887206635927</v>
       </c>
-      <c r="AD32" s="8">
+      <c r="AD32" s="6">
         <f t="shared" si="0"/>
         <v>0.57776446726299557</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE32" s="6">
         <f t="shared" si="0"/>
         <v>0.60893216783910276</v>
       </c>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="8">
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="6">
         <f t="shared" si="0"/>
         <v>0.5170299426667464</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AH32" s="6">
         <f t="shared" si="0"/>
         <v>0.54526040583769897</v>
       </c>
-      <c r="AI32" s="8">
+      <c r="AI32" s="6">
         <f t="shared" si="0"/>
         <v>0.40152577354511704</v>
       </c>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="8">
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="6">
         <f>AVERAGE(AK2,AK5,AK8,AK11,AK14,AK17,AK20,AK23,AK26,AK29)</f>
         <v>0.60080289498000705</v>
       </c>
-      <c r="AL32" s="8">
+      <c r="AL32" s="6">
         <f t="shared" ref="AL32:AM33" si="1">AVERAGE(AL2,AL5,AL8,AL11,AL14,AL17,AL20,AL23,AL26,AL29)</f>
         <v>0.47985322973797889</v>
       </c>
-      <c r="AM32" s="8">
+      <c r="AM32" s="6">
         <f t="shared" si="1"/>
         <v>0.38117163518661956</v>
       </c>
-      <c r="AO32" s="10" t="e">
+      <c r="AO32" s="8">
         <f>AVERAGE(A32,E32,I32,M32,Q32,U32,Y32,AC32,AG32,AK32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP32" s="10" t="e">
+        <v>0.59545830410882084</v>
+      </c>
+      <c r="AP32" s="8">
         <f t="shared" ref="AP32:AQ33" si="2">AVERAGE(B32,F32,J32,N32,R32,V32,Z32,AD32,AH32,AL32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ32" s="10" t="e">
+        <v>0.52995925502035401</v>
+      </c>
+      <c r="AQ32" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.45380088552225156</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="8">
+      <c r="A33" s="6">
+        <f t="shared" si="0"/>
+        <v>3.5407927500637017E-2</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18344665500117116</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>7.9423241249605786E-2</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9071291247673801E-2</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19946978375301114</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1006376849996741</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12354342625112621</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.78922516000020548</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.176656413749879</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="6">
+        <f t="shared" si="0"/>
+        <v>8.7545941246207806E-2</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.43239348750430506</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12753303999706986</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52676907374334403</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1732738974984387</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46339129625412168</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="6">
         <f t="shared" si="0"/>
         <v>2.7218899995932588E-2</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="6">
         <f t="shared" si="0"/>
         <v>0.17521904874884059</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="6">
         <f t="shared" si="0"/>
         <v>6.93744387535844E-2</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="8">
+      <c r="X33" s="7"/>
+      <c r="Y33" s="6">
         <f t="shared" si="0"/>
         <v>2.2268567501305368E-2</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z33" s="6">
         <f t="shared" si="0"/>
         <v>8.8152170000103072E-2</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA33" s="6">
         <f t="shared" si="0"/>
         <v>6.4830317499581722E-2</v>
       </c>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="8">
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="6">
         <f t="shared" si="0"/>
         <v>9.2245938751875659E-2</v>
       </c>
-      <c r="AD33" s="8">
+      <c r="AD33" s="6">
         <f t="shared" si="0"/>
         <v>0.75956379750423364</v>
       </c>
-      <c r="AE33" s="8">
+      <c r="AE33" s="6">
         <f t="shared" si="0"/>
         <v>0.14448436375168966</v>
       </c>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="8">
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="6">
         <f t="shared" si="0"/>
         <v>8.1675295001332415E-2</v>
       </c>
-      <c r="AH33" s="8">
+      <c r="AH33" s="6">
         <f t="shared" si="0"/>
         <v>0.74897242374718187</v>
       </c>
-      <c r="AI33" s="8">
+      <c r="AI33" s="6">
         <f t="shared" si="0"/>
         <v>0.14659377750067509</v>
       </c>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="8">
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="6">
         <f>AVERAGE(AK3,AK6,AK9,AK12,AK15,AK18,AK21,AK24,AK27,AK30)</f>
         <v>6.2979782505863113E-2</v>
       </c>
-      <c r="AL33" s="8">
+      <c r="AL33" s="6">
         <f t="shared" si="1"/>
         <v>0.25914798749799955</v>
       </c>
-      <c r="AM33" s="8">
+      <c r="AM33" s="6">
         <f t="shared" si="1"/>
         <v>8.979721875148243E-2</v>
       </c>
-      <c r="AO33" s="10" t="e">
+      <c r="AO33" s="8">
         <f>AVERAGE(A33,E33,I33,M33,Q33,U33,Y33,AC33,AG33,AK33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP33" s="10" t="e">
+        <v>0.11087261437452982</v>
+      </c>
+      <c r="AP33" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ33" s="10" t="e">
+        <v>0.68088644112554886</v>
+      </c>
+      <c r="AQ33" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.14627217925073638</v>
       </c>
     </row>
   </sheetData>
@@ -3495,8 +5307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="AF10" workbookViewId="0">
+      <selection activeCell="AN32" sqref="AN32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,39 +5316,84 @@
     <col min="1" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="N1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="Z1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="AD1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AH1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AL1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.92</v>
+      </c>
+      <c r="B2">
+        <v>0.22</v>
+      </c>
+      <c r="C2">
+        <v>0.84</v>
+      </c>
+      <c r="E2">
+        <v>0.38</v>
+      </c>
+      <c r="F2">
+        <v>0.18</v>
+      </c>
+      <c r="G2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I2">
+        <v>0.86</v>
+      </c>
+      <c r="J2">
+        <v>0.24</v>
+      </c>
+      <c r="K2">
+        <v>0.54</v>
+      </c>
+      <c r="M2">
+        <v>0.1</v>
+      </c>
+      <c r="N2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="O2">
+        <v>0.96</v>
+      </c>
+      <c r="Q2">
+        <v>0.54</v>
+      </c>
+      <c r="R2">
+        <v>0.12</v>
+      </c>
+      <c r="S2">
+        <v>0.4</v>
+      </c>
       <c r="U2">
         <v>0.98</v>
       </c>
@@ -3582,11 +5439,56 @@
       <c r="AM2">
         <v>0.4</v>
       </c>
-      <c r="AN2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN2" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.4587899984326209E-3</v>
+      </c>
+      <c r="B3">
+        <v>3.0792859976645562E-3</v>
+      </c>
+      <c r="C3">
+        <v>6.0107180010527369E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.8325078003108501E-2</v>
+      </c>
+      <c r="F3">
+        <v>3.9974320004694166E-3</v>
+      </c>
+      <c r="G3">
+        <v>9.7061759978532784E-3</v>
+      </c>
+      <c r="I3">
+        <v>3.435456000734121E-3</v>
+      </c>
+      <c r="J3">
+        <v>1.6025786000536751E-2</v>
+      </c>
+      <c r="K3">
+        <v>1.7732230001129209E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.537468001479283E-3</v>
+      </c>
+      <c r="N3">
+        <v>7.7286499971523882E-3</v>
+      </c>
+      <c r="O3">
+        <v>1.436304400092922E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.3814579979516564E-3</v>
+      </c>
+      <c r="R3">
+        <v>5.88763580028899E-2</v>
+      </c>
+      <c r="S3">
+        <v>7.1063330001197758E-2</v>
+      </c>
       <c r="U3">
         <v>1.1142540001310411E-3</v>
       </c>
@@ -3632,14 +5534,59 @@
       <c r="AM3">
         <v>2.5594189997063949E-2</v>
       </c>
-      <c r="AN3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN4" s="11"/>
-    </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN4" s="9"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.86</v>
+      </c>
+      <c r="B5">
+        <v>0.24</v>
+      </c>
+      <c r="C5">
+        <v>0.84</v>
+      </c>
+      <c r="E5">
+        <v>0.44</v>
+      </c>
+      <c r="F5">
+        <v>0.22</v>
+      </c>
+      <c r="G5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.84</v>
+      </c>
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>0.6</v>
+      </c>
+      <c r="M5">
+        <v>0.18</v>
+      </c>
+      <c r="N5">
+        <v>0.3</v>
+      </c>
+      <c r="O5">
+        <v>0.98</v>
+      </c>
+      <c r="Q5">
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="S5">
+        <v>0.4</v>
+      </c>
       <c r="U5">
         <v>0.98</v>
       </c>
@@ -3685,11 +5632,56 @@
       <c r="AM5">
         <v>0.4</v>
       </c>
-      <c r="AN5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2.757010002387688E-3</v>
+      </c>
+      <c r="B6">
+        <v>4.4805459992494426E-3</v>
+      </c>
+      <c r="C6">
+        <v>7.8747920016758143E-3</v>
+      </c>
+      <c r="E6">
+        <v>8.7690399959683418E-4</v>
+      </c>
+      <c r="F6">
+        <v>4.5328499982133508E-3</v>
+      </c>
+      <c r="G6">
+        <v>7.5017980032134803E-3</v>
+      </c>
+      <c r="I6">
+        <v>2.6169419975485648E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.6907358001917599E-2</v>
+      </c>
+      <c r="K6">
+        <v>2.6028147998731588E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.4717520016711201E-3</v>
+      </c>
+      <c r="N6">
+        <v>8.1833560008089997E-3</v>
+      </c>
+      <c r="O6">
+        <v>1.376906999852508E-2</v>
+      </c>
+      <c r="Q6">
+        <v>8.8324520073365421E-3</v>
+      </c>
+      <c r="R6">
+        <v>6.3102883993415168E-2</v>
+      </c>
+      <c r="S6">
+        <v>7.6520393993705513E-2</v>
+      </c>
       <c r="U6">
         <v>1.1193320050369949E-3</v>
       </c>
@@ -3735,14 +5727,59 @@
       <c r="AM6">
         <v>1.256062400178052E-2</v>
       </c>
-      <c r="AN6" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN7" s="11"/>
-    </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN7" s="9"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.84</v>
+      </c>
+      <c r="B8">
+        <v>0.24</v>
+      </c>
+      <c r="C8">
+        <v>0.88</v>
+      </c>
+      <c r="E8">
+        <v>0.44</v>
+      </c>
+      <c r="F8">
+        <v>0.2</v>
+      </c>
+      <c r="G8">
+        <v>0.6</v>
+      </c>
+      <c r="I8">
+        <v>0.94</v>
+      </c>
+      <c r="J8">
+        <v>0.26</v>
+      </c>
+      <c r="K8">
+        <v>0.62</v>
+      </c>
+      <c r="M8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.22</v>
+      </c>
+      <c r="O8">
+        <v>0.96</v>
+      </c>
+      <c r="Q8">
+        <v>0.5</v>
+      </c>
+      <c r="R8">
+        <v>0.1</v>
+      </c>
+      <c r="S8">
+        <v>0.42</v>
+      </c>
       <c r="U8">
         <v>0.98</v>
       </c>
@@ -3788,11 +5825,56 @@
       <c r="AM8">
         <v>0.34</v>
       </c>
-      <c r="AN8" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN8" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.2561799781396981E-4</v>
+      </c>
+      <c r="B9">
+        <v>5.2432979969307776E-3</v>
+      </c>
+      <c r="C9">
+        <v>5.6921259989030663E-3</v>
+      </c>
+      <c r="E9">
+        <v>1.182902000145987E-3</v>
+      </c>
+      <c r="F9">
+        <v>4.5279399957507847E-3</v>
+      </c>
+      <c r="G9">
+        <v>1.047220200067386E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.10956999915652E-3</v>
+      </c>
+      <c r="J9">
+        <v>1.236221399740316E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.2585573997348549E-2</v>
+      </c>
+      <c r="M9">
+        <v>2.060637996764854E-3</v>
+      </c>
+      <c r="N9">
+        <v>9.7192119946703306E-3</v>
+      </c>
+      <c r="O9">
+        <v>1.6306373999686909E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.036678400472738E-2</v>
+      </c>
+      <c r="R9">
+        <v>6.4982153999153525E-2</v>
+      </c>
+      <c r="S9">
+        <v>7.8791372003033752E-2</v>
+      </c>
       <c r="U9">
         <v>1.0406980023253711E-3</v>
       </c>
@@ -3838,14 +5920,59 @@
       <c r="AM9">
         <v>1.388507799943909E-2</v>
       </c>
-      <c r="AN9" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN10" s="11"/>
-    </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN9" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN10" s="9"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <v>0.22</v>
+      </c>
+      <c r="C11">
+        <v>0.92</v>
+      </c>
+      <c r="E11">
+        <v>0.46</v>
+      </c>
+      <c r="F11">
+        <v>0.22</v>
+      </c>
+      <c r="G11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I11">
+        <v>0.94</v>
+      </c>
+      <c r="J11">
+        <v>0.26</v>
+      </c>
+      <c r="K11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M11">
+        <v>0.12</v>
+      </c>
+      <c r="N11">
+        <v>0.22</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0.54</v>
+      </c>
+      <c r="R11">
+        <v>0.12</v>
+      </c>
+      <c r="S11">
+        <v>0.42</v>
+      </c>
       <c r="U11">
         <v>1</v>
       </c>
@@ -3891,11 +6018,56 @@
       <c r="AM11">
         <v>0.38</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN11" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8.3974800189025702E-4</v>
+      </c>
+      <c r="B12">
+        <v>4.3010419991333041E-3</v>
+      </c>
+      <c r="C12">
+        <v>7.4769300001207737E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.0383419995196161E-3</v>
+      </c>
+      <c r="F12">
+        <v>5.7325000024866313E-3</v>
+      </c>
+      <c r="G12">
+        <v>1.223807000205852E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.2790719987824562E-3</v>
+      </c>
+      <c r="J12">
+        <v>1.6564542000414809E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.5312693992163991E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.5202400006819521E-3</v>
+      </c>
+      <c r="N12">
+        <v>7.5272600026801226E-3</v>
+      </c>
+      <c r="O12">
+        <v>1.3357634004205469E-2</v>
+      </c>
+      <c r="Q12">
+        <v>9.5106699992902576E-3</v>
+      </c>
+      <c r="R12">
+        <v>6.6781784001505001E-2</v>
+      </c>
+      <c r="S12">
+        <v>7.503917600261048E-2</v>
+      </c>
       <c r="U12">
         <v>1.160483997082338E-3</v>
       </c>
@@ -3941,14 +6113,59 @@
       <c r="AM12">
         <v>1.672361599979922E-2</v>
       </c>
-      <c r="AN12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN13" s="11"/>
-    </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN13" s="9"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.9</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+      <c r="C14">
+        <v>0.84</v>
+      </c>
+      <c r="E14">
+        <v>0.42</v>
+      </c>
+      <c r="F14">
+        <v>0.24</v>
+      </c>
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <v>0.88</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
+      <c r="M14">
+        <v>0.16</v>
+      </c>
+      <c r="N14">
+        <v>0.22</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="R14">
+        <v>0.06</v>
+      </c>
+      <c r="S14">
+        <v>0.1</v>
+      </c>
       <c r="U14">
         <v>1</v>
       </c>
@@ -3994,11 +6211,56 @@
       <c r="AM14">
         <v>0.4</v>
       </c>
-      <c r="AN14" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.25">
+      <c r="AN14" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9.0306400321424004E-4</v>
+      </c>
+      <c r="B15">
+        <v>4.1837359976489097E-3</v>
+      </c>
+      <c r="C15">
+        <v>6.9248880038503564E-3</v>
+      </c>
+      <c r="E15">
+        <v>8.4310599952004846E-4</v>
+      </c>
+      <c r="F15">
+        <v>3.4929519996512678E-3</v>
+      </c>
+      <c r="G15">
+        <v>7.5474040012340994E-3</v>
+      </c>
+      <c r="I15">
+        <v>2.3730679950676862E-3</v>
+      </c>
+      <c r="J15">
+        <v>1.5834980000508949E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.3867482001660389E-2</v>
+      </c>
+      <c r="M15">
+        <v>2.0163739973213519E-3</v>
+      </c>
+      <c r="N15">
+        <v>7.7946619945578281E-3</v>
+      </c>
+      <c r="O15">
+        <v>1.7534683999838312E-2</v>
+      </c>
+      <c r="Q15">
+        <v>1.45436119963415E-2</v>
+      </c>
+      <c r="R15">
+        <v>9.0060130002675584E-2</v>
+      </c>
+      <c r="S15">
+        <v>8.6258770001586521E-2</v>
+      </c>
       <c r="U15">
         <v>1.0416379943490031E-3</v>
       </c>
@@ -4044,14 +6306,59 @@
       <c r="AM15">
         <v>1.7793423996772618E-2</v>
       </c>
-      <c r="AN15" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="AN16" s="11"/>
+      <c r="AN15" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AN16" s="9"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.88</v>
+      </c>
+      <c r="B17">
+        <v>0.26</v>
+      </c>
+      <c r="C17">
+        <v>0.92</v>
+      </c>
+      <c r="E17">
+        <v>0.38</v>
+      </c>
+      <c r="F17">
+        <v>0.18</v>
+      </c>
+      <c r="G17">
+        <v>0.54</v>
+      </c>
+      <c r="I17">
+        <v>0.86</v>
+      </c>
+      <c r="J17">
+        <v>0.22</v>
+      </c>
+      <c r="K17">
+        <v>0.48</v>
+      </c>
+      <c r="M17">
+        <v>0.12</v>
+      </c>
+      <c r="N17">
+        <v>0.32</v>
+      </c>
+      <c r="O17">
+        <v>0.96</v>
+      </c>
+      <c r="Q17">
+        <v>0.4</v>
+      </c>
+      <c r="R17">
+        <v>0.06</v>
+      </c>
+      <c r="S17">
+        <v>0.46</v>
+      </c>
       <c r="U17">
         <v>1</v>
       </c>
@@ -4097,11 +6404,56 @@
       <c r="AM17">
         <v>0.42</v>
       </c>
-      <c r="AN17" s="11" t="s">
-        <v>4</v>
+      <c r="AN17" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1.01830399595201E-3</v>
+      </c>
+      <c r="B18">
+        <v>4.3675779935438176E-3</v>
+      </c>
+      <c r="C18">
+        <v>9.2909299954771988E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.4665980020072309E-3</v>
+      </c>
+      <c r="F18">
+        <v>5.8768320048693569E-3</v>
+      </c>
+      <c r="G18">
+        <v>1.4426993998931719E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.24943799781613E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.471855600248091E-2</v>
+      </c>
+      <c r="K18">
+        <v>2.4668284002691509E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.973091996042058E-3</v>
+      </c>
+      <c r="N18">
+        <v>9.2525739944539966E-3</v>
+      </c>
+      <c r="O18">
+        <v>1.601790800108574E-2</v>
+      </c>
+      <c r="Q18">
+        <v>8.9566539996303613E-3</v>
+      </c>
+      <c r="R18">
+        <v>6.5323818000033493E-2</v>
+      </c>
+      <c r="S18">
+        <v>7.5938528002006928E-2</v>
+      </c>
       <c r="U18">
         <v>1.3880260044243191E-3</v>
       </c>
@@ -4147,14 +6499,59 @@
       <c r="AM18">
         <v>1.3773278000298889E-2</v>
       </c>
-      <c r="AN18" s="11" t="s">
-        <v>24</v>
+      <c r="AN18" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN19" s="11"/>
+      <c r="AN19" s="9"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.9</v>
+      </c>
+      <c r="B20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.84</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>0.24</v>
+      </c>
+      <c r="G20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I20">
+        <v>0.88</v>
+      </c>
+      <c r="J20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K20">
+        <v>0.52</v>
+      </c>
+      <c r="M20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.24</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R20">
+        <v>0.1</v>
+      </c>
+      <c r="S20">
+        <v>0.44</v>
+      </c>
       <c r="U20">
         <v>0.98</v>
       </c>
@@ -4200,11 +6597,56 @@
       <c r="AM20">
         <v>0.42</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>4</v>
+      <c r="AN20" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>9.5001799636520448E-4</v>
+      </c>
+      <c r="B21">
+        <v>4.1375519975554199E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.2345999989192932E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.0407580039463939E-3</v>
+      </c>
+      <c r="F21">
+        <v>4.8686300031840803E-3</v>
+      </c>
+      <c r="G21">
+        <v>1.1734147996176029E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.2969680011738088E-3</v>
+      </c>
+      <c r="J21">
+        <v>1.4630813993280751E-2</v>
+      </c>
+      <c r="K21">
+        <v>2.381483999779448E-2</v>
+      </c>
+      <c r="M21">
+        <v>1.232330003986135E-3</v>
+      </c>
+      <c r="N21">
+        <v>6.6505419975146649E-3</v>
+      </c>
+      <c r="O21">
+        <v>1.2218057997524741E-2</v>
+      </c>
+      <c r="Q21">
+        <v>9.6660539961885665E-3</v>
+      </c>
+      <c r="R21">
+        <v>6.8677696001250302E-2</v>
+      </c>
+      <c r="S21">
+        <v>8.2236083993921058E-2</v>
+      </c>
       <c r="U21">
         <v>1.172010001027957E-3</v>
       </c>
@@ -4250,14 +6692,59 @@
       <c r="AM21">
         <v>1.3401135999010881E-2</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>24</v>
+      <c r="AN21" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN22" s="11"/>
+      <c r="AN22" s="9"/>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.86</v>
+      </c>
+      <c r="B23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.88</v>
+      </c>
+      <c r="E23">
+        <v>0.4</v>
+      </c>
+      <c r="F23">
+        <v>0.12</v>
+      </c>
+      <c r="G23">
+        <v>0.6</v>
+      </c>
+      <c r="I23">
+        <v>0.8</v>
+      </c>
+      <c r="J23">
+        <v>0.22</v>
+      </c>
+      <c r="K23">
+        <v>0.54</v>
+      </c>
+      <c r="M23">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.26</v>
+      </c>
+      <c r="O23">
+        <v>0.98</v>
+      </c>
+      <c r="Q23">
+        <v>0.54</v>
+      </c>
+      <c r="R23">
+        <v>0.12</v>
+      </c>
+      <c r="S23">
+        <v>0.38</v>
+      </c>
       <c r="U23">
         <v>0.98</v>
       </c>
@@ -4303,11 +6790,56 @@
       <c r="AM23">
         <v>0.46</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>4</v>
+      <c r="AN23" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.039825996849686E-3</v>
+      </c>
+      <c r="B24">
+        <v>4.3008639966137709E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.8558779985178264E-3</v>
+      </c>
+      <c r="E24">
+        <v>1.6033719980623571E-3</v>
+      </c>
+      <c r="F24">
+        <v>5.9523339953739193E-3</v>
+      </c>
+      <c r="G24">
+        <v>1.4636952002765611E-2</v>
+      </c>
+      <c r="I24">
+        <v>2.0438760018441828E-3</v>
+      </c>
+      <c r="J24">
+        <v>1.2536728003760799E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.1511864004423838E-2</v>
+      </c>
+      <c r="M24">
+        <v>1.576190005289391E-3</v>
+      </c>
+      <c r="N24">
+        <v>8.3343399967998263E-3</v>
+      </c>
+      <c r="O24">
+        <v>1.5171354002086451E-2</v>
+      </c>
+      <c r="Q24">
+        <v>9.1746700042858714E-3</v>
+      </c>
+      <c r="R24">
+        <v>7.0954917992930855E-2</v>
+      </c>
+      <c r="S24">
+        <v>7.6355516001349322E-2</v>
+      </c>
       <c r="U24">
         <v>9.7866000025533147E-4</v>
       </c>
@@ -4353,14 +6885,59 @@
       <c r="AM24">
         <v>1.644064800231718E-2</v>
       </c>
-      <c r="AN24" s="11" t="s">
-        <v>24</v>
+      <c r="AN24" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN25" s="11"/>
+      <c r="AN25" s="9"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.9</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26">
+        <v>0.86</v>
+      </c>
+      <c r="E26">
+        <v>0.44</v>
+      </c>
+      <c r="F26">
+        <v>0.18</v>
+      </c>
+      <c r="G26">
+        <v>0.6</v>
+      </c>
+      <c r="I26">
+        <v>0.9</v>
+      </c>
+      <c r="J26">
+        <v>0.22</v>
+      </c>
+      <c r="K26">
+        <v>0.54</v>
+      </c>
+      <c r="M26">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.3</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0.44</v>
+      </c>
+      <c r="R26">
+        <v>0.12</v>
+      </c>
+      <c r="S26">
+        <v>0.44</v>
+      </c>
       <c r="U26">
         <v>1</v>
       </c>
@@ -4406,11 +6983,56 @@
       <c r="AM26">
         <v>0.48</v>
       </c>
-      <c r="AN26" s="11" t="s">
-        <v>4</v>
+      <c r="AN26" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9.5197400194592776E-4</v>
+      </c>
+      <c r="B27">
+        <v>4.0557200019247829E-3</v>
+      </c>
+      <c r="C27">
+        <v>7.36823400715366E-3</v>
+      </c>
+      <c r="E27">
+        <v>1.1946419987361879E-3</v>
+      </c>
+      <c r="F27">
+        <v>4.616912000346929E-3</v>
+      </c>
+      <c r="G27">
+        <v>1.24548319960013E-2</v>
+      </c>
+      <c r="I27">
+        <v>2.343478001421317E-3</v>
+      </c>
+      <c r="J27">
+        <v>1.4320607999106869E-2</v>
+      </c>
+      <c r="K27">
+        <v>2.381948999711312E-2</v>
+      </c>
+      <c r="M27">
+        <v>1.6032140003517271E-3</v>
+      </c>
+      <c r="N27">
+        <v>8.3904840005561716E-3</v>
+      </c>
+      <c r="O27">
+        <v>1.367696200031787E-2</v>
+      </c>
+      <c r="Q27">
+        <v>8.5810219997074447E-3</v>
+      </c>
+      <c r="R27">
+        <v>6.5593637998681509E-2</v>
+      </c>
+      <c r="S27">
+        <v>8.2156473996583379E-2</v>
+      </c>
       <c r="U27">
         <v>1.032226006500423E-3</v>
       </c>
@@ -4456,14 +7078,59 @@
       <c r="AM27">
         <v>1.6495699997758489E-2</v>
       </c>
-      <c r="AN27" s="11" t="s">
-        <v>24</v>
+      <c r="AN27" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AN28" s="11"/>
+      <c r="AN28" s="9"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.88</v>
+      </c>
+      <c r="B29">
+        <v>0.12</v>
+      </c>
+      <c r="C29">
+        <v>0.9</v>
+      </c>
+      <c r="E29">
+        <v>0.42</v>
+      </c>
+      <c r="F29">
+        <v>0.16</v>
+      </c>
+      <c r="G29">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I29">
+        <v>0.84</v>
+      </c>
+      <c r="J29">
+        <v>0.2</v>
+      </c>
+      <c r="K29">
+        <v>0.52</v>
+      </c>
+      <c r="M29">
+        <v>0.2</v>
+      </c>
+      <c r="N29">
+        <v>0.3</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0.78</v>
+      </c>
+      <c r="R29">
+        <v>0.3</v>
+      </c>
+      <c r="S29">
+        <v>0.4</v>
+      </c>
       <c r="U29">
         <v>1</v>
       </c>
@@ -4509,11 +7176,56 @@
       <c r="AM29">
         <v>0.4</v>
       </c>
-      <c r="AN29" s="11" t="s">
-        <v>4</v>
+      <c r="AN29" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.1217859992757439E-3</v>
+      </c>
+      <c r="B30">
+        <v>4.302142004016787E-3</v>
+      </c>
+      <c r="C30">
+        <v>8.0090579949319354E-3</v>
+      </c>
+      <c r="E30">
+        <v>1.259083998156711E-3</v>
+      </c>
+      <c r="F30">
+        <v>4.7881819971371444E-3</v>
+      </c>
+      <c r="G30">
+        <v>1.075041800038889E-2</v>
+      </c>
+      <c r="I30">
+        <v>2.2383279947098341E-3</v>
+      </c>
+      <c r="J30">
+        <v>1.2697232000064101E-2</v>
+      </c>
+      <c r="K30">
+        <v>2.529231799766421E-2</v>
+      </c>
+      <c r="M30">
+        <v>1.5484260022640231E-3</v>
+      </c>
+      <c r="N30">
+        <v>7.7432419988326716E-3</v>
+      </c>
+      <c r="O30">
+        <v>1.305627200054005E-2</v>
+      </c>
+      <c r="Q30">
+        <v>8.6381499981507664E-3</v>
+      </c>
+      <c r="R30">
+        <v>6.3792584001785141E-2</v>
+      </c>
+      <c r="S30">
+        <v>7.8540672000963235E-2</v>
+      </c>
       <c r="U30">
         <v>1.229055996518582E-3</v>
       </c>
@@ -4559,294 +7271,294 @@
       <c r="AM30">
         <v>1.7215983999194578E-2</v>
       </c>
-      <c r="AN30" s="11" t="s">
-        <v>24</v>
+      <c r="AN30" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="e">
-        <f t="shared" ref="A32:AJ33" si="0">AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S32" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="8">
+      <c r="A32" s="6">
+        <f t="shared" ref="A32:AI33" si="0">AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29)</f>
+        <v>0.88400000000000012</v>
+      </c>
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.874</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000004</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.55200000000000016</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.26599999999999996</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.124</v>
+      </c>
+      <c r="S32" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="6">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="6">
         <f t="shared" si="0"/>
         <v>0.43199999999999994</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="8">
+      <c r="X32" s="7"/>
+      <c r="Y32" s="6">
         <f t="shared" si="0"/>
         <v>0.89000000000000024</v>
       </c>
-      <c r="Z32" s="8">
+      <c r="Z32" s="6">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="AA32" s="8">
+      <c r="AA32" s="6">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="8">
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="6">
         <f t="shared" si="0"/>
         <v>0.99</v>
       </c>
-      <c r="AD32" s="8">
+      <c r="AD32" s="6">
         <f t="shared" si="0"/>
         <v>0.24400000000000005</v>
       </c>
-      <c r="AE32" s="8">
+      <c r="AE32" s="6">
         <f t="shared" si="0"/>
         <v>0.93999999999999984</v>
       </c>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="8">
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="6">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
-      <c r="AH32" s="8">
+      <c r="AH32" s="6">
         <f t="shared" si="0"/>
         <v>0.312</v>
       </c>
-      <c r="AI32" s="8">
+      <c r="AI32" s="6">
         <f t="shared" si="0"/>
         <v>0.372</v>
       </c>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="8">
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="6">
         <f>AVERAGE(AK2,AK5,AK8,AK11,AK14,AK17,AK20,AK23,AK26,AK29)</f>
         <v>0.68599999999999994</v>
       </c>
-      <c r="AL32" s="8">
+      <c r="AL32" s="6">
         <f t="shared" ref="AL32:AM33" si="1">AVERAGE(AL2,AL5,AL8,AL11,AL14,AL17,AL20,AL23,AL26,AL29)</f>
         <v>0.18999999999999997</v>
       </c>
-      <c r="AM32" s="8">
+      <c r="AM32" s="6">
         <f t="shared" si="1"/>
         <v>0.41</v>
       </c>
-      <c r="AO32" s="10" t="e">
+      <c r="AO32" s="8">
         <f>AVERAGE(A32,E32,I32,M32,Q32,U32,Y32,AC32,AG32,AK32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP32" s="10" t="e">
+        <v>0.69840000000000013</v>
+      </c>
+      <c r="AP32" s="8">
         <f t="shared" ref="AP32:AQ33" si="2">AVERAGE(B32,F32,J32,N32,R32,V32,Z32,AD32,AH32,AL32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ32" s="10" t="e">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AQ32" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.67820000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S33" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="8">
+      <c r="A33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1766137994127348E-3</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>4.2451763984281575E-3</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>7.3738154000602659E-3</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8830786002799866E-3</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="0"/>
+        <v>4.8386563997482885E-3</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1146899399929678E-2</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3986195988254617E-3</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4659881799947469E-2</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="0"/>
+        <v>2.3463292399072088E-2</v>
+      </c>
+      <c r="L33" s="7"/>
+      <c r="M33" s="6">
+        <f>AVERAGE(M3,M6,M9,M12,M15,M18,M21,M24,M27,M30)</f>
+        <v>1.6539724005851894E-3</v>
+      </c>
+      <c r="N33" s="6">
+        <f>AVERAGE(N3,N6,N9,N12,N15,N18,N21,N24,N27,N30)</f>
+        <v>8.1324321978026998E-3</v>
+      </c>
+      <c r="O33" s="6">
+        <f>AVERAGE(O3,O6,O9,O12,O15,O18,O21,O24,O27,O30)</f>
+        <v>1.4547136000473984E-2</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="6">
+        <f t="shared" si="0"/>
+        <v>9.7651526003610344E-3</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="0"/>
+        <v>6.7814596399432048E-2</v>
+      </c>
+      <c r="S33" s="6">
+        <f t="shared" si="0"/>
+        <v>7.8290031599695803E-2</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="6">
         <f t="shared" si="0"/>
         <v>1.1276384007651362E-3</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="6">
         <f t="shared" si="0"/>
         <v>5.6072758008958775E-3</v>
       </c>
-      <c r="W33" s="8">
+      <c r="W33" s="6">
         <f t="shared" si="0"/>
         <v>9.7662974002305416E-3</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="8">
+      <c r="X33" s="7"/>
+      <c r="Y33" s="6">
         <f t="shared" si="0"/>
         <v>9.6091979963239293E-4</v>
       </c>
-      <c r="Z33" s="8">
+      <c r="Z33" s="6">
         <f t="shared" si="0"/>
         <v>4.1642621998908003E-3</v>
       </c>
-      <c r="AA33" s="8">
+      <c r="AA33" s="6">
         <f t="shared" si="0"/>
         <v>5.7106386013329033E-3</v>
       </c>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="8">
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="6">
         <f t="shared" si="0"/>
         <v>2.651655201916583E-3</v>
       </c>
-      <c r="AD33" s="8">
+      <c r="AD33" s="6">
         <f t="shared" si="0"/>
         <v>1.859961300028954E-2</v>
       </c>
-      <c r="AE33" s="8">
+      <c r="AE33" s="6">
         <f t="shared" si="0"/>
         <v>2.6534672399517144E-2</v>
       </c>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="8">
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="6">
         <f t="shared" si="0"/>
         <v>2.6927468014182523E-3</v>
       </c>
-      <c r="AH33" s="8">
+      <c r="AH33" s="6">
         <f t="shared" si="0"/>
         <v>2.2982661201385781E-2</v>
       </c>
-      <c r="AI33" s="8">
+      <c r="AI33" s="6">
         <f t="shared" si="0"/>
         <v>2.5668488999595868E-2</v>
       </c>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="8">
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="6">
         <f>AVERAGE(AK3,AK6,AK9,AK12,AK15,AK18,AK21,AK24,AK27,AK30)</f>
         <v>1.6423646020703019E-3</v>
       </c>
-      <c r="AL33" s="8">
+      <c r="AL33" s="6">
         <f t="shared" si="1"/>
         <v>7.7105997989419858E-3</v>
       </c>
-      <c r="AM33" s="8">
+      <c r="AM33" s="6">
         <f t="shared" si="1"/>
         <v>1.6388367799343544E-2</v>
       </c>
-      <c r="AO33" s="10" t="e">
+      <c r="AO33" s="8">
         <f>AVERAGE(A33,E33,I33,M33,Q33,U33,Y33,AC33,AG33,AK33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AP33" s="10" t="e">
+        <v>2.6952761805267072E-3</v>
+      </c>
+      <c r="AP33" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AQ33" s="10" t="e">
+        <v>1.5875515519676264E-2</v>
+      </c>
+      <c r="AQ33" s="8">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.1888963999925185E-2</v>
       </c>
     </row>
   </sheetData>

--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
     <sheet name="test1" sheetId="2" r:id="rId2"/>
     <sheet name="test2" sheetId="3" r:id="rId3"/>
     <sheet name="test3" sheetId="4" r:id="rId4"/>
+    <sheet name="test4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="26">
   <si>
     <t>My Template Matching</t>
   </si>
@@ -90,12 +91,18 @@
   <si>
     <t>Feature (keypoint) Matching</t>
   </si>
+  <si>
+    <t>Synthetic test data</t>
+  </si>
+  <si>
+    <t>Real test data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +132,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +292,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -582,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -595,6 +619,14 @@
     <col min="6" max="16384" width="31.42578125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
@@ -743,7 +775,71 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5307,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView topLeftCell="AF10" workbookViewId="0">
-      <selection activeCell="AN32" sqref="AN32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7564,4 +7660,248 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="18.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
   <si>
     <t>My Template Matching</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Confirming absence of control</t>
-  </si>
-  <si>
-    <t>Times</t>
   </si>
   <si>
     <t>opencv, numpy</t>
@@ -300,7 +297,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -621,11 +618,11 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -635,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -758,21 +755,21 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -783,11 +780,11 @@
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -801,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -815,9 +812,18 @@
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="B12" s="10">
+        <f>test4!U38</f>
+        <v>0.71581422734065803</v>
+      </c>
+      <c r="C12" s="2">
+        <f>test4!V38</f>
+        <v>0.77307060498150704</v>
+      </c>
+      <c r="D12" s="4">
+        <f>test4!W38</f>
+        <v>0.50518813571107957</v>
+      </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
@@ -825,11 +831,20 @@
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <f>test4!U39</f>
+        <v>2.4435216648271306E-3</v>
+      </c>
+      <c r="C13" s="10">
+        <f>test4!V39</f>
+        <v>1.2900453333956344E-2</v>
+      </c>
+      <c r="D13" s="4">
+        <f>test4!W39</f>
+        <v>4.2303626664215707E-2</v>
+      </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
@@ -859,34 +874,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -1076,7 +1091,7 @@
         <v>1.7322881995933129E-2</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1269,7 +1284,7 @@
         <v>1.284351000096649E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1462,7 +1477,7 @@
         <v>1.3129756000125781E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -1655,7 +1670,7 @@
         <v>1.6641702005872502E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -1848,7 +1863,7 @@
         <v>1.527354599442333E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2041,7 +2056,7 @@
         <v>1.379803000367247E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -2234,7 +2249,7 @@
         <v>1.3183743994450201E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -2427,7 +2442,7 @@
         <v>1.7871440005255861E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -2620,7 +2635,7 @@
         <v>1.6933357998495921E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -2813,7 +2828,7 @@
         <v>1.4813257995992901E-2</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -3151,34 +3166,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -3368,7 +3383,7 @@
         <v>0.1015712500011432</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -3561,7 +3576,7 @@
         <v>7.8942925014416687E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -3754,7 +3769,7 @@
         <v>7.9712462480529211E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -3947,7 +3962,7 @@
         <v>9.7904037495027296E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -4140,7 +4155,7 @@
         <v>9.530787499534199E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -4333,7 +4348,7 @@
         <v>7.6964549996773712E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -4526,7 +4541,7 @@
         <v>7.5967137519910466E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -4719,7 +4734,7 @@
         <v>9.2542987520573661E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -4912,7 +4927,7 @@
         <v>9.7914574987953529E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -5105,7 +5120,7 @@
         <v>0.1011443875031546</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -5403,8 +5418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="AF10" workbookViewId="0">
+      <selection activeCell="AO32" sqref="AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5414,34 +5429,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -5631,7 +5646,7 @@
         <v>2.5594189997063949E-2</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -5824,7 +5839,7 @@
         <v>1.256062400178052E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -6017,7 +6032,7 @@
         <v>1.388507799943909E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -6210,7 +6225,7 @@
         <v>1.672361599979922E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -6403,7 +6418,7 @@
         <v>1.7793423996772618E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -6596,7 +6611,7 @@
         <v>1.3773278000298889E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -6789,7 +6804,7 @@
         <v>1.3401135999010881E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -6982,7 +6997,7 @@
         <v>1.644064800231718E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -7175,7 +7190,7 @@
         <v>1.6495699997758489E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -7368,7 +7383,7 @@
         <v>1.7215983999194578E-2</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -7664,10 +7679,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7675,231 +7690,1633 @@
     <col min="1" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="B2">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="C2">
+        <v>0.80285827333634863</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F2">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G2">
+        <v>0.96849481077717758</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2">
+        <v>0.62517221585294003</v>
+      </c>
+      <c r="N2">
+        <v>0.62517221585294003</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R2">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S2">
+        <v>0.70110070791664225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.47119999746792E-3</v>
+      </c>
+      <c r="B3">
+        <v>3.8492000021506101E-3</v>
+      </c>
+      <c r="C3">
+        <v>9.9776999850291759E-3</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>1.7562999855726959E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.62152000120841E-2</v>
+      </c>
+      <c r="G3">
+        <v>2.906760000041686E-2</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3">
+        <v>5.19299998995848E-3</v>
+      </c>
+      <c r="J3">
+        <v>1.953789999242872E-2</v>
+      </c>
+      <c r="K3">
+        <v>3.7313199980417273E-2</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3">
+        <v>2.5385000044479971E-3</v>
+      </c>
+      <c r="N3">
+        <v>2.0445900008780878E-2</v>
+      </c>
+      <c r="O3">
+        <v>8.8875299989013001E-2</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3">
+        <v>2.2020000033080578E-3</v>
+      </c>
+      <c r="R3">
+        <v>6.920399988302961E-3</v>
+      </c>
+      <c r="S3">
+        <v>4.2208899976685643E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="B5">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="C5">
+        <v>0.82852166371029656</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F5">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G5">
+        <v>0.96849774266192989</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5">
+        <v>0.70005767567101262</v>
+      </c>
+      <c r="J5">
+        <v>0.70005767567101262</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5">
+        <v>0.35717565346677488</v>
+      </c>
+      <c r="N5">
+        <v>0.35717565346677488</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R5">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S5">
+        <v>0.90085332354921466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4.7480000648647552E-4</v>
+      </c>
+      <c r="B6">
+        <v>4.1353999986313283E-3</v>
+      </c>
+      <c r="C6">
+        <v>9.8068999941460788E-3</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>1.524299994343892E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.754460000665858E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.8265299974009391E-2</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6">
+        <v>5.258799996227026E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.6607400000793859E-2</v>
+      </c>
+      <c r="K6">
+        <v>3.2369799999287352E-2</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6">
+        <v>3.2913000031840061E-3</v>
+      </c>
+      <c r="N6">
+        <v>2.440550000756048E-2</v>
+      </c>
+      <c r="O6">
+        <v>0.12479440000606699</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6">
+        <v>2.2041999909561132E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.074259998858906E-2</v>
+      </c>
+      <c r="S6">
+        <v>4.1056799993384629E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="B8">
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="C8">
+        <v>0.73316445623467663</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>0.9168109669192297</v>
+      </c>
+      <c r="F8">
+        <v>0.9168109669192297</v>
+      </c>
+      <c r="G8">
+        <v>0.840005235241575</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="J8">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="N8">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="R8">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S8">
+        <v>0.74487406999065708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.7250000857748091E-4</v>
+      </c>
+      <c r="B9">
+        <v>5.0139999948441982E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.669570000376552E-2</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9">
+        <v>5.1958999829366803E-3</v>
+      </c>
+      <c r="F9">
+        <v>4.4981099985307083E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.4287899994524203E-2</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9">
+        <v>4.9033999966923147E-3</v>
+      </c>
+      <c r="J9">
+        <v>3.0680900003062561E-2</v>
+      </c>
+      <c r="K9">
+        <v>5.500310001662001E-2</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9">
+        <v>3.200800012564287E-3</v>
+      </c>
+      <c r="N9">
+        <v>1.9908899994334209E-2</v>
+      </c>
+      <c r="O9">
+        <v>6.1330800002906471E-2</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9">
+        <v>3.002199984621257E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.13032000081148E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.3950899998890243E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="B11">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="C11">
+        <v>0.76743149576505687</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F11">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G11">
+        <v>0.96849627673659267</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J11">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="N11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S11">
+        <v>0.7629541553694239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.5390000771731141E-4</v>
+      </c>
+      <c r="B12">
+        <v>2.0737999875564128E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.4209300017682841E-2</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12">
+        <v>2.5525999953970309E-3</v>
+      </c>
+      <c r="F12">
+        <v>5.7950000045821071E-3</v>
+      </c>
+      <c r="G12">
+        <v>2.6196399994660169E-2</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12">
+        <v>4.5283999934326857E-3</v>
+      </c>
+      <c r="J12">
+        <v>3.7175000179558988E-3</v>
+      </c>
+      <c r="K12">
+        <v>2.9157199984183532E-2</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12">
+        <v>3.4603999811224639E-3</v>
+      </c>
+      <c r="N12">
+        <v>2.2929099999601021E-2</v>
+      </c>
+      <c r="O12">
+        <v>4.5141399983549491E-2</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12">
+        <v>1.196099998196587E-3</v>
+      </c>
+      <c r="R12">
+        <v>5.3735999972559512E-3</v>
+      </c>
+      <c r="S12">
+        <v>2.3412699985783551E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="B14">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="C14">
+        <v>0.80965626391095724</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <v>0.9375</v>
+      </c>
+      <c r="F14">
+        <v>0.9375</v>
+      </c>
+      <c r="G14">
+        <v>0.96652573645075113</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14">
+        <v>0.8125</v>
+      </c>
+      <c r="J14">
+        <v>0.8125</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="N14">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="O14">
+        <v>0.38164941221016468</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R14">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S14">
+        <v>0.75706683348112813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.2269998337142169E-4</v>
+      </c>
+      <c r="B15">
+        <v>3.861699980916455E-3</v>
+      </c>
+      <c r="C15">
+        <v>2.8163100010715428E-2</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <v>1.4520999975502491E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.2859699985710901E-2</v>
+      </c>
+      <c r="G15">
+        <v>3.812169999582693E-2</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15">
+        <v>5.8384000149089843E-3</v>
+      </c>
+      <c r="J15">
+        <v>1.9172600004822019E-2</v>
+      </c>
+      <c r="K15">
+        <v>4.3904799997108057E-2</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15">
+        <v>3.89810002525337E-3</v>
+      </c>
+      <c r="N15">
+        <v>2.174309999099933E-2</v>
+      </c>
+      <c r="O15">
+        <v>5.7854499988025047E-2</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15">
+        <v>2.1231999853625889E-3</v>
+      </c>
+      <c r="R15">
+        <v>6.8636000214610249E-3</v>
+      </c>
+      <c r="S15">
+        <v>4.0804099990054972E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92289420767242103</v>
+      </c>
+      <c r="B17">
+        <v>0.92289420767242103</v>
+      </c>
+      <c r="C17">
+        <v>0.83443470978925183</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17">
+        <v>0.9375</v>
+      </c>
+      <c r="F17">
+        <v>0.9375</v>
+      </c>
+      <c r="G17">
+        <v>0.9665288515783006</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17">
+        <v>0.74230589839889616</v>
+      </c>
+      <c r="J17">
+        <v>0.74230589839889616</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N17">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R17">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S17">
+        <v>0.85248846664532796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4.7349999658763409E-4</v>
+      </c>
+      <c r="B18">
+        <v>2.786299999570474E-3</v>
+      </c>
+      <c r="C18">
+        <v>3.013640001881868E-2</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <v>1.2388000031933191E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.0169799992581829E-2</v>
+      </c>
+      <c r="G18">
+        <v>3.3177800010889769E-2</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18">
+        <v>2.676699979929253E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.562449999619275E-2</v>
+      </c>
+      <c r="K18">
+        <v>3.8179800001671538E-2</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18">
+        <v>2.727699989918619E-3</v>
+      </c>
+      <c r="N18">
+        <v>2.0677100023021922E-2</v>
+      </c>
+      <c r="O18">
+        <v>6.9948699994711205E-2</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18">
+        <v>2.1322999964468181E-3</v>
+      </c>
+      <c r="R18">
+        <v>1.025639998260885E-2</v>
+      </c>
+      <c r="S18">
+        <v>5.0529500003904097E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.95123401509058292</v>
+      </c>
+      <c r="B20">
+        <v>0.95123401509058292</v>
+      </c>
+      <c r="C20">
+        <v>0.74236568188175678</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20">
+        <v>0.82322330470336313</v>
+      </c>
+      <c r="F20">
+        <v>0.91161165235168151</v>
+      </c>
+      <c r="G20">
+        <v>0.83000556244417334</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20">
+        <v>0.80235764623947625</v>
+      </c>
+      <c r="J20">
+        <v>0.80235764623947625</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="N20">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="R20">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S20">
+        <v>0.74487406999065708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>4.7709999489597982E-4</v>
+      </c>
+      <c r="B21">
+        <v>2.8004999912809581E-3</v>
+      </c>
+      <c r="C21">
+        <v>3.4002300002612167E-2</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21">
+        <v>1.944199990248308E-3</v>
+      </c>
+      <c r="F21">
+        <v>1.4273000007960951E-2</v>
+      </c>
+      <c r="G21">
+        <v>3.8681500009261072E-2</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21">
+        <v>5.2712000033352524E-3</v>
+      </c>
+      <c r="J21">
+        <v>3.3396600018022582E-2</v>
+      </c>
+      <c r="K21">
+        <v>4.1764200024772442E-2</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21">
+        <v>2.8124000236857678E-3</v>
+      </c>
+      <c r="N21">
+        <v>1.8387000018265098E-2</v>
+      </c>
+      <c r="O21">
+        <v>7.6597099978243932E-2</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21">
+        <v>2.6773000136017799E-3</v>
+      </c>
+      <c r="R21">
+        <v>1.2390199990477409E-2</v>
+      </c>
+      <c r="S21">
+        <v>4.6896599989850067E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0.77545109935936529</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <v>0.9375</v>
+      </c>
+      <c r="F23">
+        <v>0.9375</v>
+      </c>
+      <c r="G23">
+        <v>0.38812556412599603</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23">
+        <v>0.8125</v>
+      </c>
+      <c r="J23">
+        <v>0.8125</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="N23">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S23">
+        <v>0.7629541553694239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.880999770946801E-4</v>
+      </c>
+      <c r="B24">
+        <v>1.2009000056423249E-3</v>
+      </c>
+      <c r="C24">
+        <v>1.1515099991811439E-2</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24">
+        <v>6.105000211391598E-4</v>
+      </c>
+      <c r="F24">
+        <v>6.4028000051621348E-3</v>
+      </c>
+      <c r="G24">
+        <v>2.385440000216477E-2</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24">
+        <v>1.7329000111203641E-3</v>
+      </c>
+      <c r="J24">
+        <v>8.1821999920066446E-3</v>
+      </c>
+      <c r="K24">
+        <v>2.6962100004311651E-2</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24">
+        <v>2.1050999930594121E-3</v>
+      </c>
+      <c r="N24">
+        <v>1.7801300011342391E-2</v>
+      </c>
+      <c r="O24">
+        <v>6.226149998838082E-2</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24">
+        <v>8.7600000551901758E-4</v>
+      </c>
+      <c r="R24">
+        <v>4.2336000187788159E-3</v>
+      </c>
+      <c r="S24">
+        <v>2.0694400009233501E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="B26">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C26">
+        <v>0.80285827333634863</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F26">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G26">
+        <v>0.96429411888080119</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="J26">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="K26">
+        <v>0.14471107089744259</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26">
+        <v>0.68283802879864153</v>
+      </c>
+      <c r="N26">
+        <v>0.68283802879864153</v>
+      </c>
+      <c r="O26">
+        <v>0.38164941221016468</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R26">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S26">
+        <v>0.75706683348112813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.4759999359957868E-4</v>
+      </c>
+      <c r="B27">
+        <v>5.0211999914608896E-3</v>
+      </c>
+      <c r="C27">
+        <v>1.372690001153387E-2</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27">
+        <v>9.5599997439421713E-4</v>
+      </c>
+      <c r="F27">
+        <v>7.140600006096065E-3</v>
+      </c>
+      <c r="G27">
+        <v>3.5550500004319467E-2</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27">
+        <v>1.0260399983963E-2</v>
+      </c>
+      <c r="J27">
+        <v>2.0844500017119572E-2</v>
+      </c>
+      <c r="K27">
+        <v>3.5234999988460913E-2</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27">
+        <v>4.7274000244215131E-3</v>
+      </c>
+      <c r="N27">
+        <v>1.8906999990576882E-2</v>
+      </c>
+      <c r="O27">
+        <v>7.1380000008502975E-2</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27">
+        <v>1.371699996525422E-3</v>
+      </c>
+      <c r="R27">
+        <v>7.1652999904472381E-3</v>
+      </c>
+      <c r="S27">
+        <v>4.2761699995025992E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="B29">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="C29">
+        <v>0.82852166371029656</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F29">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G29">
+        <v>0.96429744168352061</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.70005767567101262</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29">
+        <v>0.45607170677957881</v>
+      </c>
+      <c r="N29">
+        <v>0.45607170677957881</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R29">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S29">
+        <v>0.70107706824234184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2.7290001162327831E-4</v>
+      </c>
+      <c r="B30">
+        <v>3.4283999993931502E-3</v>
+      </c>
+      <c r="C30">
+        <v>1.147160000982694E-2</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30">
+        <v>1.045299984980375E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.0383699991507459E-2</v>
+      </c>
+      <c r="G30">
+        <v>4.3326399987563491E-2</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30">
+        <v>3.9736999897286296E-3</v>
+      </c>
+      <c r="J30">
+        <v>1.530299999285489E-2</v>
+      </c>
+      <c r="K30">
+        <v>2.9285299999173731E-2</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30">
+        <v>4.5328999985940746E-3</v>
+      </c>
+      <c r="N30">
+        <v>1.8357900000410151E-2</v>
+      </c>
+      <c r="O30">
+        <v>0.10815990000264721</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30">
+        <v>1.376000000163913E-3</v>
+      </c>
+      <c r="R30">
+        <v>1.3556499994592739E-2</v>
+      </c>
+      <c r="S30">
+        <v>4.1737899999134243E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="B32">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="C32">
+        <v>0.73316445623467663</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32">
+        <v>0.90571909584179366</v>
+      </c>
+      <c r="F32">
+        <v>0.90571909584179366</v>
+      </c>
+      <c r="G32">
+        <v>0.81867259994045161</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J32">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K32">
+        <v>3.0686612560499541E-2</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N32">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="R32">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S32">
+        <v>0.74487406999065708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2.5839998852461582E-4</v>
+      </c>
+      <c r="B33">
+        <v>3.7919000023975968E-3</v>
+      </c>
+      <c r="C33">
+        <v>1.334410000708885E-2</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33">
+        <v>2.492300001904368E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.334950001910329E-2</v>
+      </c>
+      <c r="G33">
+        <v>5.4387600015616037E-2</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33">
+        <v>5.501599982380867E-3</v>
+      </c>
+      <c r="J33">
+        <v>2.503859999706037E-2</v>
+      </c>
+      <c r="K33">
+        <v>3.8538199994945899E-2</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33">
+        <v>4.4772000110242516E-3</v>
+      </c>
+      <c r="N33">
+        <v>1.8904600001405921E-2</v>
+      </c>
+      <c r="O33">
+        <v>0.17259569998714139</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33">
+        <v>1.8149999959859999E-3</v>
+      </c>
+      <c r="R33">
+        <v>1.6209800000069659E-2</v>
+      </c>
+      <c r="S33">
+        <v>5.3961699974024668E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="B35">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="C35">
+        <v>0.76743149576505687</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F35">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G35">
+        <v>0.96429578030147167</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="J35">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="K35">
+        <v>0.14535447153364639</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N35">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S35">
+        <v>0.7629541553694239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1.5040001017041499E-4</v>
+      </c>
+      <c r="B36">
+        <v>1.3582000101450831E-3</v>
+      </c>
+      <c r="C36">
+        <v>1.1491699988255281E-2</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36">
+        <v>1.7089000029955059E-3</v>
+      </c>
+      <c r="F36">
+        <v>4.1028000123333186E-3</v>
+      </c>
+      <c r="G36">
+        <v>2.8523499990114939E-2</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36">
+        <v>7.6830000034533441E-4</v>
+      </c>
+      <c r="J36">
+        <v>8.6448999936692417E-3</v>
+      </c>
+      <c r="K36">
+        <v>2.926270000170916E-2</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36">
+        <v>3.975300001911819E-3</v>
+      </c>
+      <c r="N36">
+        <v>2.220919998944737E-2</v>
+      </c>
+      <c r="O36">
+        <v>6.5680400002747774E-2</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36">
+        <v>7.4109999695792794E-4</v>
+      </c>
+      <c r="R36">
+        <v>5.0455000018700957E-3</v>
+      </c>
+      <c r="S36">
+        <v>3.0625899991719049E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f>AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29,A32,A35)</f>
+        <v>0.93069458845431086</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" ref="B38:D39" si="0">AVERAGE(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35)</f>
+        <v>0.93069458845431086</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.78548829441950752</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="6">
+        <f t="shared" ref="E38:S38" si="1">AVERAGE(E2,E5,E8,E11,E14,E17,E20,E23,E26,E29,E32,E35)</f>
+        <v>0.92348189826909122</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.930847593906451</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.88401997673522847</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.70301933268826744</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7613574723275186</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6729346249299041E-2</v>
+      </c>
+      <c r="L38" s="12"/>
+      <c r="M38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35392884331135493</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35392884331135493</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3608235368360785E-2</v>
+      </c>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.66794647398026585</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.8885245269079004</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.76609482578300225</v>
+      </c>
+      <c r="U38" s="8">
+        <f>AVERAGE(A38,E38,I38,M38,Q38)</f>
+        <v>0.71581422734065803</v>
+      </c>
+      <c r="V38" s="8">
+        <f t="shared" ref="V38:W38" si="2">AVERAGE(B38,F38,J38,N38,R38)</f>
+        <v>0.77307060498150704</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.50518813571107957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f>AVERAGE(A3,A6,A9,A12,A15,A18,A21,A24,A27,A30,A33,A36)</f>
+        <v>3.9692499800973263E-4</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2767916636657901E-3</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="0"/>
+        <v>1.704506667010719E-2</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="6">
+        <f t="shared" ref="E39:S39" si="3">AVERAGE(E3,E6,E9,E12,E15,E18,E21,E24,E27,E30,E33,E36)</f>
+        <v>1.87309999455465E-3</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="3"/>
+        <v>1.3601483335757317E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4453383331613928E-2</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="6">
+        <f t="shared" si="3"/>
+        <v>4.6588999951685155E-3</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8062550002165761E-2</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="3"/>
+        <v>3.6414616666055132E-2</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="6">
+        <f t="shared" si="3"/>
+        <v>3.4789250057656318E-3</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="3"/>
+        <v>2.038971666964547E-2</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="3"/>
+        <v>8.3718308327661362E-2</v>
+      </c>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8097583306371234E-3</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="3"/>
+        <v>9.1717249985473846E-3</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="3"/>
+        <v>3.9886758325640891E-2</v>
+      </c>
+      <c r="U39" s="8">
+        <f>AVERAGE(A39,E39,I39,M39,Q39)</f>
+        <v>2.4435216648271306E-3</v>
+      </c>
+      <c r="V39" s="8">
+        <f t="shared" ref="V39" si="4">AVERAGE(B39,F39,J39,N39,R39)</f>
+        <v>1.2900453333956344E-2</v>
+      </c>
+      <c r="W39" s="8">
+        <f t="shared" ref="W39" si="5">AVERAGE(C39,G39,K39,O39,S39)</f>
+        <v>4.2303626664215707E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="test2" sheetId="3" r:id="rId3"/>
     <sheet name="test3" sheetId="4" r:id="rId4"/>
     <sheet name="test4" sheetId="5" r:id="rId5"/>
+    <sheet name="test5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="27">
   <si>
     <t>My Template Matching</t>
   </si>
@@ -94,12 +95,18 @@
   <si>
     <t>Real test data</t>
   </si>
+  <si>
+    <t>Advanced Template Matching</t>
+  </si>
+  <si>
+    <t>Feature Matching replaced with Advanced Template Matching (My Template Matching + Multi-Scale Template Matching)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +150,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +221,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -250,13 +278,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -294,17 +338,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Пояснение" xfId="2" builtinId="53"/>
+    <cellStyle name="Примечание" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -617,12 +668,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -779,12 +830,12 @@
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -850,10 +901,247 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
+    <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <f>test1!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="10">
+        <f>test1!AP53</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <f>test1!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="2">
+        <f>test1!AO54</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <f>test1!AP54</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
+        <f>test1!AQ54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <f>test2!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="10">
+        <f>test2!AP53</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <f>test2!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="2">
+        <f>test2!AO54</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <f>test2!AP54</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <f>test2!AQ54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <f>test3!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <f>test3!AP53</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <f>test3!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2">
+        <f>test3!AO54</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f>test3!AP54</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <f>test3!AQ54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <f>test5!U38</f>
+        <v>0.71581422734065803</v>
+      </c>
+      <c r="C28" s="2">
+        <f>test5!V38</f>
+        <v>0.77307060498150704</v>
+      </c>
+      <c r="D28" s="10">
+        <f>test5!W38</f>
+        <v>0.71728736646813007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2">
+        <f>test5!U39</f>
+        <v>3.5032950040961922E-3</v>
+      </c>
+      <c r="C29" s="4">
+        <f>test5!V39</f>
+        <v>1.8794900002346064E-2</v>
+      </c>
+      <c r="D29" s="10">
+        <f>test5!W39</f>
+        <v>1.7623480006780788E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A15:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7681,8 +7969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9168,7 +9456,7 @@
         <v>0.93069458845431086</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" ref="B38:D39" si="0">AVERAGE(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35)</f>
+        <f t="shared" ref="B38:C39" si="0">AVERAGE(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35)</f>
         <v>0.93069458845431086</v>
       </c>
       <c r="C38" s="6">
@@ -9321,4 +9609,1642 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="18.42578125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="B2">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="C2">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F2">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G2">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K2">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2">
+        <v>0.62517221585294003</v>
+      </c>
+      <c r="N2">
+        <v>0.62517221585294003</v>
+      </c>
+      <c r="O2">
+        <v>0.62517221585294003</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R2">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S2">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.750600000377744E-3</v>
+      </c>
+      <c r="B3">
+        <v>6.772099994122982E-3</v>
+      </c>
+      <c r="C3">
+        <v>5.2465000189840794E-3</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3">
+        <v>4.1006000246852636E-3</v>
+      </c>
+      <c r="F3">
+        <v>1.8729300005361441E-2</v>
+      </c>
+      <c r="G3">
+        <v>1.9788600038737059E-2</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3">
+        <v>1.0092300013639029E-2</v>
+      </c>
+      <c r="J3">
+        <v>2.6965499971993271E-2</v>
+      </c>
+      <c r="K3">
+        <v>2.240869996603578E-2</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3">
+        <v>5.6254999944940209E-3</v>
+      </c>
+      <c r="N3">
+        <v>3.0283300031442199E-2</v>
+      </c>
+      <c r="O3">
+        <v>3.1321899965405457E-2</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3">
+        <v>2.321399981155992E-3</v>
+      </c>
+      <c r="R3">
+        <v>1.8039400049019601E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.840840000659227E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="B5">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="C5">
+        <v>0.92014042937500751</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F5">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G5">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5">
+        <v>0.70005767567101262</v>
+      </c>
+      <c r="J5">
+        <v>0.70005767567101262</v>
+      </c>
+      <c r="K5">
+        <v>0.70005767567101262</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5">
+        <v>0.35717565346677488</v>
+      </c>
+      <c r="N5">
+        <v>0.35717565346677488</v>
+      </c>
+      <c r="O5">
+        <v>0.35717565346677488</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R5">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S5">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7.0319999940693378E-4</v>
+      </c>
+      <c r="B6">
+        <v>5.6864999933168292E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.289280003402382E-2</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>4.0598999476060271E-3</v>
+      </c>
+      <c r="F6">
+        <v>2.2815399977844208E-2</v>
+      </c>
+      <c r="G6">
+        <v>2.175389998592436E-2</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6">
+        <v>5.0912000006064773E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.9293699995614592E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.5471699996851379E-2</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6">
+        <v>6.293600017670542E-3</v>
+      </c>
+      <c r="N6">
+        <v>3.7513700022827827E-2</v>
+      </c>
+      <c r="O6">
+        <v>2.9515700007323179E-2</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6">
+        <v>3.2242000452242792E-3</v>
+      </c>
+      <c r="R6">
+        <v>1.963220001198351E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.8767800007481131E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="B8">
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="C8">
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>0.9168109669192297</v>
+      </c>
+      <c r="F8">
+        <v>0.9168109669192297</v>
+      </c>
+      <c r="G8">
+        <v>0.9168109669192297</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="J8">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="K8">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="N8">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O8">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="R8">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S8">
+        <v>0.88231221171053742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7.0570001844316721E-4</v>
+      </c>
+      <c r="B9">
+        <v>5.2011000225320458E-3</v>
+      </c>
+      <c r="C9">
+        <v>5.4754000157117844E-3</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9">
+        <v>5.3711999789811671E-3</v>
+      </c>
+      <c r="F9">
+        <v>4.2590700031723827E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.8108200000133369E-2</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9">
+        <v>5.8445000322535634E-3</v>
+      </c>
+      <c r="J9">
+        <v>3.3329400001093752E-2</v>
+      </c>
+      <c r="K9">
+        <v>3.1899800000246607E-2</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9">
+        <v>5.9646000154316434E-3</v>
+      </c>
+      <c r="N9">
+        <v>3.3194999967236072E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.8866900014691051E-2</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9">
+        <v>4.0578999905847013E-3</v>
+      </c>
+      <c r="R9">
+        <v>2.4901000026147809E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.4216099991463121E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="B11">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="C11">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="F11">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="G11">
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J11">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K11">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="N11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O11">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3.7989998236298561E-4</v>
+      </c>
+      <c r="B12">
+        <v>3.1326999887824059E-3</v>
+      </c>
+      <c r="C12">
+        <v>4.0662999963387847E-3</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12">
+        <v>4.5809999573975801E-3</v>
+      </c>
+      <c r="F12">
+        <v>1.294710004003718E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.203859999077395E-2</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12">
+        <v>2.3556000087410212E-3</v>
+      </c>
+      <c r="J12">
+        <v>7.7905000071041286E-3</v>
+      </c>
+      <c r="K12">
+        <v>8.0561000504530966E-3</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12">
+        <v>3.3039000118151311E-3</v>
+      </c>
+      <c r="N12">
+        <v>2.8037699987180531E-2</v>
+      </c>
+      <c r="O12">
+        <v>2.4153799982741479E-2</v>
+      </c>
+      <c r="P12"/>
+      <c r="Q12">
+        <v>1.9466000376269219E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.1104600038379431E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.0167200001887981E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="B14">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="C14">
+        <v>0.96551724137931039</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14">
+        <v>0.9375</v>
+      </c>
+      <c r="F14">
+        <v>0.9375</v>
+      </c>
+      <c r="G14">
+        <v>0.9375</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14">
+        <v>0.8125</v>
+      </c>
+      <c r="J14">
+        <v>0.8125</v>
+      </c>
+      <c r="K14">
+        <v>0.8125</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="N14">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="O14">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="P14"/>
+      <c r="Q14">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R14">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S14">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5.8890000218525529E-4</v>
+      </c>
+      <c r="B15">
+        <v>4.5496000093407929E-3</v>
+      </c>
+      <c r="C15">
+        <v>5.2354999934323132E-3</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15">
+        <v>2.410699962638319E-3</v>
+      </c>
+      <c r="F15">
+        <v>1.869340002303943E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.234650000697002E-2</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15">
+        <v>5.7208999642170966E-3</v>
+      </c>
+      <c r="J15">
+        <v>2.294270001584664E-2</v>
+      </c>
+      <c r="K15">
+        <v>2.7011100028175861E-2</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15">
+        <v>3.5222000442445278E-3</v>
+      </c>
+      <c r="N15">
+        <v>3.1156399985775352E-2</v>
+      </c>
+      <c r="O15">
+        <v>3.012310003396124E-2</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15">
+        <v>3.21659998735413E-3</v>
+      </c>
+      <c r="R15">
+        <v>1.7013599979691211E-2</v>
+      </c>
+      <c r="S15">
+        <v>1.4948800031561399E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.92289420767242103</v>
+      </c>
+      <c r="B17">
+        <v>0.92289420767242103</v>
+      </c>
+      <c r="C17">
+        <v>0.92289420767242103</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17">
+        <v>0.9375</v>
+      </c>
+      <c r="F17">
+        <v>0.9375</v>
+      </c>
+      <c r="G17">
+        <v>0.9375</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17">
+        <v>0.74230589839889616</v>
+      </c>
+      <c r="J17">
+        <v>0.74230589839889616</v>
+      </c>
+      <c r="K17">
+        <v>0.74230589839889616</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N17">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="O17">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R17">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S17">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.8170000556856394E-4</v>
+      </c>
+      <c r="B18">
+        <v>6.4032000373117626E-3</v>
+      </c>
+      <c r="C18">
+        <v>4.7610999899916351E-3</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18">
+        <v>2.4613999994471669E-3</v>
+      </c>
+      <c r="F18">
+        <v>1.8202400009613481E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.768739998806268E-2</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18">
+        <v>5.4495999938808382E-3</v>
+      </c>
+      <c r="J18">
+        <v>1.9394900009501729E-2</v>
+      </c>
+      <c r="K18">
+        <v>2.065789996413514E-2</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18">
+        <v>4.3817000114358962E-3</v>
+      </c>
+      <c r="N18">
+        <v>3.1434000004082918E-2</v>
+      </c>
+      <c r="O18">
+        <v>3.183230001013726E-2</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18">
+        <v>3.2642000005580481E-3</v>
+      </c>
+      <c r="R18">
+        <v>1.973110000835732E-2</v>
+      </c>
+      <c r="S18">
+        <v>1.9107700034510341E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.95123401509058292</v>
+      </c>
+      <c r="B20">
+        <v>0.95123401509058292</v>
+      </c>
+      <c r="C20">
+        <v>0.95123401509058292</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20">
+        <v>0.82322330470336313</v>
+      </c>
+      <c r="F20">
+        <v>0.91161165235168151</v>
+      </c>
+      <c r="G20">
+        <v>0.91161165235168151</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20">
+        <v>0.80235764623947625</v>
+      </c>
+      <c r="J20">
+        <v>0.80235764623947625</v>
+      </c>
+      <c r="K20">
+        <v>0.80235764623947625</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="N20">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="O20">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="R20">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S20">
+        <v>0.88231221171053742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5.9880001936107874E-4</v>
+      </c>
+      <c r="B21">
+        <v>4.8862000112421811E-3</v>
+      </c>
+      <c r="C21">
+        <v>8.8753000018186867E-3</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21">
+        <v>6.1304999981075534E-3</v>
+      </c>
+      <c r="F21">
+        <v>2.6562999992165711E-2</v>
+      </c>
+      <c r="G21">
+        <v>2.1914400043897331E-2</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21">
+        <v>8.7870000279508531E-3</v>
+      </c>
+      <c r="J21">
+        <v>3.4934299997985363E-2</v>
+      </c>
+      <c r="K21">
+        <v>3.361909999512136E-2</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21">
+        <v>5.6852000416256487E-3</v>
+      </c>
+      <c r="N21">
+        <v>2.8534899989608679E-2</v>
+      </c>
+      <c r="O21">
+        <v>2.9242400021757931E-2</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21">
+        <v>6.210200022906065E-3</v>
+      </c>
+      <c r="R21">
+        <v>2.490419999230653E-2</v>
+      </c>
+      <c r="S21">
+        <v>2.560900000389665E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23">
+        <v>0.9375</v>
+      </c>
+      <c r="F23">
+        <v>0.9375</v>
+      </c>
+      <c r="G23">
+        <v>0.9375</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23">
+        <v>0.8125</v>
+      </c>
+      <c r="J23">
+        <v>0.8125</v>
+      </c>
+      <c r="K23">
+        <v>0.8125</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="N23">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="O23">
+        <v>0.15035684483174919</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1.204999978654087E-3</v>
+      </c>
+      <c r="B24">
+        <v>4.5399999944493166E-3</v>
+      </c>
+      <c r="C24">
+        <v>3.7256000214256351E-3</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24">
+        <v>8.8090001372620463E-4</v>
+      </c>
+      <c r="F24">
+        <v>1.011239999206737E-2</v>
+      </c>
+      <c r="G24">
+        <v>1.018079998902977E-2</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24">
+        <v>1.4468000154010949E-3</v>
+      </c>
+      <c r="J24">
+        <v>7.9663999495096505E-3</v>
+      </c>
+      <c r="K24">
+        <v>8.1759000313468277E-3</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24">
+        <v>3.5606999881565571E-3</v>
+      </c>
+      <c r="N24">
+        <v>2.2245000000111759E-2</v>
+      </c>
+      <c r="O24">
+        <v>2.0802600018214431E-2</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24">
+        <v>1.872299995739013E-3</v>
+      </c>
+      <c r="R24">
+        <v>7.695100037381053E-3</v>
+      </c>
+      <c r="S24">
+        <v>5.6150999735109508E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="B26">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="C26">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F26">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G26">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="J26">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="K26">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26">
+        <v>0.68283802879864153</v>
+      </c>
+      <c r="N26">
+        <v>0.68283802879864153</v>
+      </c>
+      <c r="O26">
+        <v>0.68283802879864153</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R26">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S26">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9.4319996424019337E-4</v>
+      </c>
+      <c r="B27">
+        <v>7.0374999777413896E-3</v>
+      </c>
+      <c r="C27">
+        <v>3.7295999936759472E-3</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27">
+        <v>3.544999985024333E-3</v>
+      </c>
+      <c r="F27">
+        <v>1.467540004523471E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.3535999984014779E-2</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27">
+        <v>5.4140000138431787E-3</v>
+      </c>
+      <c r="J27">
+        <v>2.9484200000297282E-2</v>
+      </c>
+      <c r="K27">
+        <v>2.444850001484156E-2</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27">
+        <v>3.655500011518598E-3</v>
+      </c>
+      <c r="N27">
+        <v>3.112170001259074E-2</v>
+      </c>
+      <c r="O27">
+        <v>2.7435199997853491E-2</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27">
+        <v>3.4096000017598271E-3</v>
+      </c>
+      <c r="R27">
+        <v>1.3748099969234319E-2</v>
+      </c>
+      <c r="S27">
+        <v>1.7285500012803819E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="B29">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="C29">
+        <v>0.88706151213684359</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F29">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G29">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.70005767567101262</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29">
+        <v>0.45607170677957881</v>
+      </c>
+      <c r="N29">
+        <v>0.45607170677957881</v>
+      </c>
+      <c r="O29">
+        <v>0.45607170677957881</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="R29">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="S29">
+        <v>0.89473684210526316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7.4030004907399416E-4</v>
+      </c>
+      <c r="B30">
+        <v>4.5917999814264476E-3</v>
+      </c>
+      <c r="C30">
+        <v>2.4863000144250691E-3</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30">
+        <v>2.653200004715472E-3</v>
+      </c>
+      <c r="F30">
+        <v>1.554940000642091E-2</v>
+      </c>
+      <c r="G30">
+        <v>1.001750002615154E-2</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30">
+        <v>3.600900003220886E-3</v>
+      </c>
+      <c r="J30">
+        <v>1.945850002812222E-2</v>
+      </c>
+      <c r="K30">
+        <v>1.840400003129616E-2</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30">
+        <v>6.0357000329531729E-3</v>
+      </c>
+      <c r="N30">
+        <v>2.8814599965699021E-2</v>
+      </c>
+      <c r="O30">
+        <v>2.7740499994251881E-2</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30">
+        <v>3.1539999763481319E-3</v>
+      </c>
+      <c r="R30">
+        <v>1.8574099987745289E-2</v>
+      </c>
+      <c r="S30">
+        <v>1.889300002949312E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="B32">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="C32">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32">
+        <v>0.90571909584179366</v>
+      </c>
+      <c r="F32">
+        <v>0.90571909584179366</v>
+      </c>
+      <c r="G32">
+        <v>0.90571909584179366</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J32">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="K32">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N32">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="O32">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="R32">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S32">
+        <v>0.88231221171053742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.840299984905869E-3</v>
+      </c>
+      <c r="B33">
+        <v>5.2059000008739531E-3</v>
+      </c>
+      <c r="C33">
+        <v>4.940000013448298E-3</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33">
+        <v>3.6659000325016682E-3</v>
+      </c>
+      <c r="F33">
+        <v>1.9850699987728149E-2</v>
+      </c>
+      <c r="G33">
+        <v>2.0131000026594851E-2</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33">
+        <v>7.7664999989792696E-3</v>
+      </c>
+      <c r="J33">
+        <v>3.9260899997316301E-2</v>
+      </c>
+      <c r="K33">
+        <v>3.3638500026427209E-2</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33">
+        <v>4.8919999971985817E-3</v>
+      </c>
+      <c r="N33">
+        <v>3.0473000020720061E-2</v>
+      </c>
+      <c r="O33">
+        <v>3.2399399962741882E-2</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33">
+        <v>5.0261999713256964E-3</v>
+      </c>
+      <c r="R33">
+        <v>2.111390000209212E-2</v>
+      </c>
+      <c r="S33">
+        <v>2.548499999102205E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="B35">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="C35">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F35">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="G35">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="J35">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="K35">
+        <v>0.75746437496366703</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="N35">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="O35">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0.88231221171053742</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5.1749998237937689E-4</v>
+      </c>
+      <c r="B36">
+        <v>6.876500032376498E-3</v>
+      </c>
+      <c r="C36">
+        <v>4.1041999938897789E-3</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36">
+        <v>1.741200045216829E-3</v>
+      </c>
+      <c r="F36">
+        <v>9.4600999727845192E-3</v>
+      </c>
+      <c r="G36">
+        <v>7.4071999988518664E-3</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36">
+        <v>1.00020004902035E-3</v>
+      </c>
+      <c r="J36">
+        <v>8.0794999958015978E-3</v>
+      </c>
+      <c r="K36">
+        <v>7.299999997485429E-3</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36">
+        <v>3.0270999995991592E-3</v>
+      </c>
+      <c r="N36">
+        <v>2.6133699982892718E-2</v>
+      </c>
+      <c r="O36">
+        <v>2.5991700007580221E-2</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36">
+        <v>1.820700010284781E-3</v>
+      </c>
+      <c r="R36">
+        <v>8.3207999705336988E-3</v>
+      </c>
+      <c r="S36">
+        <v>7.9397000372409821E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <f>AVERAGE(A2,A5,A8,A11,A14,A17,A20,A23,A26,A29,A32,A35)</f>
+        <v>0.93069458845431086</v>
+      </c>
+      <c r="B38" s="6">
+        <f t="shared" ref="B38:C39" si="0">AVERAGE(B2,B5,B8,B11,B14,B17,B20,B23,B26,B29,B32,B35)</f>
+        <v>0.93069458845431086</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.93069458845431086</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" ref="E38:S39" si="1">AVERAGE(E2,E5,E8,E11,E14,E17,E20,E23,E26,E29,E32,E35)</f>
+        <v>0.92348189826909122</v>
+      </c>
+      <c r="F38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.930847593906451</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.930847593906451</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.70301933268826744</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7613574723275186</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.70301933268826744</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35392884331135493</v>
+      </c>
+      <c r="N38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35392884331135493</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.35392884331135493</v>
+      </c>
+      <c r="Q38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.66794647398026585</v>
+      </c>
+      <c r="R38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.8885245269079004</v>
+      </c>
+      <c r="S38" s="6">
+        <f t="shared" si="1"/>
+        <v>0.66794647398026585</v>
+      </c>
+      <c r="U38" s="8">
+        <f>AVERAGE(A38,E38,I38,M38,Q38)</f>
+        <v>0.71581422734065803</v>
+      </c>
+      <c r="V38" s="8">
+        <f t="shared" ref="V38:W39" si="2">AVERAGE(B38,F38,J38,N38,R38)</f>
+        <v>0.77307060498150704</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="2"/>
+        <v>0.71728736646813007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <f>AVERAGE(A3,A6,A9,A12,A15,A18,A21,A24,A27,A30,A33,A36)</f>
+        <v>8.795916655799374E-4</v>
+      </c>
+      <c r="B39" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4069250036263838E-3</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4615500072638197E-3</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4667916625039652E-3</v>
+      </c>
+      <c r="F39" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9182441673668411E-2</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6242508339928463E-2</v>
+      </c>
+      <c r="I39" s="6">
+        <f t="shared" si="1"/>
+        <v>5.2141250101461383E-3</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" si="1"/>
+        <v>2.2408374997515541E-2</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0924275008534703E-2</v>
+      </c>
+      <c r="M39" s="6">
+        <f t="shared" si="1"/>
+        <v>4.6623083471786231E-3</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9911916664180655E-2</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8285458334721625E-2</v>
+      </c>
+      <c r="Q39" s="6">
+        <f t="shared" si="1"/>
+        <v>3.293658335072299E-3</v>
+      </c>
+      <c r="R39" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7064841672739323E-2</v>
+      </c>
+      <c r="S39" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7203608343455318E-2</v>
+      </c>
+      <c r="U39" s="8">
+        <f>AVERAGE(A39,E39,I39,M39,Q39)</f>
+        <v>3.5032950040961922E-3</v>
+      </c>
+      <c r="V39" s="8">
+        <f t="shared" si="2"/>
+        <v>1.8794900002346064E-2</v>
+      </c>
+      <c r="W39" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7623480006780788E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050" tabRatio="598"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -869,7 +869,7 @@
       </c>
       <c r="C12" s="2">
         <f>test4!V38</f>
-        <v>0.77307060498150704</v>
+        <v>0.76140297705365689</v>
       </c>
       <c r="D12" s="4">
         <f>test4!W38</f>
@@ -886,15 +886,15 @@
       </c>
       <c r="B13" s="2">
         <f>test4!U39</f>
-        <v>2.4435216648271306E-3</v>
+        <v>2.5902949991480758E-3</v>
       </c>
       <c r="C13" s="10">
         <f>test4!V39</f>
-        <v>1.2900453333956344E-2</v>
+        <v>8.1207149933713186E-3</v>
       </c>
       <c r="D13" s="4">
         <f>test4!W39</f>
-        <v>4.2303626664215707E-2</v>
+        <v>3.685210166731849E-2</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -938,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="11" t="s">
@@ -951,7 +951,7 @@
         <v>8</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="C28" s="2">
         <f>test5!V38</f>
-        <v>0.77307060498150704</v>
+        <v>0.76140297705365689</v>
       </c>
       <c r="D28" s="10">
         <f>test5!W38</f>
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B29" s="2">
         <f>test5!U39</f>
-        <v>3.5032950040961922E-3</v>
+        <v>1.8224850005935877E-3</v>
       </c>
       <c r="C29" s="4">
         <f>test5!V39</f>
-        <v>1.8794900002346064E-2</v>
+        <v>8.4918083390221003E-3</v>
       </c>
       <c r="D29" s="10">
         <f>test5!W39</f>
-        <v>1.7623480006780788E-2</v>
+        <v>8.4660833468660716E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7969,8 +7969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T32" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8048,53 +8048,53 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.47119999746792E-3</v>
+        <v>1.26669998280704E-3</v>
       </c>
       <c r="B3">
-        <v>3.8492000021506101E-3</v>
+        <v>2.535799983888865E-3</v>
       </c>
       <c r="C3">
-        <v>9.9776999850291759E-3</v>
+        <v>0.83490979997441173</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>1.7562999855726959E-3</v>
+        <v>1.777999917976558E-3</v>
       </c>
       <c r="F3">
-        <v>1.62152000120841E-2</v>
+        <v>6.7073999671265483E-3</v>
       </c>
       <c r="G3">
-        <v>2.906760000041686E-2</v>
+        <v>2.2525700042024251E-2</v>
       </c>
       <c r="H3"/>
       <c r="I3">
-        <v>5.19299998995848E-3</v>
+        <v>2.880299929529428E-3</v>
       </c>
       <c r="J3">
-        <v>1.953789999242872E-2</v>
+        <v>1.3657600036822259E-2</v>
       </c>
       <c r="K3">
-        <v>3.7313199980417273E-2</v>
+        <v>1.8092300044372681E-2</v>
       </c>
       <c r="L3"/>
       <c r="M3">
-        <v>2.5385000044479971E-3</v>
+        <v>4.9117999151349068E-3</v>
       </c>
       <c r="N3">
-        <v>2.0445900008780878E-2</v>
+        <v>1.214699994307011E-2</v>
       </c>
       <c r="O3">
-        <v>8.8875299989013001E-2</v>
+        <v>5.3951699985191233E-2</v>
       </c>
       <c r="P3"/>
       <c r="Q3">
-        <v>2.2020000033080578E-3</v>
+        <v>1.3118999777361751E-3</v>
       </c>
       <c r="R3">
-        <v>6.920399988302961E-3</v>
+        <v>5.986599950119853E-3</v>
       </c>
       <c r="S3">
-        <v>4.2208899976685643E-2</v>
+        <v>2.2736100014299151E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -8171,53 +8171,53 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4.7480000648647552E-4</v>
+        <v>4.0479993913322693E-4</v>
       </c>
       <c r="B6">
-        <v>4.1353999986313283E-3</v>
+        <v>2.463200013153255E-3</v>
       </c>
       <c r="C6">
-        <v>9.8068999941460788E-3</v>
+        <v>9.310099994763732E-3</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>1.524299994343892E-3</v>
+        <v>1.5274999896064401E-3</v>
       </c>
       <c r="F6">
-        <v>1.754460000665858E-2</v>
+        <v>1.2087699957191941E-2</v>
       </c>
       <c r="G6">
-        <v>2.8265299974009391E-2</v>
+        <v>2.1950500085949901E-2</v>
       </c>
       <c r="H6"/>
       <c r="I6">
-        <v>5.258799996227026E-3</v>
+        <v>2.7514999965205789E-3</v>
       </c>
       <c r="J6">
-        <v>1.6607400000793859E-2</v>
+        <v>8.9091999689117074E-3</v>
       </c>
       <c r="K6">
-        <v>3.2369799999287352E-2</v>
+        <v>1.7318500089459121E-2</v>
       </c>
       <c r="L6"/>
       <c r="M6">
-        <v>3.2913000031840061E-3</v>
+        <v>2.4949000217020512E-3</v>
       </c>
       <c r="N6">
-        <v>2.440550000756048E-2</v>
+        <v>1.0364399990066889E-2</v>
       </c>
       <c r="O6">
-        <v>0.12479440000606699</v>
+        <v>3.7233699928037822E-2</v>
       </c>
       <c r="P6"/>
       <c r="Q6">
-        <v>2.2041999909561132E-3</v>
+        <v>1.3007000088691709E-3</v>
       </c>
       <c r="R6">
-        <v>1.074259998858906E-2</v>
+        <v>6.3655000412836671E-3</v>
       </c>
       <c r="S6">
-        <v>4.1056799993384629E-2</v>
+        <v>2.298970008268952E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -8294,53 +8294,53 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.7250000857748091E-4</v>
+        <v>2.6530004106462002E-4</v>
       </c>
       <c r="B9">
-        <v>5.0139999948441982E-3</v>
+        <v>5.6203999556601048E-3</v>
       </c>
       <c r="C9">
-        <v>1.669570000376552E-2</v>
+        <v>1.034589996561408E-2</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>5.1958999829366803E-3</v>
+        <v>2.9918999643996358E-3</v>
       </c>
       <c r="F9">
-        <v>4.4981099985307083E-2</v>
+        <v>5.213019996881485E-2</v>
       </c>
       <c r="G9">
-        <v>3.4287899994524203E-2</v>
+        <v>2.924079995136708E-2</v>
       </c>
       <c r="H9"/>
       <c r="I9">
-        <v>4.9033999966923147E-3</v>
+        <v>6.6118000540882349E-3</v>
       </c>
       <c r="J9">
-        <v>3.0680900003062561E-2</v>
+        <v>1.6209200024604801E-2</v>
       </c>
       <c r="K9">
-        <v>5.500310001662001E-2</v>
+        <v>2.342589991167188E-2</v>
       </c>
       <c r="L9"/>
       <c r="M9">
-        <v>3.200800012564287E-3</v>
+        <v>2.2896999726071949E-3</v>
       </c>
       <c r="N9">
-        <v>1.9908899994334209E-2</v>
+        <v>1.300169993191957E-2</v>
       </c>
       <c r="O9">
-        <v>6.1330800002906471E-2</v>
+        <v>3.6868599941954017E-2</v>
       </c>
       <c r="P9"/>
       <c r="Q9">
-        <v>3.002199984621257E-3</v>
+        <v>1.755700097419322E-3</v>
       </c>
       <c r="R9">
-        <v>1.13032000081148E-2</v>
+        <v>8.2632999401539564E-3</v>
       </c>
       <c r="S9">
-        <v>4.3950899998890243E-2</v>
+        <v>2.7069399948231879E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -8417,53 +8417,53 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.5390000771731141E-4</v>
+        <v>1.536000054329634E-4</v>
       </c>
       <c r="B12">
-        <v>2.0737999875564128E-3</v>
+        <v>1.1867999564856291E-3</v>
       </c>
       <c r="C12">
-        <v>1.4209300017682841E-2</v>
+        <v>5.8085999917238951E-3</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>2.5525999953970309E-3</v>
+        <v>9.6059998031705618E-4</v>
       </c>
       <c r="F12">
-        <v>5.7950000045821071E-3</v>
+        <v>9.9341999739408493E-3</v>
       </c>
       <c r="G12">
-        <v>2.6196399994660169E-2</v>
+        <v>1.336990005802363E-2</v>
       </c>
       <c r="H12"/>
       <c r="I12">
-        <v>4.5283999934326857E-3</v>
+        <v>6.7290000151842833E-4</v>
       </c>
       <c r="J12">
-        <v>3.7175000179558988E-3</v>
+        <v>3.7097999593242999E-3</v>
       </c>
       <c r="K12">
-        <v>2.9157199984183532E-2</v>
+        <v>1.271170005202293E-2</v>
       </c>
       <c r="L12"/>
       <c r="M12">
-        <v>3.4603999811224639E-3</v>
+        <v>2.4589999811723828E-3</v>
       </c>
       <c r="N12">
-        <v>2.2929099999601021E-2</v>
+        <v>9.217300103046E-3</v>
       </c>
       <c r="O12">
-        <v>4.5141399983549491E-2</v>
+        <v>5.4387900047004223E-2</v>
       </c>
       <c r="P12"/>
       <c r="Q12">
-        <v>1.196099998196587E-3</v>
+        <v>7.6999992597848177E-4</v>
       </c>
       <c r="R12">
-        <v>5.3735999972559512E-3</v>
+        <v>2.8352999361231919E-3</v>
       </c>
       <c r="S12">
-        <v>2.3412699985783551E-2</v>
+        <v>1.304330001585186E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -8540,53 +8540,53 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3.2269998337142169E-4</v>
+        <v>2.3200002033263439E-4</v>
       </c>
       <c r="B15">
-        <v>3.861699980916455E-3</v>
+        <v>1.693799975328147E-3</v>
       </c>
       <c r="C15">
-        <v>2.8163100010715428E-2</v>
+        <v>8.8679000036790967E-3</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>1.4520999975502491E-3</v>
+        <v>1.0421000188216569E-3</v>
       </c>
       <c r="F15">
-        <v>1.2859699985710901E-2</v>
+        <v>1.2770900037139651E-2</v>
       </c>
       <c r="G15">
-        <v>3.812169999582693E-2</v>
+        <v>2.0840000011958178E-2</v>
       </c>
       <c r="H15"/>
       <c r="I15">
-        <v>5.8384000149089843E-3</v>
+        <v>2.3044200032018129E-2</v>
       </c>
       <c r="J15">
-        <v>1.9172600004822019E-2</v>
+        <v>1.207470009103417E-2</v>
       </c>
       <c r="K15">
-        <v>4.3904799997108057E-2</v>
+        <v>1.9195899949409071E-2</v>
       </c>
       <c r="L15"/>
       <c r="M15">
-        <v>3.89810002525337E-3</v>
+        <v>3.9822000544518232E-3</v>
       </c>
       <c r="N15">
-        <v>2.174309999099933E-2</v>
+        <v>1.0478799929842349E-2</v>
       </c>
       <c r="O15">
-        <v>5.7854499988025047E-2</v>
+        <v>5.7559799985028803E-2</v>
       </c>
       <c r="P15"/>
       <c r="Q15">
-        <v>2.1231999853625889E-3</v>
+        <v>1.2907000491395591E-3</v>
       </c>
       <c r="R15">
-        <v>6.8636000214610249E-3</v>
+        <v>6.4813999924808741E-3</v>
       </c>
       <c r="S15">
-        <v>4.0804099990054972E-2</v>
+        <v>2.1593499928712841E-2</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -8663,53 +8663,53 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4.7349999658763409E-4</v>
+        <v>2.4109997320920229E-4</v>
       </c>
       <c r="B18">
-        <v>2.786299999570474E-3</v>
+        <v>2.4541999446228151E-3</v>
       </c>
       <c r="C18">
-        <v>3.013640001881868E-2</v>
+        <v>8.1826000241562724E-3</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>1.2388000031933191E-3</v>
+        <v>1.2186999665573239E-3</v>
       </c>
       <c r="F18">
-        <v>1.0169799992581829E-2</v>
+        <v>6.0251000104472041E-3</v>
       </c>
       <c r="G18">
-        <v>3.3177800010889769E-2</v>
+        <v>2.3651600000448521E-2</v>
       </c>
       <c r="H18"/>
       <c r="I18">
-        <v>2.676699979929253E-3</v>
+        <v>6.13540003541857E-3</v>
       </c>
       <c r="J18">
-        <v>1.562449999619275E-2</v>
+        <v>8.6180000798776746E-3</v>
       </c>
       <c r="K18">
-        <v>3.8179800001671538E-2</v>
+        <v>1.7787699936889109E-2</v>
       </c>
       <c r="L18"/>
       <c r="M18">
-        <v>2.727699989918619E-3</v>
+        <v>3.9182999171316624E-3</v>
       </c>
       <c r="N18">
-        <v>2.0677100023021922E-2</v>
+        <v>1.022749999538064E-2</v>
       </c>
       <c r="O18">
-        <v>6.9948699994711205E-2</v>
+        <v>3.8107299944385893E-2</v>
       </c>
       <c r="P18"/>
       <c r="Q18">
-        <v>2.1322999964468181E-3</v>
+        <v>1.4310999540612099E-3</v>
       </c>
       <c r="R18">
-        <v>1.025639998260885E-2</v>
+        <v>6.3206999329850078E-3</v>
       </c>
       <c r="S18">
-        <v>5.0529500003904097E-2</v>
+        <v>2.2135799983516339E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -8786,53 +8786,53 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4.7709999489597982E-4</v>
+        <v>2.377999480813742E-4</v>
       </c>
       <c r="B21">
-        <v>2.8004999912809581E-3</v>
+        <v>2.0797000033780928E-3</v>
       </c>
       <c r="C21">
-        <v>3.4002300002612167E-2</v>
+        <v>9.8316000076010823E-3</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>1.944199990248308E-3</v>
+        <v>2.7061000000685449E-3</v>
       </c>
       <c r="F21">
-        <v>1.4273000007960951E-2</v>
+        <v>1.0366400005295869E-2</v>
       </c>
       <c r="G21">
-        <v>3.8681500009261072E-2</v>
+        <v>2.4877599906176329E-2</v>
       </c>
       <c r="H21"/>
       <c r="I21">
-        <v>5.2712000033352524E-3</v>
+        <v>8.242800016887486E-3</v>
       </c>
       <c r="J21">
-        <v>3.3396600018022582E-2</v>
+        <v>1.527740003075451E-2</v>
       </c>
       <c r="K21">
-        <v>4.1764200024772442E-2</v>
+        <v>2.296440000645816E-2</v>
       </c>
       <c r="L21"/>
       <c r="M21">
-        <v>2.8124000236857678E-3</v>
+        <v>3.1368000200018291E-3</v>
       </c>
       <c r="N21">
-        <v>1.8387000018265098E-2</v>
+        <v>9.6886000828817487E-3</v>
       </c>
       <c r="O21">
-        <v>7.6597099978243932E-2</v>
+        <v>3.698079998139292E-2</v>
       </c>
       <c r="P21"/>
       <c r="Q21">
-        <v>2.6773000136017799E-3</v>
+        <v>1.8648999975994229E-3</v>
       </c>
       <c r="R21">
-        <v>1.2390199990477409E-2</v>
+        <v>1.0802399949170651E-2</v>
       </c>
       <c r="S21">
-        <v>4.6896599989850067E-2</v>
+        <v>3.4199299989268177E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -8909,53 +8909,53 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.880999770946801E-4</v>
+        <v>1.5259999781847E-4</v>
       </c>
       <c r="B24">
-        <v>1.2009000056423249E-3</v>
+        <v>9.7150006331503391E-4</v>
       </c>
       <c r="C24">
-        <v>1.1515099991811439E-2</v>
+        <v>6.3451000023633242E-3</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>6.105000211391598E-4</v>
+        <v>9.5459993463009596E-4</v>
       </c>
       <c r="F24">
-        <v>6.4028000051621348E-3</v>
+        <v>3.711799974553287E-3</v>
       </c>
       <c r="G24">
-        <v>2.385440000216477E-2</v>
+        <v>1.6787999891676009E-2</v>
       </c>
       <c r="H24"/>
       <c r="I24">
-        <v>1.7329000111203641E-3</v>
+        <v>1.6278000548481939E-3</v>
       </c>
       <c r="J24">
-        <v>8.1821999920066446E-3</v>
+        <v>3.173600067384541E-3</v>
       </c>
       <c r="K24">
-        <v>2.6962100004311651E-2</v>
+        <v>1.2250400031916801E-2</v>
       </c>
       <c r="L24"/>
       <c r="M24">
-        <v>2.1050999930594121E-3</v>
+        <v>2.3971999762579799E-3</v>
       </c>
       <c r="N24">
-        <v>1.7801300011342391E-2</v>
+        <v>8.0756000243127346E-3</v>
       </c>
       <c r="O24">
-        <v>6.226149998838082E-2</v>
+        <v>3.5249200067482889E-2</v>
       </c>
       <c r="P24"/>
       <c r="Q24">
-        <v>8.7600000551901758E-4</v>
+        <v>7.5930007733404636E-4</v>
       </c>
       <c r="R24">
-        <v>4.2336000187788159E-3</v>
+        <v>3.0425000004470348E-3</v>
       </c>
       <c r="S24">
-        <v>2.0694400009233501E-2</v>
+        <v>1.731920009478927E-2</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -9032,53 +9032,53 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.4759999359957868E-4</v>
+        <v>2.2729998454451561E-4</v>
       </c>
       <c r="B27">
-        <v>5.0211999914608896E-3</v>
+        <v>1.3592999894171951E-3</v>
       </c>
       <c r="C27">
-        <v>1.372690001153387E-2</v>
+        <v>8.2897000247612596E-3</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>9.5599997439421713E-4</v>
+        <v>2.3324999492615461E-3</v>
       </c>
       <c r="F27">
-        <v>7.140600006096065E-3</v>
+        <v>6.0541999991983184E-3</v>
       </c>
       <c r="G27">
-        <v>3.5550500004319467E-2</v>
+        <v>2.5143300066702071E-2</v>
       </c>
       <c r="H27"/>
       <c r="I27">
-        <v>1.0260399983963E-2</v>
+        <v>6.8099000491201878E-3</v>
       </c>
       <c r="J27">
-        <v>2.0844500017119572E-2</v>
+        <v>1.183790003415197E-2</v>
       </c>
       <c r="K27">
-        <v>3.5234999988460913E-2</v>
+        <v>2.1771400002762679E-2</v>
       </c>
       <c r="L27"/>
       <c r="M27">
-        <v>4.7274000244215131E-3</v>
+        <v>2.281500026583672E-3</v>
       </c>
       <c r="N27">
-        <v>1.8906999990576882E-2</v>
+        <v>9.9564000265672803E-3</v>
       </c>
       <c r="O27">
-        <v>7.1380000008502975E-2</v>
+        <v>4.436659999191761E-2</v>
       </c>
       <c r="P27"/>
       <c r="Q27">
-        <v>1.371699996525422E-3</v>
+        <v>1.293699955567718E-3</v>
       </c>
       <c r="R27">
-        <v>7.1652999904472381E-3</v>
+        <v>5.8920999290421614E-3</v>
       </c>
       <c r="S27">
-        <v>4.2761699995025992E-2</v>
+        <v>2.8300800011493269E-2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.70005767567101262</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -9155,53 +9155,53 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.7290001162327831E-4</v>
+        <v>2.226000651717186E-4</v>
       </c>
       <c r="B30">
-        <v>3.4283999993931502E-3</v>
+        <v>1.6495999880135059E-3</v>
       </c>
       <c r="C30">
-        <v>1.147160000982694E-2</v>
+        <v>8.1666000187397003E-3</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>1.045299984980375E-3</v>
+        <v>2.4002999998629089E-3</v>
       </c>
       <c r="F30">
-        <v>1.0383699991507459E-2</v>
+        <v>8.0564999952912331E-3</v>
       </c>
       <c r="G30">
-        <v>4.3326399987563491E-2</v>
+        <v>2.1722099976614121E-2</v>
       </c>
       <c r="H30"/>
       <c r="I30">
-        <v>3.9736999897286296E-3</v>
+        <v>1.167999999597669E-2</v>
       </c>
       <c r="J30">
-        <v>1.530299999285489E-2</v>
+        <v>1.046559994574636E-2</v>
       </c>
       <c r="K30">
-        <v>2.9285299999173731E-2</v>
+        <v>1.7588600050657991E-2</v>
       </c>
       <c r="L30"/>
       <c r="M30">
-        <v>4.5328999985940746E-3</v>
+        <v>2.9687000205740328E-3</v>
       </c>
       <c r="N30">
-        <v>1.8357900000410151E-2</v>
+        <v>9.9005000665783882E-3</v>
       </c>
       <c r="O30">
-        <v>0.10815990000264721</v>
+        <v>3.7050399929285049E-2</v>
       </c>
       <c r="P30"/>
       <c r="Q30">
-        <v>1.376000000163913E-3</v>
+        <v>1.314300112426281E-3</v>
       </c>
       <c r="R30">
-        <v>1.3556499994592739E-2</v>
+        <v>6.3423999818041921E-3</v>
       </c>
       <c r="S30">
-        <v>4.1737899999134243E-2</v>
+        <v>2.3079300066456199E-2</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -9278,53 +9278,53 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2.5839998852461582E-4</v>
+        <v>2.4690001737326378E-4</v>
       </c>
       <c r="B33">
-        <v>3.7919000023975968E-3</v>
+        <v>5.1363999955356121E-3</v>
       </c>
       <c r="C33">
-        <v>1.334410000708885E-2</v>
+        <v>8.7608000030741096E-3</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>2.492300001904368E-3</v>
+        <v>1.759000006131828E-3</v>
       </c>
       <c r="F33">
-        <v>1.334950001910329E-2</v>
+        <v>8.2288999110460281E-3</v>
       </c>
       <c r="G33">
-        <v>5.4387600015616037E-2</v>
+        <v>3.3261300064623363E-2</v>
       </c>
       <c r="H33"/>
       <c r="I33">
-        <v>5.501599982380867E-3</v>
+        <v>7.7100000344216824E-3</v>
       </c>
       <c r="J33">
-        <v>2.503859999706037E-2</v>
+        <v>1.7271199962124228E-2</v>
       </c>
       <c r="K33">
-        <v>3.8538199994945899E-2</v>
+        <v>3.4560299944132573E-2</v>
       </c>
       <c r="L33"/>
       <c r="M33">
-        <v>4.4772000110242516E-3</v>
+        <v>2.8578999917954211E-3</v>
       </c>
       <c r="N33">
-        <v>1.8904600001405921E-2</v>
+        <v>9.6971000311896205E-3</v>
       </c>
       <c r="O33">
-        <v>0.17259569998714139</v>
+        <v>4.2638199985958643E-2</v>
       </c>
       <c r="P33"/>
       <c r="Q33">
-        <v>1.8149999959859999E-3</v>
+        <v>1.7295000143349171E-3</v>
       </c>
       <c r="R33">
-        <v>1.6209800000069659E-2</v>
+        <v>8.2412000047042966E-3</v>
       </c>
       <c r="S33">
-        <v>5.3961699974024668E-2</v>
+        <v>2.8309800080023709E-2</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -9401,53 +9401,53 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1.5040001017041499E-4</v>
+        <v>1.4580006245523691E-4</v>
       </c>
       <c r="B36">
-        <v>1.3582000101450831E-3</v>
+        <v>1.005499972961843E-3</v>
       </c>
       <c r="C36">
-        <v>1.1491699988255281E-2</v>
+        <v>5.8847999898716807E-3</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>1.7089000029955059E-3</v>
+        <v>8.8279996998608112E-4</v>
       </c>
       <c r="F36">
-        <v>4.1028000123333186E-3</v>
+        <v>3.343299962580204E-3</v>
       </c>
       <c r="G36">
-        <v>2.8523499990114939E-2</v>
+        <v>1.1663599987514321E-2</v>
       </c>
       <c r="H36"/>
       <c r="I36">
-        <v>7.6830000034533441E-4</v>
+        <v>1.3147999998182061E-3</v>
       </c>
       <c r="J36">
-        <v>8.6448999936692417E-3</v>
+        <v>4.2208000086247921E-3</v>
       </c>
       <c r="K36">
-        <v>2.926270000170916E-2</v>
+        <v>2.0302699995227162E-2</v>
       </c>
       <c r="L36"/>
       <c r="M36">
-        <v>3.975300001911819E-3</v>
+        <v>2.3173999506980181E-3</v>
       </c>
       <c r="N36">
-        <v>2.220919998944737E-2</v>
+        <v>8.0291000194847584E-3</v>
       </c>
       <c r="O36">
-        <v>6.5680400002747774E-2</v>
+        <v>3.3553099958226078E-2</v>
       </c>
       <c r="P36"/>
       <c r="Q36">
-        <v>7.4109999695792794E-4</v>
+        <v>7.4849999509751797E-4</v>
       </c>
       <c r="R36">
-        <v>5.0455000018700957E-3</v>
+        <v>2.887699985876679E-3</v>
       </c>
       <c r="S36">
-        <v>3.0625899991719049E-2</v>
+        <v>1.469490001909435E-2</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="J38" s="6">
         <f t="shared" si="1"/>
-        <v>0.7613574723275186</v>
+        <v>0.70301933268826744</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="1"/>
@@ -9521,7 +9521,7 @@
       </c>
       <c r="V38" s="8">
         <f t="shared" ref="V38:W38" si="2">AVERAGE(B38,F38,J38,N38,R38)</f>
-        <v>0.77307060498150704</v>
+        <v>0.76140297705365689</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" si="2"/>
@@ -9531,79 +9531,79 @@
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f>AVERAGE(A3,A6,A9,A12,A15,A18,A21,A24,A27,A30,A33,A36)</f>
-        <v>3.9692499800973263E-4</v>
+        <v>3.1637500311868888E-4</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>3.2767916636657901E-3</v>
+        <v>2.3463499868133417E-3</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="0"/>
-        <v>1.704506667010719E-2</v>
+        <v>7.705862500006333E-2</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="6">
         <f t="shared" ref="E39:S39" si="3">AVERAGE(E3,E6,E9,E12,E15,E18,E21,E24,E27,E30,E33,E36)</f>
-        <v>1.87309999455465E-3</v>
+        <v>1.7128416414683063E-3</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="3"/>
-        <v>1.3601483335757317E-2</v>
+        <v>1.1618049980218833E-2</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="3"/>
-        <v>3.4453383331613928E-2</v>
+        <v>2.2086200003589813E-2</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="6">
         <f t="shared" si="3"/>
-        <v>4.6588999951685155E-3</v>
+        <v>6.6234500166804837E-3</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="3"/>
-        <v>1.8062550002165761E-2</v>
+        <v>1.0452083350780109E-2</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="3"/>
-        <v>3.6414616666055132E-2</v>
+        <v>1.9830816667915013E-2</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="6">
         <f t="shared" si="3"/>
-        <v>3.4789250057656318E-3</v>
+        <v>3.0012833206759146E-3</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="3"/>
-        <v>2.038971666964547E-2</v>
+        <v>1.0065333345361674E-2</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="3"/>
-        <v>8.3718308327661362E-2</v>
+        <v>4.2328941645488762E-2</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="6">
         <f t="shared" si="3"/>
-        <v>1.8097583306371234E-3</v>
+        <v>1.2975250137969851E-3</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" si="3"/>
-        <v>9.1717249985473846E-3</v>
+        <v>6.12175830368263E-3</v>
       </c>
       <c r="S39" s="6">
         <f t="shared" si="3"/>
-        <v>3.9886758325640891E-2</v>
+        <v>2.2955925019535545E-2</v>
       </c>
       <c r="U39" s="8">
         <f>AVERAGE(A39,E39,I39,M39,Q39)</f>
-        <v>2.4435216648271306E-3</v>
+        <v>2.5902949991480758E-3</v>
       </c>
       <c r="V39" s="8">
         <f t="shared" ref="V39" si="4">AVERAGE(B39,F39,J39,N39,R39)</f>
-        <v>1.2900453333956344E-2</v>
+        <v>8.1207149933713186E-3</v>
       </c>
       <c r="W39" s="8">
         <f t="shared" ref="W39" si="5">AVERAGE(C39,G39,K39,O39,S39)</f>
-        <v>4.2303626664215707E-2</v>
+        <v>3.685210166731849E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9615,8 +9615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView topLeftCell="L16" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9694,53 +9694,53 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.750600000377744E-3</v>
+        <v>1.110400073230267E-3</v>
       </c>
       <c r="B3">
-        <v>6.772099994122982E-3</v>
+        <v>2.478399896062911E-3</v>
       </c>
       <c r="C3">
-        <v>5.2465000189840794E-3</v>
+        <v>3.1189000001177192E-3</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>4.1006000246852636E-3</v>
+        <v>3.1757999677211051E-3</v>
       </c>
       <c r="F3">
-        <v>1.8729300005361441E-2</v>
+        <v>9.0042999945580959E-3</v>
       </c>
       <c r="G3">
-        <v>1.9788600038737059E-2</v>
+        <v>8.159099961631E-3</v>
       </c>
       <c r="H3"/>
       <c r="I3">
-        <v>1.0092300013639029E-2</v>
+        <v>2.6008000131696458E-3</v>
       </c>
       <c r="J3">
-        <v>2.6965499971993271E-2</v>
+        <v>1.9160600029863421E-2</v>
       </c>
       <c r="K3">
-        <v>2.240869996603578E-2</v>
+        <v>1.2218500021845101E-2</v>
       </c>
       <c r="L3"/>
       <c r="M3">
-        <v>5.6254999944940209E-3</v>
+        <v>2.2262000711634759E-3</v>
       </c>
       <c r="N3">
-        <v>3.0283300031442199E-2</v>
+        <v>1.020520005840808E-2</v>
       </c>
       <c r="O3">
-        <v>3.1321899965405457E-2</v>
+        <v>1.234820007812232E-2</v>
       </c>
       <c r="P3"/>
       <c r="Q3">
-        <v>2.321399981155992E-3</v>
+        <v>1.2685001129284501E-3</v>
       </c>
       <c r="R3">
-        <v>1.8039400049019601E-2</v>
+        <v>5.9073000447824597E-3</v>
       </c>
       <c r="S3">
-        <v>1.840840000659227E-2</v>
+        <v>6.8847000366076827E-3</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9817,53 +9817,53 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>7.0319999940693378E-4</v>
+        <v>2.5159993674606079E-4</v>
       </c>
       <c r="B6">
-        <v>5.6864999933168292E-3</v>
+        <v>1.378500019200146E-3</v>
       </c>
       <c r="C6">
-        <v>1.289280003402382E-2</v>
+        <v>1.8445999594405289E-3</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>4.0598999476060271E-3</v>
+        <v>2.2718000691384081E-3</v>
       </c>
       <c r="F6">
-        <v>2.2815399977844208E-2</v>
+        <v>2.0939400070346888E-2</v>
       </c>
       <c r="G6">
-        <v>2.175389998592436E-2</v>
+        <v>8.5446999873965979E-3</v>
       </c>
       <c r="H6"/>
       <c r="I6">
-        <v>5.0912000006064773E-3</v>
+        <v>2.3964999709278349E-3</v>
       </c>
       <c r="J6">
-        <v>1.9293699995614592E-2</v>
+        <v>1.66751000797376E-2</v>
       </c>
       <c r="K6">
-        <v>1.5471699996851379E-2</v>
+        <v>8.4971999749541283E-3</v>
       </c>
       <c r="L6"/>
       <c r="M6">
-        <v>6.293600017670542E-3</v>
+        <v>2.8881999896839261E-3</v>
       </c>
       <c r="N6">
-        <v>3.7513700022827827E-2</v>
+        <v>1.0275800013914701E-2</v>
       </c>
       <c r="O6">
-        <v>2.9515700007323179E-2</v>
+        <v>1.246050000190735E-2</v>
       </c>
       <c r="P6"/>
       <c r="Q6">
-        <v>3.2242000452242792E-3</v>
+        <v>1.2726000277325511E-3</v>
       </c>
       <c r="R6">
-        <v>1.963220001198351E-2</v>
+        <v>6.1046000337228179E-3</v>
       </c>
       <c r="S6">
-        <v>1.8767800007481131E-2</v>
+        <v>7.4938000179827213E-3</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -9940,53 +9940,53 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.0570001844316721E-4</v>
+        <v>2.5819998700171709E-4</v>
       </c>
       <c r="B9">
-        <v>5.2011000225320458E-3</v>
+        <v>1.653900020755827E-3</v>
       </c>
       <c r="C9">
-        <v>5.4754000157117844E-3</v>
+        <v>2.630900009535253E-3</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>5.3711999789811671E-3</v>
+        <v>2.603499917313457E-3</v>
       </c>
       <c r="F9">
-        <v>4.2590700031723827E-2</v>
+        <v>2.4226699955761429E-2</v>
       </c>
       <c r="G9">
-        <v>2.8108200000133369E-2</v>
+        <v>1.124319992959499E-2</v>
       </c>
       <c r="H9"/>
       <c r="I9">
-        <v>5.8445000322535634E-3</v>
+        <v>3.4543999936431651E-3</v>
       </c>
       <c r="J9">
-        <v>3.3329400001093752E-2</v>
+        <v>2.6243099942803379E-2</v>
       </c>
       <c r="K9">
-        <v>3.1899800000246607E-2</v>
+        <v>1.530379999894649E-2</v>
       </c>
       <c r="L9"/>
       <c r="M9">
-        <v>5.9646000154316434E-3</v>
+        <v>2.5742999278008938E-3</v>
       </c>
       <c r="N9">
-        <v>3.3194999967236072E-2</v>
+        <v>1.0870400001294909E-2</v>
       </c>
       <c r="O9">
-        <v>2.8866900014691051E-2</v>
+        <v>1.2458699988201261E-2</v>
       </c>
       <c r="P9"/>
       <c r="Q9">
-        <v>4.0578999905847013E-3</v>
+        <v>1.679000095464289E-3</v>
       </c>
       <c r="R9">
-        <v>2.4901000026147809E-2</v>
+        <v>8.1175999948754907E-3</v>
       </c>
       <c r="S9">
-        <v>2.4216099991463121E-2</v>
+        <v>1.140690001193434E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -10063,53 +10063,53 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3.7989998236298561E-4</v>
+        <v>1.5959993470460179E-4</v>
       </c>
       <c r="B12">
-        <v>3.1326999887824059E-3</v>
+        <v>1.7045499989762899E-2</v>
       </c>
       <c r="C12">
-        <v>4.0662999963387847E-3</v>
+        <v>2.8144500101916489E-2</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>4.5809999573975801E-3</v>
+        <v>9.4410008750855923E-4</v>
       </c>
       <c r="F12">
-        <v>1.294710004003718E-2</v>
+        <v>4.4323999900370836E-3</v>
       </c>
       <c r="G12">
-        <v>1.203859999077395E-2</v>
+        <v>4.6798000112175941E-3</v>
       </c>
       <c r="H12"/>
       <c r="I12">
-        <v>2.3556000087410212E-3</v>
+        <v>6.7159999161958694E-4</v>
       </c>
       <c r="J12">
-        <v>7.7905000071041286E-3</v>
+        <v>3.7406000774353738E-3</v>
       </c>
       <c r="K12">
-        <v>8.0561000504530966E-3</v>
+        <v>3.6967999767512079E-3</v>
       </c>
       <c r="L12"/>
       <c r="M12">
-        <v>3.3039000118151311E-3</v>
+        <v>4.0500999893993139E-3</v>
       </c>
       <c r="N12">
-        <v>2.8037699987180531E-2</v>
+        <v>7.7301000710576773E-3</v>
       </c>
       <c r="O12">
-        <v>2.4153799982741479E-2</v>
+        <v>1.049529993906617E-2</v>
       </c>
       <c r="P12"/>
       <c r="Q12">
-        <v>1.9466000376269219E-3</v>
+        <v>7.7060004696249962E-4</v>
       </c>
       <c r="R12">
-        <v>1.1104600038379431E-2</v>
+        <v>2.967900014482439E-3</v>
       </c>
       <c r="S12">
-        <v>1.0167200001887981E-2</v>
+        <v>3.3125000772997741E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -10186,53 +10186,53 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5.8890000218525529E-4</v>
+        <v>2.2980000358074901E-4</v>
       </c>
       <c r="B15">
-        <v>4.5496000093407929E-3</v>
+        <v>1.5223999507725241E-3</v>
       </c>
       <c r="C15">
-        <v>5.2354999934323132E-3</v>
+        <v>1.149649999570101E-2</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>2.410699962638319E-3</v>
+        <v>1.119099906645715E-3</v>
       </c>
       <c r="F15">
-        <v>1.869340002303943E-2</v>
+        <v>5.5794999934732914E-3</v>
       </c>
       <c r="G15">
-        <v>1.234650000697002E-2</v>
+        <v>6.4599000615999103E-3</v>
       </c>
       <c r="H15"/>
       <c r="I15">
-        <v>5.7208999642170966E-3</v>
+        <v>3.521899925544858E-3</v>
       </c>
       <c r="J15">
-        <v>2.294270001584664E-2</v>
+        <v>1.1881200014613571E-2</v>
       </c>
       <c r="K15">
-        <v>2.7011100028175861E-2</v>
+        <v>1.191030000336468E-2</v>
       </c>
       <c r="L15"/>
       <c r="M15">
-        <v>3.5222000442445278E-3</v>
+        <v>4.1935000335797668E-3</v>
       </c>
       <c r="N15">
-        <v>3.1156399985775352E-2</v>
+        <v>9.908100008033216E-3</v>
       </c>
       <c r="O15">
-        <v>3.012310003396124E-2</v>
+        <v>1.227380009368062E-2</v>
       </c>
       <c r="P15"/>
       <c r="Q15">
-        <v>3.21659998735413E-3</v>
+        <v>1.267699990421534E-3</v>
       </c>
       <c r="R15">
-        <v>1.7013599979691211E-2</v>
+        <v>5.8526999782770872E-3</v>
       </c>
       <c r="S15">
-        <v>1.4948800031561399E-2</v>
+        <v>6.677200086414814E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -10309,53 +10309,53 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5.8170000556856394E-4</v>
+        <v>2.244999632239342E-4</v>
       </c>
       <c r="B18">
-        <v>6.4032000373117626E-3</v>
+        <v>2.5260000256821509E-3</v>
       </c>
       <c r="C18">
-        <v>4.7610999899916351E-3</v>
+        <v>6.7940999288111934E-3</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>2.4613999994471669E-3</v>
+        <v>1.3328000204637651E-3</v>
       </c>
       <c r="F18">
-        <v>1.8202400009613481E-2</v>
+        <v>6.1103999614715576E-3</v>
       </c>
       <c r="G18">
-        <v>1.768739998806268E-2</v>
+        <v>9.1920000268146396E-3</v>
       </c>
       <c r="H18"/>
       <c r="I18">
-        <v>5.4495999938808382E-3</v>
+        <v>2.743999939411879E-3</v>
       </c>
       <c r="J18">
-        <v>1.9394900009501729E-2</v>
+        <v>8.2738000201061368E-3</v>
       </c>
       <c r="K18">
-        <v>2.065789996413514E-2</v>
+        <v>8.7594999931752682E-3</v>
       </c>
       <c r="L18"/>
       <c r="M18">
-        <v>4.3817000114358962E-3</v>
+        <v>2.682599937543273E-3</v>
       </c>
       <c r="N18">
-        <v>3.1434000004082918E-2</v>
+        <v>1.0100799961946899E-2</v>
       </c>
       <c r="O18">
-        <v>3.183230001013726E-2</v>
+        <v>1.232969993725419E-2</v>
       </c>
       <c r="P18"/>
       <c r="Q18">
-        <v>3.2642000005580481E-3</v>
+        <v>1.28149997908622E-3</v>
       </c>
       <c r="R18">
-        <v>1.973110000835732E-2</v>
+        <v>6.0583000304177403E-3</v>
       </c>
       <c r="S18">
-        <v>1.9107700034510341E-2</v>
+        <v>7.0319999940693378E-3</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -10432,53 +10432,53 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5.9880001936107874E-4</v>
+        <v>2.5459995958954101E-4</v>
       </c>
       <c r="B21">
-        <v>4.8862000112421811E-3</v>
+        <v>1.672899932600558E-3</v>
       </c>
       <c r="C21">
-        <v>8.8753000018186867E-3</v>
+        <v>5.4443000117316842E-3</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>6.1304999981075534E-3</v>
+        <v>1.630900078453124E-3</v>
       </c>
       <c r="F21">
-        <v>2.6562999992165711E-2</v>
+        <v>8.3466999931260943E-3</v>
       </c>
       <c r="G21">
-        <v>2.1914400043897331E-2</v>
+        <v>1.0339100030250851E-2</v>
       </c>
       <c r="H21"/>
       <c r="I21">
-        <v>8.7870000279508531E-3</v>
+        <v>5.2900000009685746E-3</v>
       </c>
       <c r="J21">
-        <v>3.4934299997985363E-2</v>
+        <v>1.4547899947501721E-2</v>
       </c>
       <c r="K21">
-        <v>3.361909999512136E-2</v>
+        <v>1.6956800012849271E-2</v>
       </c>
       <c r="L21"/>
       <c r="M21">
-        <v>5.6852000416256487E-3</v>
+        <v>2.5086000096052889E-3</v>
       </c>
       <c r="N21">
-        <v>2.8534899989608679E-2</v>
+        <v>3.5078999935649342E-2</v>
       </c>
       <c r="O21">
-        <v>2.9242400021757931E-2</v>
+        <v>1.241429999936372E-2</v>
       </c>
       <c r="P21"/>
       <c r="Q21">
-        <v>6.210200022906065E-3</v>
+        <v>2.1582000190392141E-3</v>
       </c>
       <c r="R21">
-        <v>2.490419999230653E-2</v>
+        <v>8.5056999232620001E-3</v>
       </c>
       <c r="S21">
-        <v>2.560900000389665E-2</v>
+        <v>1.1533300043083731E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -10555,53 +10555,53 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.204999978654087E-3</v>
+        <v>1.5039998106658459E-4</v>
       </c>
       <c r="B24">
-        <v>4.5399999944493166E-3</v>
+        <v>1.1628000065684321E-3</v>
       </c>
       <c r="C24">
-        <v>3.7256000214256351E-3</v>
+        <v>2.107299980707467E-3</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>8.8090001372620463E-4</v>
+        <v>5.9180008247494698E-4</v>
       </c>
       <c r="F24">
-        <v>1.011239999206737E-2</v>
+        <v>3.4869000082835559E-3</v>
       </c>
       <c r="G24">
-        <v>1.018079998902977E-2</v>
+        <v>4.2275000596418977E-3</v>
       </c>
       <c r="H24"/>
       <c r="I24">
-        <v>1.4468000154010949E-3</v>
+        <v>6.6929997410625219E-4</v>
       </c>
       <c r="J24">
-        <v>7.9663999495096505E-3</v>
+        <v>3.16930003464222E-3</v>
       </c>
       <c r="K24">
-        <v>8.1759000313468277E-3</v>
+        <v>3.40909999795258E-3</v>
       </c>
       <c r="L24"/>
       <c r="M24">
-        <v>3.5606999881565571E-3</v>
+        <v>2.406399929895997E-3</v>
       </c>
       <c r="N24">
-        <v>2.2245000000111759E-2</v>
+        <v>2.1054499899037179E-2</v>
       </c>
       <c r="O24">
-        <v>2.0802600018214431E-2</v>
+        <v>1.055200002156198E-2</v>
       </c>
       <c r="P24"/>
       <c r="Q24">
-        <v>1.872299995739013E-3</v>
+        <v>7.4450008105486631E-4</v>
       </c>
       <c r="R24">
-        <v>7.695100037381053E-3</v>
+        <v>2.9471000889316201E-3</v>
       </c>
       <c r="S24">
-        <v>5.6150999735109508E-3</v>
+        <v>3.3270000712946062E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -10678,53 +10678,53 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9.4319996424019337E-4</v>
+        <v>2.2819999139755959E-4</v>
       </c>
       <c r="B27">
-        <v>7.0374999777413896E-3</v>
+        <v>2.5829999940469861E-3</v>
       </c>
       <c r="C27">
-        <v>3.7295999936759472E-3</v>
+        <v>2.8176000341773029E-3</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>3.544999985024333E-3</v>
+        <v>1.3154000043869021E-3</v>
       </c>
       <c r="F27">
-        <v>1.467540004523471E-2</v>
+        <v>4.8398000653833151E-3</v>
       </c>
       <c r="G27">
-        <v>1.3535999984014779E-2</v>
+        <v>5.3120000520721078E-3</v>
       </c>
       <c r="H27"/>
       <c r="I27">
-        <v>5.4140000138431787E-3</v>
+        <v>2.5693000061437492E-3</v>
       </c>
       <c r="J27">
-        <v>2.9484200000297282E-2</v>
+        <v>1.218750001862645E-2</v>
       </c>
       <c r="K27">
-        <v>2.444850001484156E-2</v>
+        <v>1.240760006476194E-2</v>
       </c>
       <c r="L27"/>
       <c r="M27">
-        <v>3.655500011518598E-3</v>
+        <v>2.4120999732986088E-3</v>
       </c>
       <c r="N27">
-        <v>3.112170001259074E-2</v>
+        <v>9.1542999725788832E-3</v>
       </c>
       <c r="O27">
-        <v>2.7435199997853491E-2</v>
+        <v>1.258430001325905E-2</v>
       </c>
       <c r="P27"/>
       <c r="Q27">
-        <v>3.4096000017598271E-3</v>
+        <v>1.385700074024498E-3</v>
       </c>
       <c r="R27">
-        <v>1.3748099969234319E-2</v>
+        <v>7.1006000507622957E-3</v>
       </c>
       <c r="S27">
-        <v>1.7285500012803819E-2</v>
+        <v>6.7199000623077154E-3</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.70005767567101262</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -10801,53 +10801,53 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>7.4030004907399416E-4</v>
+        <v>2.3020000662654641E-4</v>
       </c>
       <c r="B30">
-        <v>4.5917999814264476E-3</v>
+        <v>1.873299945145845E-3</v>
       </c>
       <c r="C30">
-        <v>2.4863000144250691E-3</v>
+        <v>1.5758000081405039E-3</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>2.653200004715472E-3</v>
+        <v>1.869000028818846E-3</v>
       </c>
       <c r="F30">
-        <v>1.554940000642091E-2</v>
+        <v>8.1925999838858843E-3</v>
       </c>
       <c r="G30">
-        <v>1.001750002615154E-2</v>
+        <v>5.6345000630244613E-3</v>
       </c>
       <c r="H30"/>
       <c r="I30">
-        <v>3.600900003220886E-3</v>
+        <v>2.6206999318674211E-3</v>
       </c>
       <c r="J30">
-        <v>1.945850002812222E-2</v>
+        <v>8.1893999595195055E-3</v>
       </c>
       <c r="K30">
-        <v>1.840400003129616E-2</v>
+        <v>9.5923000480979681E-3</v>
       </c>
       <c r="L30"/>
       <c r="M30">
-        <v>6.0357000329531729E-3</v>
+        <v>3.1825000187382102E-3</v>
       </c>
       <c r="N30">
-        <v>2.8814599965699021E-2</v>
+        <v>9.9342000903561711E-3</v>
       </c>
       <c r="O30">
-        <v>2.7740499994251881E-2</v>
+        <v>1.2396699981763961E-2</v>
       </c>
       <c r="P30"/>
       <c r="Q30">
-        <v>3.1539999763481319E-3</v>
+        <v>1.3198000378906729E-3</v>
       </c>
       <c r="R30">
-        <v>1.8574099987745289E-2</v>
+        <v>7.9629999818280339E-3</v>
       </c>
       <c r="S30">
-        <v>1.889300002949312E-2</v>
+        <v>7.0018999977037311E-3</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -10924,53 +10924,53 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.840299984905869E-3</v>
+        <v>4.4430000707507128E-4</v>
       </c>
       <c r="B33">
-        <v>5.2059000008739531E-3</v>
+        <v>1.4565000310540199E-3</v>
       </c>
       <c r="C33">
-        <v>4.940000013448298E-3</v>
+        <v>1.614600070752203E-3</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>3.6659000325016682E-3</v>
+        <v>3.5362999187782411E-3</v>
       </c>
       <c r="F33">
-        <v>1.9850699987728149E-2</v>
+        <v>6.7972000688314438E-3</v>
       </c>
       <c r="G33">
-        <v>2.0131000026594851E-2</v>
+        <v>9.3820999609306455E-3</v>
       </c>
       <c r="H33"/>
       <c r="I33">
-        <v>7.7664999989792696E-3</v>
+        <v>7.5799000915139914E-3</v>
       </c>
       <c r="J33">
-        <v>3.9260899997316301E-2</v>
+        <v>1.443179999478161E-2</v>
       </c>
       <c r="K33">
-        <v>3.3638500026427209E-2</v>
+        <v>1.557879999745637E-2</v>
       </c>
       <c r="L33"/>
       <c r="M33">
-        <v>4.8919999971985817E-3</v>
+        <v>2.875000005587935E-3</v>
       </c>
       <c r="N33">
-        <v>3.0473000020720061E-2</v>
+        <v>1.030460000038147E-2</v>
       </c>
       <c r="O33">
-        <v>3.2399399962741882E-2</v>
+        <v>1.2702599982731041E-2</v>
       </c>
       <c r="P33"/>
       <c r="Q33">
-        <v>5.0261999713256964E-3</v>
+        <v>1.8408999312669041E-3</v>
       </c>
       <c r="R33">
-        <v>2.111390000209212E-2</v>
+        <v>8.6287000449374318E-3</v>
       </c>
       <c r="S33">
-        <v>2.548499999102205E-2</v>
+        <v>1.2655200087465349E-2</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -11047,53 +11047,53 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5.1749998237937689E-4</v>
+        <v>2.9689993243664498E-4</v>
       </c>
       <c r="B36">
-        <v>6.876500032376498E-3</v>
+        <v>1.137300045229495E-3</v>
       </c>
       <c r="C36">
-        <v>4.1041999938897789E-3</v>
+        <v>1.0581999085843561E-3</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>1.741200045216829E-3</v>
+        <v>6.0180004220455885E-4</v>
       </c>
       <c r="F36">
-        <v>9.4600999727845192E-3</v>
+        <v>3.6155000561848278E-3</v>
       </c>
       <c r="G36">
-        <v>7.4071999988518664E-3</v>
+        <v>3.4613000461831689E-3</v>
       </c>
       <c r="H36"/>
       <c r="I36">
-        <v>1.00020004902035E-3</v>
+        <v>6.7690003197640181E-4</v>
       </c>
       <c r="J36">
-        <v>8.0794999958015978E-3</v>
+        <v>3.1062000198289752E-3</v>
       </c>
       <c r="K36">
-        <v>7.299999997485429E-3</v>
+        <v>3.3576999558135871E-3</v>
       </c>
       <c r="L36"/>
       <c r="M36">
-        <v>3.0270999995991592E-3</v>
+        <v>1.924199983477592E-3</v>
       </c>
       <c r="N36">
-        <v>2.6133699982892718E-2</v>
+        <v>8.0375999677926302E-3</v>
       </c>
       <c r="O36">
-        <v>2.5991700007580221E-2</v>
+        <v>1.059750001877546E-2</v>
       </c>
       <c r="P36"/>
       <c r="Q36">
-        <v>1.820700010284781E-3</v>
+        <v>8.1009999848902225E-4</v>
       </c>
       <c r="R36">
-        <v>8.3207999705336988E-3</v>
+        <v>3.0320000369101758E-3</v>
       </c>
       <c r="S36">
-        <v>7.9397000372409821E-3</v>
+        <v>3.336100024171174E-3</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -11127,7 +11127,7 @@
       </c>
       <c r="J38" s="6">
         <f t="shared" si="1"/>
-        <v>0.7613574723275186</v>
+        <v>0.70301933268826744</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="1"/>
@@ -11163,7 +11163,7 @@
       </c>
       <c r="V38" s="8">
         <f t="shared" ref="V38:W39" si="2">AVERAGE(B38,F38,J38,N38,R38)</f>
-        <v>0.77307060498150704</v>
+        <v>0.76140297705365689</v>
       </c>
       <c r="W38" s="8">
         <f t="shared" si="2"/>
@@ -11173,75 +11173,75 @@
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f>AVERAGE(A3,A6,A9,A12,A15,A18,A21,A24,A27,A30,A33,A36)</f>
-        <v>8.795916655799374E-4</v>
+        <v>3.1989164805660647E-4</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>5.4069250036263838E-3</v>
+        <v>3.0408749880734831E-3</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="0"/>
-        <v>5.4615500072638197E-3</v>
+        <v>5.7206083341346421E-3</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
-        <v>3.4667916625039652E-3</v>
+        <v>1.749358343658969E-3</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="1"/>
-        <v>1.9182441673668411E-2</v>
+        <v>8.797616678445289E-3</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>1.6242508339928463E-2</v>
+        <v>7.219600015863155E-3</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="1"/>
-        <v>5.2141250101461383E-3</v>
+        <v>2.8996083225744465E-3</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="1"/>
-        <v>2.2408374997515541E-2</v>
+        <v>1.1800541678288331E-2</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="1"/>
-        <v>2.0924275008534703E-2</v>
+        <v>1.0140700003830716E-2</v>
       </c>
       <c r="M39" s="6">
         <f t="shared" si="1"/>
-        <v>4.6623083471786231E-3</v>
+        <v>2.8269749891478568E-3</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="1"/>
-        <v>2.9911916664180655E-2</v>
+        <v>1.2721216665037597E-2</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="1"/>
-        <v>2.8285458334721625E-2</v>
+        <v>1.1967800004640594E-2</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="1"/>
-        <v>3.293658335072299E-3</v>
+        <v>1.3165916995300602E-3</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" si="1"/>
-        <v>1.7064841672739323E-2</v>
+        <v>6.0987916852657991E-3</v>
       </c>
       <c r="S39" s="6">
         <f t="shared" si="1"/>
-        <v>1.7203608343455318E-2</v>
+        <v>7.2817083758612471E-3</v>
       </c>
       <c r="U39" s="8">
         <f>AVERAGE(A39,E39,I39,M39,Q39)</f>
-        <v>3.5032950040961922E-3</v>
+        <v>1.8224850005935877E-3</v>
       </c>
       <c r="V39" s="8">
         <f t="shared" si="2"/>
-        <v>1.8794900002346064E-2</v>
+        <v>8.4918083390221003E-3</v>
       </c>
       <c r="W39" s="8">
         <f t="shared" si="2"/>
-        <v>1.7623480006780788E-2</v>
+        <v>8.4660833468660716E-3</v>
       </c>
     </row>
   </sheetData>

--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="27">
-  <si>
-    <t>My Template Matching</t>
-  </si>
   <si>
     <t>Multi-scale Template Matching</t>
   </si>
@@ -87,9 +84,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Feature (keypoint) Matching</t>
-  </si>
-  <si>
     <t>Synthetic test data</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>Feature Matching replaced with Advanced Template Matching (My Template Matching + Multi-Scale Template Matching)</t>
+  </si>
+  <si>
+    <t>Modified Template Matching</t>
+  </si>
+  <si>
+    <t>Feature Matching</t>
   </si>
 </sst>
 </file>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +333,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -668,42 +674,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <f>test1!AO32</f>
@@ -717,25 +719,14 @@
         <f>test1!AQ32</f>
         <v>0.37320852615787631</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2">
-        <f>test1!AO33</f>
-        <v>2.7772300799842925E-3</v>
-      </c>
-      <c r="H3" s="4">
-        <f>test1!AP33</f>
-        <v>2.0727167440694756E-2</v>
-      </c>
-      <c r="I3" s="10">
-        <f>test1!AQ33</f>
-        <v>2.1148830000124873E-2</v>
-      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <f>test2!AO32</f>
@@ -749,25 +740,14 @@
         <f>test2!AQ32</f>
         <v>0.45380088552225156</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <f>test2!AO33</f>
-        <v>0.11087261437452982</v>
-      </c>
-      <c r="H4" s="4">
-        <f>test2!AP33</f>
-        <v>0.68088644112554886</v>
-      </c>
-      <c r="I4" s="10">
-        <f>test2!AQ33</f>
-        <v>0.14627217925073638</v>
-      </c>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
         <f>test3!AO32</f>
@@ -781,356 +761,460 @@
         <f>test3!AQ32</f>
         <v>0.67820000000000003</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <f>test3!AO33</f>
-        <v>2.6952761805267072E-3</v>
-      </c>
-      <c r="H5" s="10">
-        <f>test3!AP33</f>
-        <v>1.5875515519676264E-2</v>
-      </c>
-      <c r="I5" s="4">
-        <f>test3!AQ33</f>
-        <v>2.1888963999925185E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+    </row>
+    <row r="7" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <f>test1!AO33</f>
+        <v>2.7772300799842925E-3</v>
+      </c>
+      <c r="C8" s="10">
+        <f>test1!AP33</f>
+        <v>2.0727167440694756E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <f>test1!AQ33</f>
+        <v>2.1148830000124873E-2</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <f>test2!AO33</f>
+        <v>0.11087261437452982</v>
+      </c>
+      <c r="C9" s="4">
+        <f>test2!AP33</f>
+        <v>0.68088644112554886</v>
+      </c>
+      <c r="D9" s="10">
+        <f>test2!AQ33</f>
+        <v>0.14627217925073638</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+    <row r="10" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <f>test3!AO33</f>
+        <v>2.6952761805267072E-3</v>
+      </c>
+      <c r="C10" s="10">
+        <f>test3!AP33</f>
+        <v>1.5875515519676264E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <f>test3!AQ33</f>
+        <v>2.1888963999925185E-2</v>
+      </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="10">
-        <f>test4!U38</f>
-        <v>0.71581422734065803</v>
-      </c>
-      <c r="C12" s="2">
-        <f>test4!V38</f>
-        <v>0.76140297705365689</v>
-      </c>
-      <c r="D12" s="4">
-        <f>test4!W38</f>
-        <v>0.50518813571107957</v>
+    <row r="12" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2">
-        <f>test4!U39</f>
-        <v>2.5902949991480758E-3</v>
-      </c>
-      <c r="C13" s="10">
-        <f>test4!V39</f>
-        <v>8.1207149933713186E-3</v>
-      </c>
-      <c r="D13" s="4">
-        <f>test4!W39</f>
-        <v>3.685210166731849E-2</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
     </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
     <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10">
+        <f>test4!U38</f>
+        <v>0.71581422734065803</v>
+      </c>
+      <c r="C17" s="2">
+        <f>test4!V38</f>
+        <v>0.76140297705365689</v>
+      </c>
+      <c r="D17" s="4">
+        <f>test4!W38</f>
+        <v>0.50518813571107957</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <f>test4!U39</f>
+        <v>2.5902949991480758E-3</v>
+      </c>
+      <c r="C18" s="10">
+        <f>test4!V39</f>
+        <v>8.1207149933713186E-3</v>
+      </c>
+      <c r="D18" s="4">
+        <f>test4!W39</f>
+        <v>3.685210166731849E-2</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
         <f>test1!AO53</f>
         <v>0</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C24" s="10">
         <f>test1!AP53</f>
         <v>0</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D24" s="4">
         <f>test1!AQ53</f>
         <v>0</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2">
+        <f>test2!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <f>test2!AP53</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="4">
+        <f>test2!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <f>test3!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <f>test3!AP53</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <f>test3!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="28" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
         <f>test1!AO54</f>
         <v>0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="C29" s="4">
         <f>test1!AP54</f>
         <v>0</v>
       </c>
-      <c r="I19" s="10">
+      <c r="D29" s="10">
         <f>test1!AQ54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <f>test2!AO53</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="10">
-        <f>test2!AP53</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
-        <f>test2!AQ53</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="2">
+    <row r="30" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
         <f>test2!AO54</f>
         <v>0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="C30" s="4">
         <f>test2!AP54</f>
         <v>0</v>
       </c>
-      <c r="I20" s="10">
+      <c r="D30" s="10">
         <f>test2!AQ54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2">
-        <f>test3!AO53</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <f>test3!AP53</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="10">
-        <f>test3!AQ53</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="2">
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
         <f>test3!AO54</f>
         <v>0</v>
       </c>
-      <c r="H21" s="10">
+      <c r="C31" s="10">
         <f>test3!AP54</f>
         <v>0</v>
       </c>
-      <c r="I21" s="4">
+      <c r="D31" s="4">
         <f>test3!AQ54</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="3" t="s">
+    <row r="32" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+    </row>
+    <row r="37" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="4">
+      <c r="B38" s="4">
         <f>test5!U38</f>
         <v>0.71581422734065803</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C38" s="2">
         <f>test5!V38</f>
         <v>0.76140297705365689</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D38" s="10">
         <f>test5!W38</f>
         <v>0.71728736646813007</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="39" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="2">
         <f>test5!U39</f>
         <v>1.8224850005935877E-3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C39" s="4">
         <f>test5!V39</f>
         <v>8.4918083390221003E-3</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D39" s="10">
         <f>test5!W39</f>
         <v>8.4660833468660716E-3</v>
       </c>
@@ -1138,12 +1222,13 @@
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A20:I20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1162,34 +1247,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -1284,7 +1369,7 @@
         <v>0.46767617343121798</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -1379,7 +1464,7 @@
         <v>1.7322881995933129E-2</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1477,7 +1562,7 @@
         <v>0.51196560046225481</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1572,7 +1657,7 @@
         <v>1.284351000096649E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1670,7 +1755,7 @@
         <v>0.44807112941950411</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -1765,7 +1850,7 @@
         <v>1.3129756000125781E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -1863,7 +1948,7 @@
         <v>0.46863937282113582</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -1958,7 +2043,7 @@
         <v>1.6641702005872502E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2056,7 +2141,7 @@
         <v>0.43128094189914729</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2151,7 +2236,7 @@
         <v>1.527354599442333E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2249,7 +2334,7 @@
         <v>0.41933006456679389</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -2344,7 +2429,7 @@
         <v>1.379803000367247E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -2442,7 +2527,7 @@
         <v>0.46297028709890342</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -2537,7 +2622,7 @@
         <v>1.3183743994450201E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -2635,7 +2720,7 @@
         <v>0.40053493876807572</v>
       </c>
       <c r="AN23" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -2730,7 +2815,7 @@
         <v>1.7871440005255861E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -2828,7 +2913,7 @@
         <v>0.39882444406274148</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -2923,7 +3008,7 @@
         <v>1.6933357998495921E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -3021,7 +3106,7 @@
         <v>0.47954831594038372</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -3116,7 +3201,7 @@
         <v>1.4813257995992901E-2</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -3454,34 +3539,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -3576,7 +3661,7 @@
         <v>0.37566437035244221</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -3671,7 +3756,7 @@
         <v>0.1015712500011432</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -3769,7 +3854,7 @@
         <v>0.4447458470006736</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -3864,7 +3949,7 @@
         <v>7.8942925014416687E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -3962,7 +4047,7 @@
         <v>0.35706062579096037</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -4057,7 +4142,7 @@
         <v>7.9712462480529211E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -4155,7 +4240,7 @@
         <v>0.37345949802127248</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -4250,7 +4335,7 @@
         <v>9.7904037495027296E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -4348,7 +4433,7 @@
         <v>0.41375855873354062</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -4443,7 +4528,7 @@
         <v>9.530787499534199E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -4541,7 +4626,7 @@
         <v>0.33595972203516627</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -4636,7 +4721,7 @@
         <v>7.6964549996773712E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -4734,7 +4819,7 @@
         <v>0.40874024509363183</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -4829,7 +4914,7 @@
         <v>7.5967137519910466E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -4927,7 +5012,7 @@
         <v>0.30428970865201649</v>
       </c>
       <c r="AN23" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -5022,7 +5107,7 @@
         <v>9.2542987520573661E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -5120,7 +5205,7 @@
         <v>0.36899793283757071</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -5215,7 +5300,7 @@
         <v>9.7914574987953529E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -5313,7 +5398,7 @@
         <v>0.42903984334892081</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -5408,7 +5493,7 @@
         <v>0.1011443875031546</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -5717,34 +5802,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -5839,7 +5924,7 @@
         <v>0.4</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -5934,7 +6019,7 @@
         <v>2.5594189997063949E-2</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -6032,7 +6117,7 @@
         <v>0.4</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -6127,7 +6212,7 @@
         <v>1.256062400178052E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -6225,7 +6310,7 @@
         <v>0.34</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -6320,7 +6405,7 @@
         <v>1.388507799943909E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -6418,7 +6503,7 @@
         <v>0.38</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -6513,7 +6598,7 @@
         <v>1.672361599979922E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -6611,7 +6696,7 @@
         <v>0.4</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -6706,7 +6791,7 @@
         <v>1.7793423996772618E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -6804,7 +6889,7 @@
         <v>0.42</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -6899,7 +6984,7 @@
         <v>1.3773278000298889E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -6997,7 +7082,7 @@
         <v>0.42</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -7092,7 +7177,7 @@
         <v>1.3401135999010881E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -7190,7 +7275,7 @@
         <v>0.46</v>
       </c>
       <c r="AN23" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -7285,7 +7370,7 @@
         <v>1.644064800231718E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -7383,7 +7468,7 @@
         <v>0.48</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -7478,7 +7563,7 @@
         <v>1.6495699997758489E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -7576,7 +7661,7 @@
         <v>0.4</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -7671,7 +7756,7 @@
         <v>1.7215983999194578E-2</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -7980,19 +8065,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -9615,7 +9700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="L16" workbookViewId="0">
+    <sheetView topLeftCell="L10" workbookViewId="0">
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
@@ -9626,19 +9711,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">

--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -227,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -293,6 +293,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -300,7 +326,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +380,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -995,68 +1027,59 @@
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="20" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <f>test1!AO53</f>
-        <v>0</v>
+        <v>0.51623763969571546</v>
       </c>
       <c r="C24" s="10">
-        <f>test1!AP53</f>
-        <v>0</v>
+        <v>0.50213206145239919</v>
       </c>
       <c r="D24" s="4">
-        <f>test1!AQ53</f>
-        <v>0</v>
+        <v>0.49600475163412278</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="2">
-        <f>test2!AO53</f>
-        <v>0</v>
+      <c r="B25" s="4">
+        <v>0.47598589243515238</v>
       </c>
       <c r="C25" s="10">
-        <f>test2!AP53</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <f>test2!AQ53</f>
-        <v>0</v>
+        <v>0.52220714532777879</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.59535930671506043</v>
       </c>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2">
-        <f>test3!AO53</f>
-        <v>0</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="C26" s="4">
-        <f>test3!AP53</f>
-        <v>0</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="D26" s="10">
-        <f>test3!AQ53</f>
-        <v>0</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="E26" s="13"/>
     </row>
@@ -1064,65 +1087,56 @@
       <c r="A28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <f>test1!AO54</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="4">
-        <f>test1!AP54</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
-        <f>test1!AQ54</f>
-        <v>0</v>
+        <v>2.0948969987221061E-3</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.990901720151305E-2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2.9846378598595041E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <f>test2!AO54</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="4">
-        <f>test2!AP54</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
-        <f>test2!AQ54</f>
-        <v>0</v>
+        <v>0.14285232249967519</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.81662216998520309</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.95629880624910579</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <f>test3!AO54</f>
-        <v>0</v>
+        <v>2.0427452034782619E-3</v>
       </c>
       <c r="C31" s="10">
-        <f>test3!AP54</f>
-        <v>0</v>
+        <v>1.575288840080611E-2</v>
       </c>
       <c r="D31" s="4">
-        <f>test3!AQ54</f>
-        <v>0</v>
+        <v>1.803306820313446E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -13,6 +13,7 @@
     <sheet name="test3" sheetId="4" r:id="rId4"/>
     <sheet name="test4" sheetId="5" r:id="rId5"/>
     <sheet name="test5" sheetId="6" r:id="rId6"/>
+    <sheet name="test6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -326,7 +327,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,6 +374,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,12 +388,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -694,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -706,12 +708,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -926,12 +928,12 @@
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -998,25 +1000,25 @@
       <c r="I18"/>
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
     </row>
     <row r="22" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1027,59 +1029,68 @@
       <c r="A23" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>0.51623763969571546</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0.50213206145239919</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.49600475163412278</v>
+        <f>test6!AO1</f>
+        <v>0.52955127252854961</v>
+      </c>
+      <c r="C24" s="4">
+        <f>test6!AP1</f>
+        <v>0.50019484555143667</v>
+      </c>
+      <c r="D24" s="10">
+        <f>test6!AQ1</f>
+        <v>0.50696147661858848</v>
       </c>
       <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="4">
-        <v>0.47598589243515238</v>
+        <f>test6!AO2</f>
+        <v>0.45083941900584579</v>
       </c>
       <c r="C25" s="10">
-        <v>0.52220714532777879</v>
+        <f>test6!AP2</f>
+        <v>0.48705661357629848</v>
       </c>
       <c r="D25" s="2">
-        <v>0.59535930671506043</v>
+        <f>test6!AQ2</f>
+        <v>0.60621832278319476</v>
       </c>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2">
-        <v>0.72799999999999998</v>
+      <c r="B26" s="10">
+        <f>test6!AO3</f>
+        <v>0.74299999999999999</v>
       </c>
       <c r="C26" s="4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.66600000000000004</v>
+        <f>test6!AP3</f>
+        <v>0.34759999999999996</v>
+      </c>
+      <c r="D26" s="2">
+        <f>test6!AQ3</f>
+        <v>0.74380000000000002</v>
       </c>
       <c r="E26" s="13"/>
     </row>
@@ -1087,56 +1098,65 @@
       <c r="A28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>2.0948969987221061E-3</v>
+        <f>test6!AO6</f>
+        <v>2.4858958408934999E-3</v>
       </c>
       <c r="C29" s="10">
-        <v>1.990901720151305E-2</v>
+        <f>test6!AP6</f>
+        <v>1.9801278980472126E-2</v>
       </c>
       <c r="D29" s="4">
-        <v>2.9846378598595041E-2</v>
+        <f>test6!AQ6</f>
+        <v>2.1344192480132921E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>0.14285232249967519</v>
+        <f>test6!AO7</f>
+        <v>0.11036972012589105</v>
       </c>
       <c r="C30" s="10">
-        <v>0.81662216998520309</v>
+        <f>test6!AP7</f>
+        <v>0.70325506712557406</v>
       </c>
       <c r="D30" s="4">
-        <v>0.95629880624910579</v>
+        <f>test6!AQ7</f>
+        <v>0.79893878187285727</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="2">
-        <v>2.0427452034782619E-3</v>
+        <f>test6!AO8</f>
+        <v>1.6689894399838524E-3</v>
       </c>
       <c r="C31" s="10">
-        <v>1.575288840080611E-2</v>
+        <f>test6!AP8</f>
+        <v>1.1851911739679054E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>1.803306820313446E-2</v>
+        <f>test6!AQ8</f>
+        <v>1.3061589160095902E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,12 +1198,12 @@
       <c r="D35"/>
     </row>
     <row r="36" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
@@ -1222,15 +1242,15 @@
       </c>
       <c r="B39" s="2">
         <f>test5!U39</f>
-        <v>1.8224850005935877E-3</v>
+        <v>4.5800299985179057E-3</v>
       </c>
       <c r="C39" s="4">
         <f>test5!V39</f>
-        <v>8.4918083390221003E-3</v>
+        <v>1.9035461669166885E-2</v>
       </c>
       <c r="D39" s="10">
         <f>test5!W39</f>
-        <v>8.4660833468660716E-3</v>
+        <v>1.2682214998252067E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9714,8 +9734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9793,53 +9813,53 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.110400073230267E-3</v>
+        <v>1.9144000252708791E-3</v>
       </c>
       <c r="B3">
-        <v>2.478399896062911E-3</v>
+        <v>4.5949999475851664E-3</v>
       </c>
       <c r="C3">
-        <v>3.1189000001177192E-3</v>
+        <v>5.9815000277012587E-3</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>3.1757999677211051E-3</v>
+        <v>1.1413300060667099E-2</v>
       </c>
       <c r="F3">
-        <v>9.0042999945580959E-3</v>
+        <v>1.3062299927696591E-2</v>
       </c>
       <c r="G3">
-        <v>8.159099961631E-3</v>
+        <v>1.2354300008155411E-2</v>
       </c>
       <c r="H3"/>
       <c r="I3">
-        <v>2.6008000131696458E-3</v>
+        <v>1.188750006258488E-2</v>
       </c>
       <c r="J3">
-        <v>1.9160600029863421E-2</v>
+        <v>1.770009996835142E-2</v>
       </c>
       <c r="K3">
-        <v>1.2218500021845101E-2</v>
+        <v>2.237940009217709E-2</v>
       </c>
       <c r="L3"/>
       <c r="M3">
-        <v>2.2262000711634759E-3</v>
+        <v>3.080199938267469E-3</v>
       </c>
       <c r="N3">
-        <v>1.020520005840808E-2</v>
+        <v>5.0077500054612763E-2</v>
       </c>
       <c r="O3">
-        <v>1.234820007812232E-2</v>
+        <v>1.7439499963074919E-2</v>
       </c>
       <c r="P3"/>
       <c r="Q3">
-        <v>1.2685001129284501E-3</v>
+        <v>2.2857999429106708E-3</v>
       </c>
       <c r="R3">
-        <v>5.9073000447824597E-3</v>
+        <v>1.5589999966323379E-2</v>
       </c>
       <c r="S3">
-        <v>6.8847000366076827E-3</v>
+        <v>1.057719998061657E-2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -9916,53 +9936,53 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2.5159993674606079E-4</v>
+        <v>5.7069992180913687E-4</v>
       </c>
       <c r="B6">
-        <v>1.378500019200146E-3</v>
+        <v>4.3054999550804496E-3</v>
       </c>
       <c r="C6">
-        <v>1.8445999594405289E-3</v>
+        <v>7.2882999666035184E-3</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>2.2718000691384081E-3</v>
+        <v>4.8625800060108297E-2</v>
       </c>
       <c r="F6">
-        <v>2.0939400070346888E-2</v>
+        <v>1.5997200040146708E-2</v>
       </c>
       <c r="G6">
-        <v>8.5446999873965979E-3</v>
+        <v>1.2938799918629231E-2</v>
       </c>
       <c r="H6"/>
       <c r="I6">
-        <v>2.3964999709278349E-3</v>
+        <v>1.359629991929978E-2</v>
       </c>
       <c r="J6">
-        <v>1.66751000797376E-2</v>
+        <v>1.4333000057376919E-2</v>
       </c>
       <c r="K6">
-        <v>8.4971999749541283E-3</v>
+        <v>1.165840006433427E-2</v>
       </c>
       <c r="L6"/>
       <c r="M6">
-        <v>2.8881999896839261E-3</v>
+        <v>3.367400029674172E-3</v>
       </c>
       <c r="N6">
-        <v>1.0275800013914701E-2</v>
+        <v>5.1707200007513172E-2</v>
       </c>
       <c r="O6">
-        <v>1.246050000190735E-2</v>
+        <v>2.5000999914482239E-2</v>
       </c>
       <c r="P6"/>
       <c r="Q6">
-        <v>1.2726000277325511E-3</v>
+        <v>1.823299913667142E-3</v>
       </c>
       <c r="R6">
-        <v>6.1046000337228179E-3</v>
+        <v>1.458640000782907E-2</v>
       </c>
       <c r="S6">
-        <v>7.4938000179827213E-3</v>
+        <v>1.1127599980682129E-2</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -10039,53 +10059,53 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.5819998700171709E-4</v>
+        <v>6.1250000726431608E-4</v>
       </c>
       <c r="B9">
-        <v>1.653900020755827E-3</v>
+        <v>3.309399937279522E-3</v>
       </c>
       <c r="C9">
-        <v>2.630900009535253E-3</v>
+        <v>3.5186000168323521E-3</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>2.603499917313457E-3</v>
+        <v>5.7732000714167953E-3</v>
       </c>
       <c r="F9">
-        <v>2.4226699955761429E-2</v>
+        <v>2.7276100008748468E-2</v>
       </c>
       <c r="G9">
-        <v>1.124319992959499E-2</v>
+        <v>1.523430005181581E-2</v>
       </c>
       <c r="H9"/>
       <c r="I9">
-        <v>3.4543999936431651E-3</v>
+        <v>1.2882800074294209E-2</v>
       </c>
       <c r="J9">
-        <v>2.6243099942803379E-2</v>
+        <v>2.2411599988117811E-2</v>
       </c>
       <c r="K9">
-        <v>1.530379999894649E-2</v>
+        <v>2.5250300066545609E-2</v>
       </c>
       <c r="L9"/>
       <c r="M9">
-        <v>2.5742999278008938E-3</v>
+        <v>3.17080004606396E-3</v>
       </c>
       <c r="N9">
-        <v>1.0870400001294909E-2</v>
+        <v>4.2352900025434792E-2</v>
       </c>
       <c r="O9">
-        <v>1.2458699988201261E-2</v>
+        <v>2.0352000021375719E-2</v>
       </c>
       <c r="P9"/>
       <c r="Q9">
-        <v>1.679000095464289E-3</v>
+        <v>2.7119000442326069E-3</v>
       </c>
       <c r="R9">
-        <v>8.1175999948754907E-3</v>
+        <v>1.686510001309216E-2</v>
       </c>
       <c r="S9">
-        <v>1.140690001193434E-2</v>
+        <v>1.766330003738403E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -10162,53 +10182,53 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1.5959993470460179E-4</v>
+        <v>4.5579997822642332E-4</v>
       </c>
       <c r="B12">
-        <v>1.7045499989762899E-2</v>
+        <v>2.1071000955998902E-3</v>
       </c>
       <c r="C12">
-        <v>2.8144500101916489E-2</v>
+        <v>3.362699993886054E-3</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>9.4410008750855923E-4</v>
+        <v>4.1706999763846397E-3</v>
       </c>
       <c r="F12">
-        <v>4.4323999900370836E-3</v>
+        <v>6.272900034673512E-3</v>
       </c>
       <c r="G12">
-        <v>4.6798000112175941E-3</v>
+        <v>6.3194000395014882E-3</v>
       </c>
       <c r="H12"/>
       <c r="I12">
-        <v>6.7159999161958694E-4</v>
+        <v>2.0188000053167339E-3</v>
       </c>
       <c r="J12">
-        <v>3.7406000774353738E-3</v>
+        <v>5.9120999649167061E-3</v>
       </c>
       <c r="K12">
-        <v>3.6967999767512079E-3</v>
+        <v>5.3990999003872284E-3</v>
       </c>
       <c r="L12"/>
       <c r="M12">
-        <v>4.0500999893993139E-3</v>
+        <v>3.8904999382793899E-3</v>
       </c>
       <c r="N12">
-        <v>7.7301000710576773E-3</v>
+        <v>5.1892200019210577E-2</v>
       </c>
       <c r="O12">
-        <v>1.049529993906617E-2</v>
+        <v>2.072409994434565E-2</v>
       </c>
       <c r="P12"/>
       <c r="Q12">
-        <v>7.7060004696249962E-4</v>
+        <v>1.0061999782919879E-3</v>
       </c>
       <c r="R12">
-        <v>2.967900014482439E-3</v>
+        <v>5.1756999455392361E-3</v>
       </c>
       <c r="S12">
-        <v>3.3125000772997741E-3</v>
+        <v>7.2036000201478601E-3</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -10285,53 +10305,53 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2.2980000358074901E-4</v>
+        <v>5.8680004440248013E-4</v>
       </c>
       <c r="B15">
-        <v>1.5223999507725241E-3</v>
+        <v>2.124399994499981E-3</v>
       </c>
       <c r="C15">
-        <v>1.149649999570101E-2</v>
+        <v>1.552579994313419E-2</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>1.119099906645715E-3</v>
+        <v>3.738099941983819E-3</v>
       </c>
       <c r="F15">
-        <v>5.5794999934732914E-3</v>
+        <v>1.196080003865063E-2</v>
       </c>
       <c r="G15">
-        <v>6.4599000615999103E-3</v>
+        <v>9.2021999880671501E-3</v>
       </c>
       <c r="H15"/>
       <c r="I15">
-        <v>3.521899925544858E-3</v>
+        <v>8.6475999560207129E-3</v>
       </c>
       <c r="J15">
-        <v>1.1881200014613571E-2</v>
+        <v>1.7283499939367179E-2</v>
       </c>
       <c r="K15">
-        <v>1.191030000336468E-2</v>
+        <v>2.1820500027388331E-2</v>
       </c>
       <c r="L15"/>
       <c r="M15">
-        <v>4.1935000335797668E-3</v>
+        <v>5.2815000526607037E-3</v>
       </c>
       <c r="N15">
-        <v>9.908100008033216E-3</v>
+        <v>4.8428799957036972E-2</v>
       </c>
       <c r="O15">
-        <v>1.227380009368062E-2</v>
+        <v>2.1161100012250241E-2</v>
       </c>
       <c r="P15"/>
       <c r="Q15">
-        <v>1.267699990421534E-3</v>
+        <v>1.8284999532625079E-3</v>
       </c>
       <c r="R15">
-        <v>5.8526999782770872E-3</v>
+        <v>1.010250009130687E-2</v>
       </c>
       <c r="S15">
-        <v>6.677200086414814E-3</v>
+        <v>9.8547000670805573E-3</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -10408,53 +10428,53 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2.244999632239342E-4</v>
+        <v>5.5920006707310677E-4</v>
       </c>
       <c r="B18">
-        <v>2.5260000256821509E-3</v>
+        <v>1.887000049464405E-3</v>
       </c>
       <c r="C18">
-        <v>6.7940999288111934E-3</v>
+        <v>5.8173999423161149E-3</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>1.3328000204637651E-3</v>
+        <v>2.5418000295758252E-3</v>
       </c>
       <c r="F18">
-        <v>6.1103999614715576E-3</v>
+        <v>1.562199997715652E-2</v>
       </c>
       <c r="G18">
-        <v>9.1920000268146396E-3</v>
+        <v>8.929200004786253E-3</v>
       </c>
       <c r="H18"/>
       <c r="I18">
-        <v>2.743999939411879E-3</v>
+        <v>9.4121000729501247E-3</v>
       </c>
       <c r="J18">
-        <v>8.2738000201061368E-3</v>
+        <v>1.1751400073990229E-2</v>
       </c>
       <c r="K18">
-        <v>8.7594999931752682E-3</v>
+        <v>1.4409100054763259E-2</v>
       </c>
       <c r="L18"/>
       <c r="M18">
-        <v>2.682599937543273E-3</v>
+        <v>3.8573000347241759E-3</v>
       </c>
       <c r="N18">
-        <v>1.0100799961946899E-2</v>
+        <v>3.8032899959944189E-2</v>
       </c>
       <c r="O18">
-        <v>1.232969993725419E-2</v>
+        <v>2.169560000766069E-2</v>
       </c>
       <c r="P18"/>
       <c r="Q18">
-        <v>1.28149997908622E-3</v>
+        <v>1.8263000529259439E-3</v>
       </c>
       <c r="R18">
-        <v>6.0583000304177403E-3</v>
+        <v>1.0427700006403031E-2</v>
       </c>
       <c r="S18">
-        <v>7.0319999940693378E-3</v>
+        <v>1.0232400032691659E-2</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -10531,53 +10551,53 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2.5459995958954101E-4</v>
+        <v>6.4859993290156126E-4</v>
       </c>
       <c r="B21">
-        <v>1.672899932600558E-3</v>
+        <v>6.9390999851748347E-3</v>
       </c>
       <c r="C21">
-        <v>5.4443000117316842E-3</v>
+        <v>1.0652100085280841E-2</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>1.630900078453124E-3</v>
+        <v>6.2997000059112906E-3</v>
       </c>
       <c r="F21">
-        <v>8.3466999931260943E-3</v>
+        <v>1.6511299996636811E-2</v>
       </c>
       <c r="G21">
-        <v>1.0339100030250851E-2</v>
+        <v>1.611890003550798E-2</v>
       </c>
       <c r="H21"/>
       <c r="I21">
-        <v>5.2900000009685746E-3</v>
+        <v>1.3411100022494789E-2</v>
       </c>
       <c r="J21">
-        <v>1.4547899947501721E-2</v>
+        <v>2.7195399976335469E-2</v>
       </c>
       <c r="K21">
-        <v>1.6956800012849271E-2</v>
+        <v>2.644109993707389E-2</v>
       </c>
       <c r="L21"/>
       <c r="M21">
-        <v>2.5086000096052889E-3</v>
+        <v>3.470299998298287E-3</v>
       </c>
       <c r="N21">
-        <v>3.5078999935649342E-2</v>
+        <v>3.7219200050458312E-2</v>
       </c>
       <c r="O21">
-        <v>1.241429999936372E-2</v>
+        <v>2.2574899950996041E-2</v>
       </c>
       <c r="P21"/>
       <c r="Q21">
-        <v>2.1582000190392141E-3</v>
+        <v>2.2915999870747332E-3</v>
       </c>
       <c r="R21">
-        <v>8.5056999232620001E-3</v>
+        <v>1.4209800050593911E-2</v>
       </c>
       <c r="S21">
-        <v>1.1533300043083731E-2</v>
+        <v>1.305319997482002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -10654,53 +10674,53 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1.5039998106658459E-4</v>
+        <v>3.8169999606907368E-4</v>
       </c>
       <c r="B24">
-        <v>1.1628000065684321E-3</v>
+        <v>2.4546000640839338E-3</v>
       </c>
       <c r="C24">
-        <v>2.107299980707467E-3</v>
+        <v>5.9601999819278717E-3</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>5.9180008247494698E-4</v>
+        <v>2.9299999587237831E-3</v>
       </c>
       <c r="F24">
-        <v>3.4869000082835559E-3</v>
+        <v>6.5700000850483784E-3</v>
       </c>
       <c r="G24">
-        <v>4.2275000596418977E-3</v>
+        <v>7.606100058183074E-3</v>
       </c>
       <c r="H24"/>
       <c r="I24">
-        <v>6.6929997410625219E-4</v>
+        <v>2.2836000425741081E-3</v>
       </c>
       <c r="J24">
-        <v>3.16930003464222E-3</v>
+        <v>6.1903999885544181E-3</v>
       </c>
       <c r="K24">
-        <v>3.40909999795258E-3</v>
+        <v>6.0436000349000096E-3</v>
       </c>
       <c r="L24"/>
       <c r="M24">
-        <v>2.406399929895997E-3</v>
+        <v>3.2151999184861779E-3</v>
       </c>
       <c r="N24">
-        <v>2.1054499899037179E-2</v>
+        <v>3.117550001479685E-2</v>
       </c>
       <c r="O24">
-        <v>1.055200002156198E-2</v>
+        <v>1.45429999101907E-2</v>
       </c>
       <c r="P24"/>
       <c r="Q24">
-        <v>7.4450008105486631E-4</v>
+        <v>1.02079997304827E-3</v>
       </c>
       <c r="R24">
-        <v>2.9471000889316201E-3</v>
+        <v>7.1051999693736434E-3</v>
       </c>
       <c r="S24">
-        <v>3.3270000712946062E-3</v>
+        <v>4.7638000687584281E-3</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -10777,53 +10797,53 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.2819999139755959E-4</v>
+        <v>5.528000183403492E-4</v>
       </c>
       <c r="B27">
-        <v>2.5829999940469861E-3</v>
+        <v>3.7258999655023222E-3</v>
       </c>
       <c r="C27">
-        <v>2.8176000341773029E-3</v>
+        <v>4.850100027397275E-3</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>1.3154000043869021E-3</v>
+        <v>2.9825000092387199E-3</v>
       </c>
       <c r="F27">
-        <v>4.8398000653833151E-3</v>
+        <v>1.34328999556601E-2</v>
       </c>
       <c r="G27">
-        <v>5.3120000520721078E-3</v>
+        <v>9.8075000569224358E-3</v>
       </c>
       <c r="H27"/>
       <c r="I27">
-        <v>2.5693000061437492E-3</v>
+        <v>6.7623999202623963E-3</v>
       </c>
       <c r="J27">
-        <v>1.218750001862645E-2</v>
+        <v>4.5028200023807592E-2</v>
       </c>
       <c r="K27">
-        <v>1.240760006476194E-2</v>
+        <v>1.885590003803372E-2</v>
       </c>
       <c r="L27"/>
       <c r="M27">
-        <v>2.4120999732986088E-3</v>
+        <v>3.8190000923350449E-3</v>
       </c>
       <c r="N27">
-        <v>9.1542999725788832E-3</v>
+        <v>3.8241400034166873E-2</v>
       </c>
       <c r="O27">
-        <v>1.258430001325905E-2</v>
+        <v>2.2474800003692511E-2</v>
       </c>
       <c r="P27"/>
       <c r="Q27">
-        <v>1.385700074024498E-3</v>
+        <v>1.935399952344596E-3</v>
       </c>
       <c r="R27">
-        <v>7.1006000507622957E-3</v>
+        <v>1.1104600038379431E-2</v>
       </c>
       <c r="S27">
-        <v>6.7199000623077154E-3</v>
+        <v>1.005290006287396E-2</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -10900,53 +10920,53 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.3020000662654641E-4</v>
+        <v>5.9020007029175758E-4</v>
       </c>
       <c r="B30">
-        <v>1.873299945145845E-3</v>
+        <v>3.676500055007637E-3</v>
       </c>
       <c r="C30">
-        <v>1.5758000081405039E-3</v>
+        <v>6.3958999235183001E-3</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>1.869000028818846E-3</v>
+        <v>4.2172999819740653E-3</v>
       </c>
       <c r="F30">
-        <v>8.1925999838858843E-3</v>
+        <v>1.834369997959584E-2</v>
       </c>
       <c r="G30">
-        <v>5.6345000630244613E-3</v>
+        <v>7.5600999407470226E-3</v>
       </c>
       <c r="H30"/>
       <c r="I30">
-        <v>2.6206999318674211E-3</v>
+        <v>6.0823999810963869E-3</v>
       </c>
       <c r="J30">
-        <v>8.1893999595195055E-3</v>
+        <v>7.6497499947436154E-2</v>
       </c>
       <c r="K30">
-        <v>9.5923000480979681E-3</v>
+        <v>1.5232099918648601E-2</v>
       </c>
       <c r="L30"/>
       <c r="M30">
-        <v>3.1825000187382102E-3</v>
+        <v>3.184700035490096E-3</v>
       </c>
       <c r="N30">
-        <v>9.9342000903561711E-3</v>
+        <v>3.1985600013285882E-2</v>
       </c>
       <c r="O30">
-        <v>1.2396699981763961E-2</v>
+        <v>1.9461699994280931E-2</v>
       </c>
       <c r="P30"/>
       <c r="Q30">
-        <v>1.3198000378906729E-3</v>
+        <v>1.730300020426512E-3</v>
       </c>
       <c r="R30">
-        <v>7.9629999818280339E-3</v>
+        <v>1.0906299925409259E-2</v>
       </c>
       <c r="S30">
-        <v>7.0018999977037311E-3</v>
+        <v>1.032719993963838E-2</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -11023,53 +11043,53 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>4.4430000707507128E-4</v>
+        <v>6.6349992994219065E-4</v>
       </c>
       <c r="B33">
-        <v>1.4565000310540199E-3</v>
+        <v>3.7560999626293778E-3</v>
       </c>
       <c r="C33">
-        <v>1.614600070752203E-3</v>
+        <v>2.672999980859458E-3</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>3.5362999187782411E-3</v>
+        <v>5.6012999266386032E-3</v>
       </c>
       <c r="F33">
-        <v>6.7972000688314438E-3</v>
+        <v>1.2951400014571851E-2</v>
       </c>
       <c r="G33">
-        <v>9.3820999609306455E-3</v>
+        <v>1.2292500003241001E-2</v>
       </c>
       <c r="H33"/>
       <c r="I33">
-        <v>7.5799000915139914E-3</v>
+        <v>1.311379997059703E-2</v>
       </c>
       <c r="J33">
-        <v>1.443179999478161E-2</v>
+        <v>6.0696800006553531E-2</v>
       </c>
       <c r="K33">
-        <v>1.557879999745637E-2</v>
+        <v>2.5306199910119179E-2</v>
       </c>
       <c r="L33"/>
       <c r="M33">
-        <v>2.875000005587935E-3</v>
+        <v>2.6131999911740418E-3</v>
       </c>
       <c r="N33">
-        <v>1.030460000038147E-2</v>
+        <v>3.230039996560663E-2</v>
       </c>
       <c r="O33">
-        <v>1.2702599982731041E-2</v>
+        <v>1.921129995025694E-2</v>
       </c>
       <c r="P33"/>
       <c r="Q33">
-        <v>1.8408999312669041E-3</v>
+        <v>2.2925999946892262E-3</v>
       </c>
       <c r="R33">
-        <v>8.6287000449374318E-3</v>
+        <v>1.7228899989277121E-2</v>
       </c>
       <c r="S33">
-        <v>1.2655200087465349E-2</v>
+        <v>1.3370199943892659E-2</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
@@ -11146,53 +11166,53 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.9689993243664498E-4</v>
+        <v>3.9050006307661528E-4</v>
       </c>
       <c r="B36">
-        <v>1.137300045229495E-3</v>
+        <v>2.6222999440506101E-3</v>
       </c>
       <c r="C36">
-        <v>1.0581999085843561E-3</v>
+        <v>1.717000035569072E-3</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>6.0180004220455885E-4</v>
+        <v>4.7094000037759542E-3</v>
       </c>
       <c r="F36">
-        <v>3.6155000561848278E-3</v>
+        <v>5.8434000238776207E-3</v>
       </c>
       <c r="G36">
-        <v>3.4613000461831689E-3</v>
+        <v>7.3920999420806774E-3</v>
       </c>
       <c r="H36"/>
       <c r="I36">
-        <v>6.7690003197640181E-4</v>
+        <v>9.2899997252970934E-4</v>
       </c>
       <c r="J36">
-        <v>3.1062000198289752E-3</v>
+        <v>1.61159000126645E-2</v>
       </c>
       <c r="K36">
-        <v>3.3576999558135871E-3</v>
+        <v>6.9558999966830024E-3</v>
       </c>
       <c r="L36"/>
       <c r="M36">
-        <v>1.924199983477592E-3</v>
+        <v>2.133899950422347E-3</v>
       </c>
       <c r="N36">
-        <v>8.0375999677926302E-3</v>
+        <v>2.367520006373525E-2</v>
       </c>
       <c r="O36">
-        <v>1.059750001877546E-2</v>
+        <v>1.4534900081343951E-2</v>
       </c>
       <c r="P36"/>
       <c r="Q36">
-        <v>8.1009999848902225E-4</v>
+        <v>1.0078999912366271E-3</v>
       </c>
       <c r="R36">
-        <v>3.0320000369101758E-3</v>
+        <v>5.273899994790554E-3</v>
       </c>
       <c r="S36">
-        <v>3.336100024171174E-3</v>
+        <v>4.2833000188693404E-3</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
@@ -11272,75 +11292,717 @@
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <f>AVERAGE(A3,A6,A9,A12,A15,A18,A21,A24,A27,A30,A33,A36)</f>
-        <v>3.1989164805660647E-4</v>
+        <v>6.6055833788899088E-4</v>
       </c>
       <c r="B39" s="6">
         <f t="shared" si="0"/>
-        <v>3.0408749880734831E-3</v>
+        <v>3.458574996329844E-3</v>
       </c>
       <c r="C39" s="6">
         <f t="shared" si="0"/>
-        <v>5.7206083341346421E-3</v>
+        <v>6.1452166604188578E-3</v>
       </c>
       <c r="E39" s="6">
         <f t="shared" si="1"/>
-        <v>1.749358343658969E-3</v>
+        <v>8.5835916688665748E-3</v>
       </c>
       <c r="F39" s="6">
         <f t="shared" si="1"/>
-        <v>8.797616678445289E-3</v>
+        <v>1.3653666673538586E-2</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="1"/>
-        <v>7.219600015863155E-3</v>
+        <v>1.047961667063646E-2</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="1"/>
-        <v>2.8996083225744465E-3</v>
+        <v>8.4189500000017379E-3</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="1"/>
-        <v>1.1800541678288331E-2</v>
+        <v>2.6759658328955993E-2</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="1"/>
-        <v>1.0140700003830716E-2</v>
+        <v>1.6645966670087848E-2</v>
       </c>
       <c r="M39" s="6">
         <f t="shared" si="1"/>
-        <v>2.8269749891478568E-3</v>
+        <v>3.4236666688229889E-3</v>
       </c>
       <c r="N39" s="6">
         <f t="shared" si="1"/>
-        <v>1.2721216665037597E-2</v>
+        <v>3.9757400013816856E-2</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="1"/>
-        <v>1.1967800004640594E-2</v>
+        <v>1.9931158312829211E-2</v>
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="1"/>
-        <v>1.3165916995300602E-3</v>
+        <v>1.8133833170092351E-3</v>
       </c>
       <c r="R39" s="6">
         <f t="shared" si="1"/>
-        <v>6.0987916852657991E-3</v>
+        <v>1.1548008333193138E-2</v>
       </c>
       <c r="S39" s="6">
         <f t="shared" si="1"/>
-        <v>7.2817083758612471E-3</v>
+        <v>1.0209116677287964E-2</v>
       </c>
       <c r="U39" s="8">
         <f>AVERAGE(A39,E39,I39,M39,Q39)</f>
-        <v>1.8224850005935877E-3</v>
+        <v>4.5800299985179057E-3</v>
       </c>
       <c r="V39" s="8">
         <f t="shared" si="2"/>
-        <v>8.4918083390221003E-3</v>
+        <v>1.9035461669166885E-2</v>
       </c>
       <c r="W39" s="8">
         <f t="shared" si="2"/>
-        <v>8.4660833468660716E-3</v>
+        <v>1.2682214998252067E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ8"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AK17" sqref="AK17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="43" max="43" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0.54116054651686496</v>
+      </c>
+      <c r="B1">
+        <v>0.49566501582948558</v>
+      </c>
+      <c r="C1">
+        <v>0.5128879334109312</v>
+      </c>
+      <c r="E1">
+        <v>0.51383698066020722</v>
+      </c>
+      <c r="F1">
+        <v>0.49580508968465109</v>
+      </c>
+      <c r="G1">
+        <v>0.49992807614094331</v>
+      </c>
+      <c r="I1">
+        <v>0.53453597718056056</v>
+      </c>
+      <c r="J1">
+        <v>0.49828059406685049</v>
+      </c>
+      <c r="K1">
+        <v>0.50140083735444518</v>
+      </c>
+      <c r="M1">
+        <v>0.53246256522127833</v>
+      </c>
+      <c r="N1">
+        <v>0.49109326861695041</v>
+      </c>
+      <c r="O1">
+        <v>0.50292509162530541</v>
+      </c>
+      <c r="Q1">
+        <v>0.52281856188703679</v>
+      </c>
+      <c r="R1">
+        <v>0.49194447730628948</v>
+      </c>
+      <c r="S1">
+        <v>0.50168707641447696</v>
+      </c>
+      <c r="U1">
+        <v>0.5351314415876457</v>
+      </c>
+      <c r="V1">
+        <v>0.50430189932314806</v>
+      </c>
+      <c r="W1">
+        <v>0.50789011198882494</v>
+      </c>
+      <c r="Y1">
+        <v>0.53418217176804395</v>
+      </c>
+      <c r="Z1">
+        <v>0.52854563550423095</v>
+      </c>
+      <c r="AA1">
+        <v>0.52343549245249099</v>
+      </c>
+      <c r="AC1">
+        <v>0.52354465094864944</v>
+      </c>
+      <c r="AD1">
+        <v>0.49854605667924629</v>
+      </c>
+      <c r="AE1">
+        <v>0.50072427369462236</v>
+      </c>
+      <c r="AG1">
+        <v>0.52066542457760168</v>
+      </c>
+      <c r="AH1">
+        <v>0.48805658813733421</v>
+      </c>
+      <c r="AI1">
+        <v>0.4975405061640038</v>
+      </c>
+      <c r="AK1">
+        <v>0.53717440493760682</v>
+      </c>
+      <c r="AL1">
+        <v>0.50970983036618123</v>
+      </c>
+      <c r="AM1">
+        <v>0.52119536693984081</v>
+      </c>
+      <c r="AO1" s="18">
+        <f>AVERAGE(A1,E1,I1,M1,Q1,U1,Y1,AC1,AG1,AK1)</f>
+        <v>0.52955127252854961</v>
+      </c>
+      <c r="AP1" s="18">
+        <f t="shared" ref="AP1:AQ1" si="0">AVERAGE(B1,F1,J1,N1,R1,V1,Z1,AD1,AH1,AL1)</f>
+        <v>0.50019484555143667</v>
+      </c>
+      <c r="AQ1" s="18">
+        <f t="shared" si="0"/>
+        <v>0.50696147661858848</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.4536015682984772</v>
+      </c>
+      <c r="B2">
+        <v>0.49107771264989508</v>
+      </c>
+      <c r="C2">
+        <v>0.61085579360937614</v>
+      </c>
+      <c r="E2">
+        <v>0.46069344294829939</v>
+      </c>
+      <c r="F2">
+        <v>0.47746426458734231</v>
+      </c>
+      <c r="G2">
+        <v>0.59940562090746785</v>
+      </c>
+      <c r="I2">
+        <v>0.45623376548737998</v>
+      </c>
+      <c r="J2">
+        <v>0.49208916149095477</v>
+      </c>
+      <c r="K2">
+        <v>0.60609639822510375</v>
+      </c>
+      <c r="M2">
+        <v>0.44841600653449609</v>
+      </c>
+      <c r="N2">
+        <v>0.5000091326380145</v>
+      </c>
+      <c r="O2">
+        <v>0.61687920965316578</v>
+      </c>
+      <c r="Q2">
+        <v>0.43675275418483472</v>
+      </c>
+      <c r="R2">
+        <v>0.47590635935083092</v>
+      </c>
+      <c r="S2">
+        <v>0.6021981318026205</v>
+      </c>
+      <c r="U2">
+        <v>0.45241628041445608</v>
+      </c>
+      <c r="V2">
+        <v>0.50042033764386518</v>
+      </c>
+      <c r="W2">
+        <v>0.60477050750005923</v>
+      </c>
+      <c r="Y2">
+        <v>0.45295877184900479</v>
+      </c>
+      <c r="Z2">
+        <v>0.4872150320739701</v>
+      </c>
+      <c r="AA2">
+        <v>0.60489102822710594</v>
+      </c>
+      <c r="AC2">
+        <v>0.44459357255302062</v>
+      </c>
+      <c r="AD2">
+        <v>0.47701514603109268</v>
+      </c>
+      <c r="AE2">
+        <v>0.60829244207568878</v>
+      </c>
+      <c r="AG2">
+        <v>0.43675067794595518</v>
+      </c>
+      <c r="AH2">
+        <v>0.46335570985020769</v>
+      </c>
+      <c r="AI2">
+        <v>0.60433232193701758</v>
+      </c>
+      <c r="AK2">
+        <v>0.46597734984253342</v>
+      </c>
+      <c r="AL2">
+        <v>0.5060132794468114</v>
+      </c>
+      <c r="AM2">
+        <v>0.60446177389434297</v>
+      </c>
+      <c r="AO2" s="18">
+        <f t="shared" ref="AO2:AO3" si="1">AVERAGE(A2,E2,I2,M2,Q2,U2,Y2,AC2,AG2,AK2)</f>
+        <v>0.45083941900584579</v>
+      </c>
+      <c r="AP2" s="18">
+        <f t="shared" ref="AP2:AP3" si="2">AVERAGE(B2,F2,J2,N2,R2,V2,Z2,AD2,AH2,AL2)</f>
+        <v>0.48705661357629848</v>
+      </c>
+      <c r="AQ2" s="18">
+        <f t="shared" ref="AQ2:AQ3" si="3">AVERAGE(C2,G2,K2,O2,S2,W2,AA2,AE2,AI2,AM2)</f>
+        <v>0.60621832278319476</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.77</v>
+      </c>
+      <c r="B3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.748</v>
+      </c>
+      <c r="I3">
+        <v>0.748</v>
+      </c>
+      <c r="J3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="M3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="O3">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="Q3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.74</v>
+      </c>
+      <c r="U3">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="W3">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="Y3">
+        <v>0.746</v>
+      </c>
+      <c r="Z3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AA3">
+        <v>0.754</v>
+      </c>
+      <c r="AC3">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="AD3">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="AE3">
+        <v>0.75</v>
+      </c>
+      <c r="AG3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="AH3">
+        <v>0.32</v>
+      </c>
+      <c r="AI3">
+        <v>0.73</v>
+      </c>
+      <c r="AK3">
+        <v>0.752</v>
+      </c>
+      <c r="AL3">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AM3">
+        <v>0.76</v>
+      </c>
+      <c r="AO3" s="18">
+        <f t="shared" si="1"/>
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AP3" s="18">
+        <f t="shared" si="2"/>
+        <v>0.34759999999999996</v>
+      </c>
+      <c r="AQ3" s="18">
+        <f t="shared" si="3"/>
+        <v>0.74380000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3.0203603974077852E-3</v>
+      </c>
+      <c r="B6">
+        <v>1.6788851804099982E-2</v>
+      </c>
+      <c r="C6">
+        <v>2.08156643982511E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.7206956089939919E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.4307914997916669E-2</v>
+      </c>
+      <c r="G6">
+        <v>1.451895720255561E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.651561001548544E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.4646456001326439E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.4407198401167991E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.650905000511557E-3</v>
+      </c>
+      <c r="N6">
+        <v>1.427719059796072E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.5869612997863439E-2</v>
+      </c>
+      <c r="Q6">
+        <v>2.5513801975175741E-3</v>
+      </c>
+      <c r="R6">
+        <v>2.0807149005122479E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.8585361199220642E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.7348320013843481E-3</v>
+      </c>
+      <c r="V6">
+        <v>2.013242679904215E-2</v>
+      </c>
+      <c r="W6">
+        <v>4.2619200001936412E-2</v>
+      </c>
+      <c r="Y6">
+        <v>1.6484760011080651E-3</v>
+      </c>
+      <c r="Z6">
+        <v>1.4034710000734779E-2</v>
+      </c>
+      <c r="AA6">
+        <v>1.502193099842407E-2</v>
+      </c>
+      <c r="AC6">
+        <v>3.4884917978197341E-3</v>
+      </c>
+      <c r="AD6">
+        <v>2.2371074198745192E-2</v>
+      </c>
+      <c r="AE6">
+        <v>2.1091877997852861E-2</v>
+      </c>
+      <c r="AG6">
+        <v>1.8359016035683451E-3</v>
+      </c>
+      <c r="AH6">
+        <v>1.917862039781176E-2</v>
+      </c>
+      <c r="AI6">
+        <v>1.9243038601940501E-2</v>
+      </c>
+      <c r="AK6">
+        <v>5.5563547990750521E-3</v>
+      </c>
+      <c r="AL6">
+        <v>4.1468396001961082E-2</v>
+      </c>
+      <c r="AM6">
+        <v>3.1269083002116532E-2</v>
+      </c>
+      <c r="AO6" s="18">
+        <f t="shared" ref="AO6:AO8" si="4">AVERAGE(A6,E6,I6,M6,Q6,U6,Y6,AC6,AG6,AK6)</f>
+        <v>2.4858958408934999E-3</v>
+      </c>
+      <c r="AP6" s="18">
+        <f t="shared" ref="AP6:AP8" si="5">AVERAGE(B6,F6,J6,N6,R6,V6,Z6,AD6,AH6,AL6)</f>
+        <v>1.9801278980472126E-2</v>
+      </c>
+      <c r="AQ6" s="18">
+        <f t="shared" ref="AQ6:AQ8" si="6">AVERAGE(C6,G6,K6,O6,S6,W6,AA6,AE6,AI6,AM6)</f>
+        <v>2.1344192480132921E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.13867252251220641</v>
+      </c>
+      <c r="B7">
+        <v>0.80866105875320504</v>
+      </c>
+      <c r="C7">
+        <v>1.108695321244886</v>
+      </c>
+      <c r="E7">
+        <v>9.9737938746693539E-2</v>
+      </c>
+      <c r="F7">
+        <v>0.62432312999590067</v>
+      </c>
+      <c r="G7">
+        <v>0.70977026249602204</v>
+      </c>
+      <c r="I7">
+        <v>8.5898411247762846E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.61515359125332902</v>
+      </c>
+      <c r="K7">
+        <v>0.65592501749342769</v>
+      </c>
+      <c r="M7">
+        <v>9.4289321238466076E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.63584169999958251</v>
+      </c>
+      <c r="O7">
+        <v>0.75186152625101388</v>
+      </c>
+      <c r="Q7">
+        <v>0.1027835650078487</v>
+      </c>
+      <c r="R7">
+        <v>0.60366529125021773</v>
+      </c>
+      <c r="S7">
+        <v>0.63130865749699294</v>
+      </c>
+      <c r="U7">
+        <v>0.12052376000065119</v>
+      </c>
+      <c r="V7">
+        <v>0.79214919999940325</v>
+      </c>
+      <c r="W7">
+        <v>0.76253078874433411</v>
+      </c>
+      <c r="Y7">
+        <v>9.4280435002292509E-2</v>
+      </c>
+      <c r="Z7">
+        <v>0.66909867750218832</v>
+      </c>
+      <c r="AA7">
+        <v>0.68762976750876992</v>
+      </c>
+      <c r="AC7">
+        <v>0.12892870000359841</v>
+      </c>
+      <c r="AD7">
+        <v>0.7351286100049037</v>
+      </c>
+      <c r="AE7">
+        <v>0.90354822250519651</v>
+      </c>
+      <c r="AG7">
+        <v>9.8820763752155469E-2</v>
+      </c>
+      <c r="AH7">
+        <v>0.70846096124878388</v>
+      </c>
+      <c r="AI7">
+        <v>0.92361983373994005</v>
+      </c>
+      <c r="AK7">
+        <v>0.1397617837472353</v>
+      </c>
+      <c r="AL7">
+        <v>0.84006845124822571</v>
+      </c>
+      <c r="AM7">
+        <v>0.85449842124799036</v>
+      </c>
+      <c r="AO7" s="18">
+        <f t="shared" si="4"/>
+        <v>0.11036972012589105</v>
+      </c>
+      <c r="AP7" s="18">
+        <f t="shared" si="5"/>
+        <v>0.70325506712557406</v>
+      </c>
+      <c r="AQ7" s="18">
+        <f t="shared" si="6"/>
+        <v>0.79893878187285727</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.969311996828765E-3</v>
+      </c>
+      <c r="B8">
+        <v>1.20691423995886E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.9943824800197039E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.3954086008016019E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.1335973201552409E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.2524903998710221E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.3772091986611491E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.160966519732028E-2</v>
+      </c>
+      <c r="K8">
+        <v>1.0909687602659691E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.366622600704432E-3</v>
+      </c>
+      <c r="N8">
+        <v>1.118061160040088E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.1061447396408771E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.684478001203388E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.2918582798913119E-2</v>
+      </c>
+      <c r="S8">
+        <v>1.2994183998787779E-2</v>
+      </c>
+      <c r="U8">
+        <v>1.4530555962119251E-3</v>
+      </c>
+      <c r="V8">
+        <v>1.090245960070752E-2</v>
+      </c>
+      <c r="W8">
+        <v>1.0759127999888729E-2</v>
+      </c>
+      <c r="Y8">
+        <v>1.2904498009011149E-3</v>
+      </c>
+      <c r="Z8">
+        <v>1.098501080041751E-2</v>
+      </c>
+      <c r="AA8">
+        <v>1.098597199935466E-2</v>
+      </c>
+      <c r="AC8">
+        <v>2.7441720031201838E-3</v>
+      </c>
+      <c r="AD8">
+        <v>1.087997259804979E-2</v>
+      </c>
+      <c r="AE8">
+        <v>1.509574340237305E-2</v>
+      </c>
+      <c r="AG8">
+        <v>1.725478200940415E-3</v>
+      </c>
+      <c r="AH8">
+        <v>1.3538728799438101E-2</v>
+      </c>
+      <c r="AI8">
+        <v>1.1288471003295849E-2</v>
+      </c>
+      <c r="AK8">
+        <v>1.683708400465548E-3</v>
+      </c>
+      <c r="AL8">
+        <v>1.309897040040232E-2</v>
+      </c>
+      <c r="AM8">
+        <v>1.505252939928323E-2</v>
+      </c>
+      <c r="AO8" s="18">
+        <f t="shared" si="4"/>
+        <v>1.6689894399838524E-3</v>
+      </c>
+      <c r="AP8" s="18">
+        <f t="shared" si="5"/>
+        <v>1.1851911739679054E-2</v>
+      </c>
+      <c r="AQ8" s="18">
+        <f t="shared" si="6"/>
+        <v>1.3061589160095902E-2</v>
       </c>
     </row>
   </sheetData>

--- a/final_results.xlsx
+++ b/final_results.xlsx
@@ -20,21 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="29">
   <si>
     <t>Multi-scale Template Matching</t>
   </si>
   <si>
-    <t>Finding position of control</t>
-  </si>
-  <si>
     <t>Accuracy</t>
-  </si>
-  <si>
-    <t>Finding positions of 5 controls</t>
-  </si>
-  <si>
-    <t>Confirming absence of control</t>
   </si>
   <si>
     <t>opencv, numpy</t>
@@ -44,9 +35,6 @@
   </si>
   <si>
     <t>Multi-Scale Template Matching</t>
-  </si>
-  <si>
-    <t>Libraries in usage</t>
   </si>
   <si>
     <t>opencv, numpy, math, scikit-learn</t>
@@ -85,22 +73,40 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Synthetic test data</t>
-  </si>
-  <si>
-    <t>Real test data</t>
-  </si>
-  <si>
     <t>Advanced Template Matching</t>
-  </si>
-  <si>
-    <t>Feature Matching replaced with Advanced Template Matching (My Template Matching + Multi-Scale Template Matching)</t>
   </si>
   <si>
     <t>Modified Template Matching</t>
   </si>
   <si>
     <t>Feature Matching</t>
+  </si>
+  <si>
+    <t>Нахождение центра объекта</t>
+  </si>
+  <si>
+    <t>Точность</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Используемые библиотеки</t>
+  </si>
+  <si>
+    <t>Нахождение центров 5 объектов</t>
+  </si>
+  <si>
+    <t>Подтверждение отсутствия объекта</t>
+  </si>
+  <si>
+    <t>Реальные тестовые данные</t>
+  </si>
+  <si>
+    <t>Синтетические тестовые данные</t>
+  </si>
+  <si>
+    <t>Feature Matching replaced with Advanced Template Matching (Modified Template Matching + Multi-Scale Template Matching)</t>
   </si>
 </sst>
 </file>
@@ -696,20 +702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="31.42578125" style="1"/>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="4" width="31.42578125" style="1"/>
     <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="31.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -721,16 +728,16 @@
     </row>
     <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -738,8 +745,8 @@
       <c r="I2"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+      <c r="A3" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="2">
         <f>test1!AO32</f>
@@ -759,8 +766,8 @@
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
+      <c r="A4" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <f>test2!AO32</f>
@@ -780,8 +787,8 @@
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
+      <c r="A5" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="2">
         <f>test3!AO32</f>
@@ -802,16 +809,16 @@
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -819,8 +826,8 @@
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
+      <c r="A8" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <f>test1!AO33</f>
@@ -840,8 +847,8 @@
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
+      <c r="A9" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <f>test2!AO33</f>
@@ -861,8 +868,8 @@
       <c r="I9"/>
     </row>
     <row r="10" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
+      <c r="A10" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="B10" s="2">
         <f>test3!AO33</f>
@@ -890,13 +897,13 @@
     <row r="12" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F12"/>
       <c r="G12"/>
@@ -905,16 +912,16 @@
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -929,11 +936,11 @@
     </row>
     <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
@@ -941,16 +948,16 @@
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -959,7 +966,7 @@
     </row>
     <row r="17" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B17" s="10">
         <f>test4!U38</f>
@@ -980,7 +987,7 @@
     </row>
     <row r="18" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
         <f>test4!U39</f>
@@ -1001,7 +1008,7 @@
     </row>
     <row r="20" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1014,7 +1021,7 @@
     </row>
     <row r="22" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1027,22 +1034,22 @@
     </row>
     <row r="23" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2">
         <f>test6!AO1</f>
@@ -1060,7 +1067,7 @@
     </row>
     <row r="25" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4">
         <f>test6!AO2</f>
@@ -1078,7 +1085,7 @@
     </row>
     <row r="26" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B26" s="10">
         <f>test6!AO3</f>
@@ -1096,21 +1103,21 @@
     </row>
     <row r="28" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B29" s="2">
         <f>test6!AO6</f>
@@ -1127,7 +1134,7 @@
     </row>
     <row r="30" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
         <f>test6!AO7</f>
@@ -1144,7 +1151,7 @@
     </row>
     <row r="31" spans="1:9" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B31" s="2">
         <f>test6!AO8</f>
@@ -1168,27 +1175,27 @@
     <row r="33" spans="1:4" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="15" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1199,7 +1206,7 @@
     </row>
     <row r="36" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -1207,21 +1214,21 @@
     </row>
     <row r="37" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B38" s="4">
         <f>test5!U38</f>
@@ -1238,7 +1245,7 @@
     </row>
     <row r="39" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2">
         <f>test5!U39</f>
@@ -1281,34 +1288,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -1403,7 +1410,7 @@
         <v>0.46767617343121798</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -1498,7 +1505,7 @@
         <v>1.7322881995933129E-2</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -1596,7 +1603,7 @@
         <v>0.51196560046225481</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1691,7 +1698,7 @@
         <v>1.284351000096649E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -1789,7 +1796,7 @@
         <v>0.44807112941950411</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -1884,7 +1891,7 @@
         <v>1.3129756000125781E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -1982,7 +1989,7 @@
         <v>0.46863937282113582</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -2077,7 +2084,7 @@
         <v>1.6641702005872502E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -2175,7 +2182,7 @@
         <v>0.43128094189914729</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -2270,7 +2277,7 @@
         <v>1.527354599442333E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -2368,7 +2375,7 @@
         <v>0.41933006456679389</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -2463,7 +2470,7 @@
         <v>1.379803000367247E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -2561,7 +2568,7 @@
         <v>0.46297028709890342</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -2656,7 +2663,7 @@
         <v>1.3183743994450201E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -2754,7 +2761,7 @@
         <v>0.40053493876807572</v>
       </c>
       <c r="AN23" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -2849,7 +2856,7 @@
         <v>1.7871440005255861E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -2947,7 +2954,7 @@
         <v>0.39882444406274148</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -3042,7 +3049,7 @@
         <v>1.6933357998495921E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -3140,7 +3147,7 @@
         <v>0.47954831594038372</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -3235,7 +3242,7 @@
         <v>1.4813257995992901E-2</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
@@ -3573,34 +3580,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -3695,7 +3702,7 @@
         <v>0.37566437035244221</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -3790,7 +3797,7 @@
         <v>0.1015712500011432</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -3888,7 +3895,7 @@
         <v>0.4447458470006736</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -3983,7 +3990,7 @@
         <v>7.8942925014416687E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -4081,7 +4088,7 @@
         <v>0.35706062579096037</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -4176,7 +4183,7 @@
         <v>7.9712462480529211E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -4274,7 +4281,7 @@
         <v>0.37345949802127248</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -4369,7 +4376,7 @@
         <v>9.7904037495027296E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -4467,7 +4474,7 @@
         <v>0.41375855873354062</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -4562,7 +4569,7 @@
         <v>9.530787499534199E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -4660,7 +4667,7 @@
         <v>0.33595972203516627</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -4755,7 +4762,7 @@
         <v>7.6964549996773712E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -4853,7 +4860,7 @@
         <v>0.40874024509363183</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -4948,7 +4955,7 @@
         <v>7.5967137519910466E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -5046,7 +5053,7 @@
         <v>0.30428970865201649</v>
       </c>
       <c r="AN23" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -5141,7 +5148,7 @@
         <v>9.2542987520573661E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -5239,7 +5246,7 @@
         <v>0.36899793283757071</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -5334,7 +5341,7 @@
         <v>9.7914574987953529E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -5432,7 +5439,7 @@
         <v>0.42903984334892081</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -5527,7 +5534,7 @@
         <v>0.1011443875031546</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -5836,34 +5843,34 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
@@ -5958,7 +5965,7 @@
         <v>0.4</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -6053,7 +6060,7 @@
         <v>2.5594189997063949E-2</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -6151,7 +6158,7 @@
         <v>0.4</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -6246,7 +6253,7 @@
         <v>1.256062400178052E-2</v>
       </c>
       <c r="AN6" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -6344,7 +6351,7 @@
         <v>0.34</v>
       </c>
       <c r="AN8" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -6439,7 +6446,7 @@
         <v>1.388507799943909E-2</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
@@ -6537,7 +6544,7 @@
         <v>0.38</v>
       </c>
       <c r="AN11" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
@@ -6632,7 +6639,7 @@
         <v>1.672361599979922E-2</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
@@ -6730,7 +6737,7 @@
         <v>0.4</v>
       </c>
       <c r="AN14" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
@@ -6825,7 +6832,7 @@
         <v>1.7793423996772618E-2</v>
       </c>
       <c r="AN15" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
@@ -6923,7 +6930,7 @@
         <v>0.42</v>
       </c>
       <c r="AN17" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
@@ -7018,7 +7025,7 @@
         <v>1.3773278000298889E-2</v>
       </c>
       <c r="AN18" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
@@ -7116,7 +7123,7 @@
         <v>0.42</v>
       </c>
       <c r="AN20" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
@@ -7211,7 +7218,7 @@
         <v>1.3401135999010881E-2</v>
       </c>
       <c r="AN21" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
@@ -7309,7 +7316,7 @@
         <v>0.46</v>
       </c>
       <c r="AN23" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
@@ -7404,7 +7411,7 @@
         <v>1.644064800231718E-2</v>
       </c>
       <c r="AN24" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
@@ -7502,7 +7509,7 @@
         <v>0.48</v>
       </c>
       <c r="AN26" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -7597,7 +7604,7 @@
         <v>1.6495699997758489E-2</v>
       </c>
       <c r="AN27" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
@@ -7695,7 +7702,7 @@
         <v>0.4</v>
       </c>
       <c r="AN29" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
@@ -7790,7 +7797,7 @@
         <v>1.7215983999194578E-2</v>
       </c>
       <c r="AN30" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
@@ -8099,19 +8106,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -9745,19 +9752,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
